--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_122.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_122.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d632541-Reviews-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>177</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Comfort-Inn-Suites-Near-Universal-N-Hollywood-Burbank.h1588303.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_122.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_122.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="645">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1865 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r560759577-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>632541</t>
+  </si>
+  <si>
+    <t>560759577</t>
+  </si>
+  <si>
+    <t>02/15/2018</t>
+  </si>
+  <si>
+    <t>Broken tv and phone</t>
+  </si>
+  <si>
+    <t>TV would not go on.  I went to call the front desk and the phone was dead.  Had  to use my cell phone. Called and they came up and agreed with me that it was the remote.  Told me I would have to use the buttons on the side of the TV.  Seriously? They could not give me a working remote. Offered me a new room, but that was too much of a hassel.  This neighborhood is a total ghetto.  At least I got to watch 2 people get arrested on my way to the nicest restaurant around... McDonald's.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r553973868-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>553973868</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>Nice Surprise!  - Visit to Universal Studios</t>
+  </si>
+  <si>
+    <t>Such a great surprise!  The entire property was very clean.  I was so impressed with the cleanliness especially the sleeping rooms, lobby and breakfast room.  We traveled a lot and this is our first time seeing a housekeeper removed the curtains to clean.   Highly recommended!</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r553012684-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>553012684</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Good Clean place</t>
+  </si>
+  <si>
+    <t>Nice staff, good breakfast, clean room and sheets, has supermarkets and lots of eateries of a variety of cuisines at walking distance. From various Asian cuisines, to Mexican, middle eastern, you name it. Universal studios isn’t far and the place is close to a subway and has public transport stops right upfront. Highly recommend.Thank you.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r544709385-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>544709385</t>
+  </si>
+  <si>
+    <t>12/02/2017</t>
+  </si>
+  <si>
+    <t>Neat and comfortable hotel</t>
+  </si>
+  <si>
+    <t>We stayed at the Comfort Inn recently and were extremely happy with the experience. The rooms were clean and looked almost as good as new. Bathrooms were spacious. Staff was great and friendly. Continental breakfast was nice as well. Overall well maintained and comfortable rooms.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r540808392-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>540808392</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, updated</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay here while visiting Universal Studios. Only about a ten minute drive to the park. Convenient shopping center across the street with a grocery store, little Cesar's pizza and a dollar store.. We felt clean and comfortable and safe. Free hot breakfast was decent and free parking a huge plus. Would definitely stay here again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r535661288-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>535661288</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable Hotel</t>
+  </si>
+  <si>
+    <t>My son and I stayed here for four nights. It was a very nice hotel and in a convenient location. The staff was very friendly and always greeted us with a smile. The breakfast was decent and there was enough variation.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r524246444-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>524246444</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Upgraded Last Year and Looks It</t>
+  </si>
+  <si>
+    <t>While driving in late, this jewel of a hotel was waiting for us. The desk clerk was kind enough in upgrading us to a suite and the room was supplied with nice amenities. The bed was comfortable and bathroom supplied with a beautiful sink &amp; faucet. The shower was relatively new also. Some issues were: bathroom woodwork/molding needed cleaning or painting and breakfast area was not completely ready until 7:15 am (someone overslept or was late}. Had the pleasure of a restful evening.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r524053482-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>524053482</t>
+  </si>
+  <si>
+    <t>Upscale Comfort in sketchy 'hood'</t>
+  </si>
+  <si>
+    <t>We were skeptical driving  to the Comfort Inn 'cause of the neighborhood.  Upon arrival we found what appeared to be a new or renovated Inn. King suite was large, contemporary decor. No issues. Lobby and breakfast room clean and modern. Double garage parking so be careful how you park. Stay away from shopping center across street. Lots of groups of folks hanging around,  passing out fliers, etc. Would recommend hotel to travelers. Breakfast typical Choice Hotel offering.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r521242188-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>521242188</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>This is a great place.</t>
+  </si>
+  <si>
+    <t>We stayed on a trip we took this summer for vacation. Hotel was clean and staff was great. Close to Universal and easy access. Highly recommended and priced well. We stayed at a resort style hotel the night before by Hilton and those rooms were 450 per night. This place was superior to it by a long shot. Made this Texan feel at home.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r504307367-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>504307367</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Lovely stsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touring Hollywood for 3 days this was a very practical hotel for our needs. A quick drive and your in to Hollywood itself, located near Griffith observatory and a short drive to the Dodgers stadium.  The Hotel itself was very comfy, clean and well presented, room was a good size, bathroom was clean and spacious. Free wifi which helped massively to plan the day ahead and book tickets etc. Hotel stay came with breakfast includes, basic breakfast but more than enough to fill you up well past lunchtime. Would stay again </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r503580151-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>503580151</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Short stay at this nice hotel</t>
+  </si>
+  <si>
+    <t>Our family stayed here for just one night while at Universal Studios.  The hotel was nice and kept clean.  The area is a bit rough (especially the roads out front) but the hotel always felt safe.  Parking is a little tricky as it's tandem, but we never got blocked so I can't complain.  The free breakfast was lackluster, but not terrible.  This was a nice location near the freeway and easy access to the theme park and Burbank attractions.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r496379940-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>496379940</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Good location. Friendly staff</t>
+  </si>
+  <si>
+    <t>Food and grocery store nearby. Rooms have mini fridge and microwave. Clean rooms and safe parking. Breakfast is pretty good but you should get there early. The staff are very friendly and helpful. Whenever I come to L.A. for work I always stay here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r487739200-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>487739200</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean and friendly </t>
+  </si>
+  <si>
+    <t>This hotel didn't have much within walking distance for food or shopping but the hotel was very nice. The staff was friendly and accommodating. The rooms were up to date and clean. The pool is in a shaded area, so not great if you want some warm California sun and no hot tub. The breakfast wasn't great but wasn't bad. I would definitely stay there again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r483691455-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>483691455</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>Looking for a value hotel near Universal Studios?</t>
+  </si>
+  <si>
+    <t>I will start off by stating that this hotel was convenient to stay at when looking for a "cheaper deal" near Universal Studios. However the cost of the hotel was a bit much for what we got. I feel the cost is that price it is because they can due to it's location to Universal. The good:The rooms were clean and they had a nice clean hotel smell to it all. The bad:Outdated hotelPool was very small and in a small enclosed room no bigger than a front room. It was very crowded with a large family. Their is one small elevator Parking is odd you have to pull up into a 2 car stall and leave your keys so they can move your car if the person in front of you needs to leave. Bars on windows. I get this is for our protection but that seemed very concerning to me that their was bars on my window!The location is very run down around the hotel. It seems to be a place you wouldn't want to just walk around by ones self. The soaps (shampoo and conditioner) they give you seemed to be refilled from a time before it was very unsettling. Over all I will not be staying here again and will advise others not to.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>I will start off by stating that this hotel was convenient to stay at when looking for a "cheaper deal" near Universal Studios. However the cost of the hotel was a bit much for what we got. I feel the cost is that price it is because they can due to it's location to Universal. The good:The rooms were clean and they had a nice clean hotel smell to it all. The bad:Outdated hotelPool was very small and in a small enclosed room no bigger than a front room. It was very crowded with a large family. Their is one small elevator Parking is odd you have to pull up into a 2 car stall and leave your keys so they can move your car if the person in front of you needs to leave. Bars on windows. I get this is for our protection but that seemed very concerning to me that their was bars on my window!The location is very run down around the hotel. It seems to be a place you wouldn't want to just walk around by ones self. The soaps (shampoo and conditioner) they give you seemed to be refilled from a time before it was very unsettling. Over all I will not be staying here again and will advise others not to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r474841293-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>474841293</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Family short Stay</t>
+  </si>
+  <si>
+    <t>The price is reasonable. The room is clean and bed is comfortable. Close to Universal Studios and not that far to Porto's Bakery. The only thing that Is negative is the parking.. it is kind of odd. Continental breakfast is a plus! Over all, I like our stay.Will be coming back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r466603363-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>466603363</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Very Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>Lovely clean room in a good location.  We only stayed one night but wished we could have stayed longer. Large breakfast area, good food and many choices. Internet in lobby available or sign in on your own device with their password.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r461603522-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>461603522</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Newest Great Find!</t>
+  </si>
+  <si>
+    <t>We decided to make a spur of the moment trip to Universal Studios....and we were having trouble finding a good place to stay - needing two rooms for eight adults...and we found this place.  It is in an area called NOHO....never heard of it - but it is an Art's District of sorts, but it was close to Universal...so we decided, what the heck.  Price was good and they had the rooms.Very easy to find and the service was really GREAT!  Parking was the only issue that I can really think of....since most is double-parking, if you park behind someone, you need to leave your keys at the front desk....so we had to clean out our van at night - because you never know.  Again, this was the ONLY thing I can come up with.  Everyone we came in contact with was great.  From the front desk....the food area....housekeeping....everyone!  Outstanding job by all...we will have this location on our very short list of places to stay in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>We decided to make a spur of the moment trip to Universal Studios....and we were having trouble finding a good place to stay - needing two rooms for eight adults...and we found this place.  It is in an area called NOHO....never heard of it - but it is an Art's District of sorts, but it was close to Universal...so we decided, what the heck.  Price was good and they had the rooms.Very easy to find and the service was really GREAT!  Parking was the only issue that I can really think of....since most is double-parking, if you park behind someone, you need to leave your keys at the front desk....so we had to clean out our van at night - because you never know.  Again, this was the ONLY thing I can come up with.  Everyone we came in contact with was great.  From the front desk....the food area....housekeeping....everyone!  Outstanding job by all...we will have this location on our very short list of places to stay in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r446168848-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>446168848</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having fun with my family </t>
+  </si>
+  <si>
+    <t>Amazing stay everyone was nice. Hope to stay there again soon. The rooms where clean everyday. It was close to universal studios. The parking was different but it's only a little thing. The swimming pool was indoors cool. It was raining when we stayed there.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r429338902-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>429338902</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Clean and Comfort for Universal Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel was just what we needed after a long car ride.  It was clean and comfortable, we were able to walk to a nearby place for dinner. the neighbor is working class but safe.  the next day we traveled a short ride to the theme park .  the only thing is parking, small amount of spaces for size of hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r428455934-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>428455934</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>Family Wedding in LA</t>
+  </si>
+  <si>
+    <t>Picked this hotel due to close proximity of the family in the area. Other than that convenience there's no immediate activities in the area (which this is the North Hollywood), however it is convenient to reach many of the major attractions with-in 20 to 30 minutes drive.The room was clean and comfortable, staff pleasant and accommodating and the continental breakfast was very filling and varied every day.Definitely a family-friendly and I would recommend this facility</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r416306089-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>416306089</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good location </t>
+  </si>
+  <si>
+    <t>This hotel is in a good location to get to most places, very easy to get to downtown, universal studios and Warner brothers studios. We didn't uber because it worked out to be more expensive than parking and they don't offer a shuttle. But we got to the studios in like 15 minutes easy. The room was nice and big, good size bathroom, microwave, coffee machine etc. Our tv was broken at first but the came and fixed it very quickly. No noise from other rooms at all. The only problem I had was the smell, not sure exactly what it was, dusty or a wet smell but it was noticeable when you entered the room and didn't seem to go away. There's a cheap decent Chinese place in the strip mall across the street, big meals, so big that's what we had for dinner both night, thanks to the microwave too! The parking was weird, you have to park in the front space and if the hotel is fuller, someone essentially has to park you in and leave the keys at reception. It wasn't busy for us so didn't need to worry about it. Breakfast was alright, not as extensive as most other places that includes breakfast but nice to not have to adventure out for it. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>This hotel is in a good location to get to most places, very easy to get to downtown, universal studios and Warner brothers studios. We didn't uber because it worked out to be more expensive than parking and they don't offer a shuttle. But we got to the studios in like 15 minutes easy. The room was nice and big, good size bathroom, microwave, coffee machine etc. Our tv was broken at first but the came and fixed it very quickly. No noise from other rooms at all. The only problem I had was the smell, not sure exactly what it was, dusty or a wet smell but it was noticeable when you entered the room and didn't seem to go away. There's a cheap decent Chinese place in the strip mall across the street, big meals, so big that's what we had for dinner both night, thanks to the microwave too! The parking was weird, you have to park in the front space and if the hotel is fuller, someone essentially has to park you in and leave the keys at reception. It wasn't busy for us so didn't need to worry about it. Breakfast was alright, not as extensive as most other places that includes breakfast but nice to not have to adventure out for it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r403409930-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>403409930</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Parking was very tight, very noisy</t>
+  </si>
+  <si>
+    <t>Hotel was clean and the bathrooms were newer, only 10 minutes from the Burbank Airport, we were charged 45 dollars more that what was listed on our reservation in choice rewards, parking is very close and you park 2 to a row behind each other . Breakfast does not start till 7 am kind of weird for most comfort suites we have stayed at, so if you are trying to catch an early flight you get nothing no exceptions</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r395772871-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>395772871</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Universal trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our stay was ok. There is really not that much parking, so if you have a larger vehicle like we do, just park and uber. This was the first time we used uber as well, and had a great experience with that. Other than the parking, my only other complaint is the curtains were not able to block out the sun from intruding on my slumber at 6 am every morning. The black out curtains are only for decoration. They don't cover the windows at all. The continental breakfast was descent, while not great, it still filled us in the morning. </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r395259926-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>395259926</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Enjoyable Stay!</t>
+  </si>
+  <si>
+    <t>This hotel is one of my favorite Comfort Inn I stayed at. This hotel has everything you need. The staff were very nice and the breakfast was awesome. I was with my family of 5 and had 2 rooms and the manager made sure we were satisfied. Overall this is an excellent property.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r388313432-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>388313432</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Very pleased</t>
+  </si>
+  <si>
+    <t>I was very pleased with this hotel.  Huge room, large bathroom, very clean, very nice bedding and comfortable bed.  Everything you need in a hotel room, especially for the price.  I read all the reviews ahead of time and was aware of the "cons," but none of them turned out to be a big deal at all.  
+First, yes, there is construction in front of the hotel that means you can't turn directly into it from the other side of the street.  But I quickly realized that I could turn into the grocery store parking lot, come out on the far side of it and be able to turn left at the light and right into the hotel.  So it was no big deal.  
+The neighborhood certainly wasn't upscale, but not too bad either and I really don't care about a view.  The hotel's location is such that you will want a car to get to places anyway, so that also makes the neighborhood somewhat irrelevant.  At night the door to the elevator which led to the rooms was locked and required a room card to enter.  
+The parking garage does have cars parked two deep when necessary, but that wasn't a problem either.  I just made it a point to check about 10 minutes before I wanted to leave, and the only time someone was parked in front of me I just asked at the desk to have it...I was very pleased with this hotel.  Huge room, large bathroom, very clean, very nice bedding and comfortable bed.  Everything you need in a hotel room, especially for the price.  I read all the reviews ahead of time and was aware of the "cons," but none of them turned out to be a big deal at all.  First, yes, there is construction in front of the hotel that means you can't turn directly into it from the other side of the street.  But I quickly realized that I could turn into the grocery store parking lot, come out on the far side of it and be able to turn left at the light and right into the hotel.  So it was no big deal.  The neighborhood certainly wasn't upscale, but not too bad either and I really don't care about a view.  The hotel's location is such that you will want a car to get to places anyway, so that also makes the neighborhood somewhat irrelevant.  At night the door to the elevator which led to the rooms was locked and required a room card to enter.  The parking garage does have cars parked two deep when necessary, but that wasn't a problem either.  I just made it a point to check about 10 minutes before I wanted to leave, and the only time someone was parked in front of me I just asked at the desk to have it moved and within five minutes it had been.  I was very glad to have a parking garage, and a free one at that, so the "double parking" didn't bother me at all.  The pool was small and sort of strangely located across from the lobby, but it was fine for my grandson and was refreshing after a day of sightseeing.  It was clean and towels were provided.I was also pleased with the location - fairly close to the highway, not far from Universal, Warner Bros, and even Hollywood, etc.  You do need to understand that nothing is in walking distance, but Universal was only about a 10 minute drive.  The highway was about 5 minutes away.  There were several good restaurants just down Lankershim also.  The breakfast at the hotel was very good and varied.  The staff was very pleasant and helpful.  I had no problem with the free wifi.So I have only positive things to say about this hotel.  We had a very pleasant stay and there was nothing negative about our experience there.  I would highly recommend it, especially for the price and relative proximity to many attractions/areas of town.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>I was very pleased with this hotel.  Huge room, large bathroom, very clean, very nice bedding and comfortable bed.  Everything you need in a hotel room, especially for the price.  I read all the reviews ahead of time and was aware of the "cons," but none of them turned out to be a big deal at all.  
+First, yes, there is construction in front of the hotel that means you can't turn directly into it from the other side of the street.  But I quickly realized that I could turn into the grocery store parking lot, come out on the far side of it and be able to turn left at the light and right into the hotel.  So it was no big deal.  
+The neighborhood certainly wasn't upscale, but not too bad either and I really don't care about a view.  The hotel's location is such that you will want a car to get to places anyway, so that also makes the neighborhood somewhat irrelevant.  At night the door to the elevator which led to the rooms was locked and required a room card to enter.  
+The parking garage does have cars parked two deep when necessary, but that wasn't a problem either.  I just made it a point to check about 10 minutes before I wanted to leave, and the only time someone was parked in front of me I just asked at the desk to have it...I was very pleased with this hotel.  Huge room, large bathroom, very clean, very nice bedding and comfortable bed.  Everything you need in a hotel room, especially for the price.  I read all the reviews ahead of time and was aware of the "cons," but none of them turned out to be a big deal at all.  First, yes, there is construction in front of the hotel that means you can't turn directly into it from the other side of the street.  But I quickly realized that I could turn into the grocery store parking lot, come out on the far side of it and be able to turn left at the light and right into the hotel.  So it was no big deal.  The neighborhood certainly wasn't upscale, but not too bad either and I really don't care about a view.  The hotel's location is such that you will want a car to get to places anyway, so that also makes the neighborhood somewhat irrelevant.  At night the door to the elevator which led to the rooms was locked and required a room card to enter.  The parking garage does have cars parked two deep when necessary, but that wasn't a problem either.  I just made it a point to check about 10 minutes before I wanted to leave, and the only time someone was parked in front of me I just asked at the desk to have it moved and within five minutes it had been.  I was very glad to have a parking garage, and a free one at that, so the "double parking" didn't bother me at all.  The pool was small and sort of strangely located across from the lobby, but it was fine for my grandson and was refreshing after a day of sightseeing.  It was clean and towels were provided.I was also pleased with the location - fairly close to the highway, not far from Universal, Warner Bros, and even Hollywood, etc.  You do need to understand that nothing is in walking distance, but Universal was only about a 10 minute drive.  The highway was about 5 minutes away.  There were several good restaurants just down Lankershim also.  The breakfast at the hotel was very good and varied.  The staff was very pleasant and helpful.  I had no problem with the free wifi.So I have only positive things to say about this hotel.  We had a very pleasant stay and there was nothing negative about our experience there.  I would highly recommend it, especially for the price and relative proximity to many attractions/areas of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r352599317-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>352599317</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Upgraded rooms, non-upgraded prices.</t>
+  </si>
+  <si>
+    <t>This hotel was clean, the rooms have all had a makeover which was a very nice surprise.Yes, this hotel is situated in a rather "seedy" part of town, but I had no issues with the locals, just don't walk around waving your wallet.There is a "Superior" grocery store opposite which seemed to be alright, nothing too fancy, mind.Wifi is good and relatively reliable as well, rooms come with an iron and board, flat screen tv, desk area, microwave and fridge.Only negative experience I had was where I was given a room that stated there were two beds, only to find that there was one bed and one sofa bed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r349825743-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>349825743</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Great staff; bad location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When we booked our room we were told that this hotel was quite close to Universal studios all in walking distance. Very convenient. True if you don't mind walking 4-5 miles. Not a nice neighborhood to be in after dark. The construction on the road right in front if the hotel made access difficult. The local buses will not stop anywhere close to the hotel.  The hotel was very clean. Buffet Breakfast was great with eggs, meat and fresh belgian waffle ( made to order). Also cereal, fresh fruits, yogurt &amp; hot/ cold beverages. </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r326254102-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>326254102</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>A Great Stay</t>
+  </si>
+  <si>
+    <t>This hotel is great!!!  It is modern, clean, offers free continental breakfast and free parking.  It is also close to sites like Universal Studios and Warner Brothers.  The room we were assigned to seemed like it was new and the bathroom was very large.  The front desk staff were also very courteous.  The only downfall was the parking situation because the lot is so small.  Vehicles are parked behind one another and guests are required to provide their car keys to the front desk if they are blocking anyone in.  Fortunately, we didn’t run into a situation where we blocked another car in, and so we never had to give our keys to a representative at the front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>This hotel is great!!!  It is modern, clean, offers free continental breakfast and free parking.  It is also close to sites like Universal Studios and Warner Brothers.  The room we were assigned to seemed like it was new and the bathroom was very large.  The front desk staff were also very courteous.  The only downfall was the parking situation because the lot is so small.  Vehicles are parked behind one another and guests are required to provide their car keys to the front desk if they are blocking anyone in.  Fortunately, we didn’t run into a situation where we blocked another car in, and so we never had to give our keys to a representative at the front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r324973026-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>324973026</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Surprisingly nice and clean</t>
+  </si>
+  <si>
+    <t>We stayed here as a last minute addition to our trip to Disneyland. My daughter wanted to take the kids to Universal Studios. I couldn't wait to get to Disneyland but I didn't want to leave this hotel! I am VERY aware of cleanliness when I stay at hotels. I always find the one hair, or the trash behind the nightstand that the housekeeper missed. This place was SPOTLESSLY CLEAN! The rooms were spacious and had a very comfortable feel. The staff was courteous and the complimentary breakfast was better than average for a lobby breakfast. We only stayed one night, but I will definitely book here again when we return.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here as a last minute addition to our trip to Disneyland. My daughter wanted to take the kids to Universal Studios. I couldn't wait to get to Disneyland but I didn't want to leave this hotel! I am VERY aware of cleanliness when I stay at hotels. I always find the one hair, or the trash behind the nightstand that the housekeeper missed. This place was SPOTLESSLY CLEAN! The rooms were spacious and had a very comfortable feel. The staff was courteous and the complimentary breakfast was better than average for a lobby breakfast. We only stayed one night, but I will definitely book here again when we return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r321731448-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>321731448</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Typical Comfort Inn stay</t>
+  </si>
+  <si>
+    <t>You get what you pay for. I travel a lot and usually stay at Choice hotels, and this is your typical Choice hotel: no thrills, nice beds, blah breakfast, somewhat decent prices. I'm up to Platinum membership (which really gets you nothing), but I'm getting tired of the Choice brands. I've stayed at a few Holiday Inns lately, and some of the differences are starting to matter: nicer looking properties, nicer rooms, better breakfast, and the prices are starting to get better in some locations.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r308628903-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>308628903</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>U must have a car since is far from everything. I had a walk to Dennis to have breakfast and it was a long walk. There is a small indoor pool that only kids would have fun. I arrived on time but I had to wait about 40 minutes for the room be ready ( I was at 3pm check in time). The housekeepers did a good job though (august 7th 2014). If you are not a smoking person, please don't get a smoking room! It smells is not enjoyable. I really liked the room since has a lot of space. It is fair for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Ciuniversal, General Manager at Comfort Inn &amp; Suites Near Universal - N. Hollywood - Burbank, responded to this reviewResponded September 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2015</t>
+  </si>
+  <si>
+    <t>U must have a car since is far from everything. I had a walk to Dennis to have breakfast and it was a long walk. There is a small indoor pool that only kids would have fun. I arrived on time but I had to wait about 40 minutes for the room be ready ( I was at 3pm check in time). The housekeepers did a good job though (august 7th 2014). If you are not a smoking person, please don't get a smoking room! It smells is not enjoyable. I really liked the room since has a lot of space. It is fair for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r302081706-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>302081706</t>
+  </si>
+  <si>
+    <t>08/22/2015</t>
+  </si>
+  <si>
+    <t>Great location.  Great Staff.</t>
+  </si>
+  <si>
+    <t>When a co-worker's daughter received a scholarship to Millennium Dance Studio, a total of 5 of us decided to got for the week.  We found this hotel through the Millennium website.  It was very convenient to the Bob Hope Airport.  It was right on the bus line to go down the street to Millennium.  We had a room with a pull-out sofa bed and the 5 of us were comfortable.  The staff was super helpful.  Due to the time change, I was waking very early everyday.  I would take reading material and go sit by the pool.  When Charles (morning desk clerk) saw me, he would unlock the breakfast room early and invite me to go get coffee.  There is a very nice breakfast room with a good selection.  We did lots of sightseeing.  I would plan our daytrips on the hotel computer and then print out directions (making sure to avoid highways).  I found it very easy to drive around.  We went to Disneyland, Santa Monica Pier, an event for the LA Film Festival, The Farmer's Market, and hiked the canyon to the Hollywood Sign.  We had a great week and would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>When a co-worker's daughter received a scholarship to Millennium Dance Studio, a total of 5 of us decided to got for the week.  We found this hotel through the Millennium website.  It was very convenient to the Bob Hope Airport.  It was right on the bus line to go down the street to Millennium.  We had a room with a pull-out sofa bed and the 5 of us were comfortable.  The staff was super helpful.  Due to the time change, I was waking very early everyday.  I would take reading material and go sit by the pool.  When Charles (morning desk clerk) saw me, he would unlock the breakfast room early and invite me to go get coffee.  There is a very nice breakfast room with a good selection.  We did lots of sightseeing.  I would plan our daytrips on the hotel computer and then print out directions (making sure to avoid highways).  I found it very easy to drive around.  We went to Disneyland, Santa Monica Pier, an event for the LA Film Festival, The Farmer's Market, and hiked the canyon to the Hollywood Sign.  We had a great week and would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r298509801-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>298509801</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Universal studios</t>
+  </si>
+  <si>
+    <t>Good place to stay very clean and breakfast was awesome! Parking was a little weird but I didn't have a problem since I have a suburban nobody parked behind me. Because their parking space is small, cars park behind an other car but like I said it wasn't a problem. For breakfast they have it all it was delicious.MoreShow less</t>
+  </si>
+  <si>
+    <t>Good place to stay very clean and breakfast was awesome! Parking was a little weird but I didn't have a problem since I have a suburban nobody parked behind me. Because their parking space is small, cars park behind an other car but like I said it wasn't a problem. For breakfast they have it all it was delicious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r291622097-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>291622097</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>The manager cancelled my reservation because I cancelled a booking.com  reservation an re-booked at a cheaper rate</t>
+  </si>
+  <si>
+    <t>I had booked this hotel on booking. com   and found a cheaper rate or a better room on the Comfort Inn and Suites web site.  I cancelled the Booking. com Reservation and them booked he better room and cheaper rate on the Comfort Inn and Suites website.   Arrived at the hotel   only to find that the manager had cancelled my new reservation, and was told by the extremely rude desk jockey that I was out of luck.  He told me that all the rooms were booked....The Entire parking structure was empty except for my car.     No effort was made to get me a room anywhere, I was stuck with no room for the night.  I had even called the hotel the night prior to my arrival to make sure my reservation included a refrigerator.   I missed my concert at the Hollywood Bowl because I could not get a room for the night anywhere...had   the worst experience ever at this hotel....I will NEVER STAY WITH THE CHOICE HOTEL CHAIN AGAIN.    TOTALLY RUINED MY DAY.   STAY AWAY FROM HERE...IT IS IN A TERRIBLE AREAMoreShow less</t>
+  </si>
+  <si>
+    <t>I had booked this hotel on booking. com   and found a cheaper rate or a better room on the Comfort Inn and Suites web site.  I cancelled the Booking. com Reservation and them booked he better room and cheaper rate on the Comfort Inn and Suites website.   Arrived at the hotel   only to find that the manager had cancelled my new reservation, and was told by the extremely rude desk jockey that I was out of luck.  He told me that all the rooms were booked....The Entire parking structure was empty except for my car.     No effort was made to get me a room anywhere, I was stuck with no room for the night.  I had even called the hotel the night prior to my arrival to make sure my reservation included a refrigerator.   I missed my concert at the Hollywood Bowl because I could not get a room for the night anywhere...had   the worst experience ever at this hotel....I will NEVER STAY WITH THE CHOICE HOTEL CHAIN AGAIN.    TOTALLY RUINED MY DAY.   STAY AWAY FROM HERE...IT IS IN A TERRIBLE AREAMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r287683090-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>287683090</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great, Kinda Sketchy </t>
+  </si>
+  <si>
+    <t>This hotel is great and has a wonderful staff. However when we went they were painting the halls so the fans were noisy and at midnight we heard a drunk woman shouting in the hall and banging on doors. Kinda sketchy, probably because on the news in the breakfast room the next morning we saw that there was a 3 man murder 2 miles way from us. Overall, great for the price but just a little sketcy.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Ciuniversal, General Manager at Comfort Inn &amp; Suites Near Universal - N. Hollywood - Burbank, responded to this reviewResponded July 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is great and has a wonderful staff. However when we went they were painting the halls so the fans were noisy and at midnight we heard a drunk woman shouting in the hall and banging on doors. Kinda sketchy, probably because on the news in the breakfast room the next morning we saw that there was a 3 man murder 2 miles way from us. Overall, great for the price but just a little sketcy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r285827101-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>285827101</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>Affordable and Close to Universal Studios</t>
+  </si>
+  <si>
+    <t>I've chosen this hotel because of it's location and price. We went to Universal Studio for 2 days. Staff are very friendly. The pool is located in an enclosed area. There's a parking area for clients, Wi-Fi is free. Continental breakfast is good, they have scrambled eggs and bacon. They also have a waffle maker but it would have been better if they have two so the line wouldn't be longer. It could be crowded early in the morning. We have a fridge, coffeemaker and a microwave in our room. Overall, it was a nice, pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've chosen this hotel because of it's location and price. We went to Universal Studio for 2 days. Staff are very friendly. The pool is located in an enclosed area. There's a parking area for clients, Wi-Fi is free. Continental breakfast is good, they have scrambled eggs and bacon. They also have a waffle maker but it would have been better if they have two so the line wouldn't be longer. It could be crowded early in the morning. We have a fridge, coffeemaker and a microwave in our room. Overall, it was a nice, pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r257889714-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>257889714</t>
+  </si>
+  <si>
+    <t>03/05/2015</t>
+  </si>
+  <si>
+    <t>Ewww</t>
+  </si>
+  <si>
+    <t>We booked this for one night stay because it was close to TPIR. The hotel price was 100.00 per night and the location was great, but, we had to change rooms twice. The first room had holes in the drywall large enough for rats to come in. The second room the front door did not lock. The front desk was very nice but the hotel was not. The bed was clean so we stayed, but if we would of had small kids we would have left.I think next time I pay more!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Ciuniversal, General Manager at Comfort Inn &amp; Suites Near Universal - N. Hollywood - Burbank, responded to this reviewResponded March 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2015</t>
+  </si>
+  <si>
+    <t>We booked this for one night stay because it was close to TPIR. The hotel price was 100.00 per night and the location was great, but, we had to change rooms twice. The first room had holes in the drywall large enough for rats to come in. The second room the front door did not lock. The front desk was very nice but the hotel was not. The bed was clean so we stayed, but if we would of had small kids we would have left.I think next time I pay more!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r257839520-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>257839520</t>
+  </si>
+  <si>
+    <t>Found our new place to stay in Hollywood</t>
+  </si>
+  <si>
+    <t>I have stayed here twice.  First time was a 3 night stay in between Xmas and New Years 2014 and the Valentine Weekend 2015.  We love the place.  Front desk was very helpful, especially the night time attendant (I believe his name was Charles but I could be wrong.....he had a pony tail).  But he has one of the best customer service you can find.   
+It's a quite place.  We had the 3rd floor the first time and the 2nd floor the next stay.  One elevator but never was busy.  I can see vacationers from couples to families to girls night out in the Hollywood and Universal Studios area.  Parking can get weird.  We had to leave our keys one time because they would need to move your car if you park your card in back of another person.  
+Quiet room but like most place, there are people who are just loud and we had one guy talk loud on the phone but wasn't too bad.  Both times we had a king bed and a sofa bed.  My wife and I slept on the king bed and our 9 year old daughter slept on the sofa bed.  We did have a problem with the toilet the first time but they were able to fix when we went out to Universal (which is a short drive).  
+Area is kinda sketchy, especially turning left from the hotel but better than staying on...I have stayed here twice.  First time was a 3 night stay in between Xmas and New Years 2014 and the Valentine Weekend 2015.  We love the place.  Front desk was very helpful, especially the night time attendant (I believe his name was Charles but I could be wrong.....he had a pony tail).  But he has one of the best customer service you can find.   It's a quite place.  We had the 3rd floor the first time and the 2nd floor the next stay.  One elevator but never was busy.  I can see vacationers from couples to families to girls night out in the Hollywood and Universal Studios area.  Parking can get weird.  We had to leave our keys one time because they would need to move your car if you park your card in back of another person.  Quiet room but like most place, there are people who are just loud and we had one guy talk loud on the phone but wasn't too bad.  Both times we had a king bed and a sofa bed.  My wife and I slept on the king bed and our 9 year old daughter slept on the sofa bed.  We did have a problem with the toilet the first time but they were able to fix when we went out to Universal (which is a short drive).  Area is kinda sketchy, especially turning left from the hotel but better than staying on the strip in Hollywood.  Many places to eat if you turn right from the hotel.  There is also a grocery store across the street, a Dollartree as well and a CVS a minute drive from the place. The pool is small so if you wanted to have a place to stay with a nice pool I would recommend the Sportsmen's Lodge instead.  So next time we come to Hollywood and just need a nice clean place to stay we'll come back here.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I have stayed here twice.  First time was a 3 night stay in between Xmas and New Years 2014 and the Valentine Weekend 2015.  We love the place.  Front desk was very helpful, especially the night time attendant (I believe his name was Charles but I could be wrong.....he had a pony tail).  But he has one of the best customer service you can find.   
+It's a quite place.  We had the 3rd floor the first time and the 2nd floor the next stay.  One elevator but never was busy.  I can see vacationers from couples to families to girls night out in the Hollywood and Universal Studios area.  Parking can get weird.  We had to leave our keys one time because they would need to move your car if you park your card in back of another person.  
+Quiet room but like most place, there are people who are just loud and we had one guy talk loud on the phone but wasn't too bad.  Both times we had a king bed and a sofa bed.  My wife and I slept on the king bed and our 9 year old daughter slept on the sofa bed.  We did have a problem with the toilet the first time but they were able to fix when we went out to Universal (which is a short drive).  
+Area is kinda sketchy, especially turning left from the hotel but better than staying on...I have stayed here twice.  First time was a 3 night stay in between Xmas and New Years 2014 and the Valentine Weekend 2015.  We love the place.  Front desk was very helpful, especially the night time attendant (I believe his name was Charles but I could be wrong.....he had a pony tail).  But he has one of the best customer service you can find.   It's a quite place.  We had the 3rd floor the first time and the 2nd floor the next stay.  One elevator but never was busy.  I can see vacationers from couples to families to girls night out in the Hollywood and Universal Studios area.  Parking can get weird.  We had to leave our keys one time because they would need to move your car if you park your card in back of another person.  Quiet room but like most place, there are people who are just loud and we had one guy talk loud on the phone but wasn't too bad.  Both times we had a king bed and a sofa bed.  My wife and I slept on the king bed and our 9 year old daughter slept on the sofa bed.  We did have a problem with the toilet the first time but they were able to fix when we went out to Universal (which is a short drive).  Area is kinda sketchy, especially turning left from the hotel but better than staying on the strip in Hollywood.  Many places to eat if you turn right from the hotel.  There is also a grocery store across the street, a Dollartree as well and a CVS a minute drive from the place. The pool is small so if you wanted to have a place to stay with a nice pool I would recommend the Sportsmen's Lodge instead.  So next time we come to Hollywood and just need a nice clean place to stay we'll come back here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r253133620-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>253133620</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>BEST VALUE PRICED HOTEL WE HAVE EXPERIENCED IN L.A.</t>
+  </si>
+  <si>
+    <t>This hotel is in excellent shape! Everything crisp and new! Great breakfast. More than adequate parking for L.A. Staff was friendly and helpful especially Alam and the 7-3 first shift desk clerks.We will definitely recommend the hotel to other persons we know travelling thru Burbank/ Los Angeles. Thanks. Other hotels could learn from how youre doing business!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ciuniversal, General Manager at Comfort Inn &amp; Suites Near Universal - N. Hollywood - Burbank, responded to this reviewResponded February 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is in excellent shape! Everything crisp and new! Great breakfast. More than adequate parking for L.A. Staff was friendly and helpful especially Alam and the 7-3 first shift desk clerks.We will definitely recommend the hotel to other persons we know travelling thru Burbank/ Los Angeles. Thanks. Other hotels could learn from how youre doing business!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r240241486-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>240241486</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>Typical, but Urban Style</t>
+  </si>
+  <si>
+    <t>The mid level hotels in LA are usually in worse shape than newer ones in a suburban setting. This one is crammed between an auto shop and welding place and then you have your usual big city homeless and traffic right outside the door. Some contruction also, but it wasn't a huge issue. The staff was nice and upgraded me and also let me check out a bit later than 11AM. THe parking is tight and there are some rules regarding parking you should be aware of, but the beds were standard and cozy, but I never quite figured out the bizarre TV channel situation. Despite getting a channel guide, I never found HBO or any sports channels. It is about 15 minutes from Universal and 20 from Griffith park, so the location is great and it was a nice onbe night stay in the urban jungle.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>ciuniversal, Front Office Manager at Comfort Inn &amp; Suites Near Universal - N. Hollywood - Burbank, responded to this reviewResponded November 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2014</t>
+  </si>
+  <si>
+    <t>The mid level hotels in LA are usually in worse shape than newer ones in a suburban setting. This one is crammed between an auto shop and welding place and then you have your usual big city homeless and traffic right outside the door. Some contruction also, but it wasn't a huge issue. The staff was nice and upgraded me and also let me check out a bit later than 11AM. THe parking is tight and there are some rules regarding parking you should be aware of, but the beds were standard and cozy, but I never quite figured out the bizarre TV channel situation. Despite getting a channel guide, I never found HBO or any sports channels. It is about 15 minutes from Universal and 20 from Griffith park, so the location is great and it was a nice onbe night stay in the urban jungle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r237815137-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>237815137</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>4 star hotel for me</t>
+  </si>
+  <si>
+    <t>If you are tight on budget but wants to stay in a very fine motel, ill recommend this place. Its not that expensive and just 12 mins away from universal studios. We rented a family room. They carried 1 master bed and 2 queen bed. 8 of us came here and we requested an extra rollover bed. Clean was so neat and so organize. Who ever clean that room at that moment was obviously did a great job, meaning to say that not all the time, rooms are messy and dirty.its just depends on the housekeeper. Queen beds are comfy, i saw a lil stain but not big deal FOR ME coz it looks like a non removable stain. All lights are working. Both tv are workin except there is only 1 remote control. Bathroom both in good condition. The funny part about it is there is no tissue dispenser. Tissues are sitting just on top of toilet. Also those towels are hangin on top of bowl, i wonder if i pull one, all will fall straight to bowl  haha. (Yuck). Mirror are so big.... horizontally. Meaning its useless coz u cant see your whole body in it. Iron is working, microwave, mini ref, coffee maker and hair blow dryer are all in good condition. The only thing i dont like is there is only 1 exit door for family room.  Hey there is a swimmin pool, the deepest part...If you are tight on budget but wants to stay in a very fine motel, ill recommend this place. Its not that expensive and just 12 mins away from universal studios. We rented a family room. They carried 1 master bed and 2 queen bed. 8 of us came here and we requested an extra rollover bed. Clean was so neat and so organize. Who ever clean that room at that moment was obviously did a great job, meaning to say that not all the time, rooms are messy and dirty.its just depends on the housekeeper. Queen beds are comfy, i saw a lil stain but not big deal FOR ME coz it looks like a non removable stain. All lights are working. Both tv are workin except there is only 1 remote control. Bathroom both in good condition. The funny part about it is there is no tissue dispenser. Tissues are sitting just on top of toilet. Also those towels are hangin on top of bowl, i wonder if i pull one, all will fall straight to bowl  haha. (Yuck). Mirror are so big.... horizontally. Meaning its useless coz u cant see your whole body in it. Iron is working, microwave, mini ref, coffee maker and hair blow dryer are all in good condition. The only thing i dont like is there is only 1 exit door for family room.  Hey there is a swimmin pool, the deepest part is 4&amp; 1/2.  Lol. And not that big pool and water is kinda dirty, idk id its bcoz of the rain or its just dirty. Parking is under the building and not outside which is good for any weather except at night, it will b full and some parking space required to have atleast 2 cars in 1 spot first car will pull forward), well i dont mind coz we got 12 passengers van so we occupied both space hehe. Breakfast are awesome. Theres variety of fresh foods and drinks and thanks for that. Overall, i feel so comfy sleeping here for cheap price. If u are so picky but practical like me, ill take this place. MoreShow less</t>
+  </si>
+  <si>
+    <t>If you are tight on budget but wants to stay in a very fine motel, ill recommend this place. Its not that expensive and just 12 mins away from universal studios. We rented a family room. They carried 1 master bed and 2 queen bed. 8 of us came here and we requested an extra rollover bed. Clean was so neat and so organize. Who ever clean that room at that moment was obviously did a great job, meaning to say that not all the time, rooms are messy and dirty.its just depends on the housekeeper. Queen beds are comfy, i saw a lil stain but not big deal FOR ME coz it looks like a non removable stain. All lights are working. Both tv are workin except there is only 1 remote control. Bathroom both in good condition. The funny part about it is there is no tissue dispenser. Tissues are sitting just on top of toilet. Also those towels are hangin on top of bowl, i wonder if i pull one, all will fall straight to bowl  haha. (Yuck). Mirror are so big.... horizontally. Meaning its useless coz u cant see your whole body in it. Iron is working, microwave, mini ref, coffee maker and hair blow dryer are all in good condition. The only thing i dont like is there is only 1 exit door for family room.  Hey there is a swimmin pool, the deepest part...If you are tight on budget but wants to stay in a very fine motel, ill recommend this place. Its not that expensive and just 12 mins away from universal studios. We rented a family room. They carried 1 master bed and 2 queen bed. 8 of us came here and we requested an extra rollover bed. Clean was so neat and so organize. Who ever clean that room at that moment was obviously did a great job, meaning to say that not all the time, rooms are messy and dirty.its just depends on the housekeeper. Queen beds are comfy, i saw a lil stain but not big deal FOR ME coz it looks like a non removable stain. All lights are working. Both tv are workin except there is only 1 remote control. Bathroom both in good condition. The funny part about it is there is no tissue dispenser. Tissues are sitting just on top of toilet. Also those towels are hangin on top of bowl, i wonder if i pull one, all will fall straight to bowl  haha. (Yuck). Mirror are so big.... horizontally. Meaning its useless coz u cant see your whole body in it. Iron is working, microwave, mini ref, coffee maker and hair blow dryer are all in good condition. The only thing i dont like is there is only 1 exit door for family room.  Hey there is a swimmin pool, the deepest part is 4&amp; 1/2.  Lol. And not that big pool and water is kinda dirty, idk id its bcoz of the rain or its just dirty. Parking is under the building and not outside which is good for any weather except at night, it will b full and some parking space required to have atleast 2 cars in 1 spot first car will pull forward), well i dont mind coz we got 12 passengers van so we occupied both space hehe. Breakfast are awesome. Theres variety of fresh foods and drinks and thanks for that. Overall, i feel so comfy sleeping here for cheap price. If u are so picky but practical like me, ill take this place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r233803156-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>233803156</t>
+  </si>
+  <si>
+    <t>10/11/2014</t>
+  </si>
+  <si>
+    <t>Changing and improving every day</t>
+  </si>
+  <si>
+    <t>Prior reviews show that significant renovations have been underway.  Those continue.  Each day (we stayed 5 nights) something new showed up in our room; lamps, lamp shades, tables.  It was quite fun to see what was added each day.  Staff was very attentive and helpful.  Hotel was clean and convenient to where I wanted to be.  Breakfast was plentiful and tasty.  The only negatives were:  New TVs had been installed but only local stations were available.  Also, all of the debris (carpet, old lamps, etc) from our remodeled room had been thrown out of the window on the ledge.  If coming to N. Hollywood again, I would consider this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>ciuniversal, General Manager at Comfort Inn &amp; Suites Near Universal - N. Hollywood - Burbank, responded to this reviewResponded October 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2014</t>
+  </si>
+  <si>
+    <t>Prior reviews show that significant renovations have been underway.  Those continue.  Each day (we stayed 5 nights) something new showed up in our room; lamps, lamp shades, tables.  It was quite fun to see what was added each day.  Staff was very attentive and helpful.  Hotel was clean and convenient to where I wanted to be.  Breakfast was plentiful and tasty.  The only negatives were:  New TVs had been installed but only local stations were available.  Also, all of the debris (carpet, old lamps, etc) from our remodeled room had been thrown out of the window on the ledge.  If coming to N. Hollywood again, I would consider this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r218331142-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>218331142</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Not my most comfortable stay...</t>
+  </si>
+  <si>
+    <t>I love Comfort Inn and Suites...but this one was surprisingly disappointing.  The staff was nice and helpful, but the experience was less than nice.  The main entrance to the rooms is through the parking garage, not the lobby - different.  The room did not have the expected sink area outside the bathroom.  We were traveling for a funeral and had 6 people who needed to get ready in the bathroom...and the coffee maker and only sink was in the bathroom.  That was the only access to water and a counter (!?!).  
+We had an odd situation where we made our reservation the day we stayed.  We were checked in at the desk and given directions to our room.  When we arrived at the room there was luggage from another guest already in that room...awkward!  The person at the desk was very apologetic, but it took a while to get it straightened out and the luggage moved.  Evidently the staff was supposed to move the luggage earlier in the day. We were tired and had been driving all night.  It really was an inconvenience we could have done without.
+Because we had to book the hotel the day we stayed, I also felt that we ended up paying too much.  That was especially disappointing with the experience.
+I would not recommend this hotel for a family, just because I didn't feel the accommodations were very convenient for a mom caring for...I love Comfort Inn and Suites...but this one was surprisingly disappointing.  The staff was nice and helpful, but the experience was less than nice.  The main entrance to the rooms is through the parking garage, not the lobby - different.  The room did not have the expected sink area outside the bathroom.  We were traveling for a funeral and had 6 people who needed to get ready in the bathroom...and the coffee maker and only sink was in the bathroom.  That was the only access to water and a counter (!?!).  We had an odd situation where we made our reservation the day we stayed.  We were checked in at the desk and given directions to our room.  When we arrived at the room there was luggage from another guest already in that room...awkward!  The person at the desk was very apologetic, but it took a while to get it straightened out and the luggage moved.  Evidently the staff was supposed to move the luggage earlier in the day. We were tired and had been driving all night.  It really was an inconvenience we could have done without.Because we had to book the hotel the day we stayed, I also felt that we ended up paying too much.  That was especially disappointing with the experience.I would not recommend this hotel for a family, just because I didn't feel the accommodations were very convenient for a mom caring for children.  The beds were comfortable, the room was clean and we didn't hear the noise outside.  Breakfast was OK.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>ciuniversal, General Manager at Comfort Inn &amp; Suites Near Universal - N. Hollywood - Burbank, responded to this reviewResponded August 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2014</t>
+  </si>
+  <si>
+    <t>I love Comfort Inn and Suites...but this one was surprisingly disappointing.  The staff was nice and helpful, but the experience was less than nice.  The main entrance to the rooms is through the parking garage, not the lobby - different.  The room did not have the expected sink area outside the bathroom.  We were traveling for a funeral and had 6 people who needed to get ready in the bathroom...and the coffee maker and only sink was in the bathroom.  That was the only access to water and a counter (!?!).  
+We had an odd situation where we made our reservation the day we stayed.  We were checked in at the desk and given directions to our room.  When we arrived at the room there was luggage from another guest already in that room...awkward!  The person at the desk was very apologetic, but it took a while to get it straightened out and the luggage moved.  Evidently the staff was supposed to move the luggage earlier in the day. We were tired and had been driving all night.  It really was an inconvenience we could have done without.
+Because we had to book the hotel the day we stayed, I also felt that we ended up paying too much.  That was especially disappointing with the experience.
+I would not recommend this hotel for a family, just because I didn't feel the accommodations were very convenient for a mom caring for...I love Comfort Inn and Suites...but this one was surprisingly disappointing.  The staff was nice and helpful, but the experience was less than nice.  The main entrance to the rooms is through the parking garage, not the lobby - different.  The room did not have the expected sink area outside the bathroom.  We were traveling for a funeral and had 6 people who needed to get ready in the bathroom...and the coffee maker and only sink was in the bathroom.  That was the only access to water and a counter (!?!).  We had an odd situation where we made our reservation the day we stayed.  We were checked in at the desk and given directions to our room.  When we arrived at the room there was luggage from another guest already in that room...awkward!  The person at the desk was very apologetic, but it took a while to get it straightened out and the luggage moved.  Evidently the staff was supposed to move the luggage earlier in the day. We were tired and had been driving all night.  It really was an inconvenience we could have done without.Because we had to book the hotel the day we stayed, I also felt that we ended up paying too much.  That was especially disappointing with the experience.I would not recommend this hotel for a family, just because I didn't feel the accommodations were very convenient for a mom caring for children.  The beds were comfortable, the room was clean and we didn't hear the noise outside.  Breakfast was OK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r212093980-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>212093980</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>Hotel under renovation</t>
+  </si>
+  <si>
+    <t>We had 3 rooms during our 2-day stay.  The first room's door key swiper did not work (203), so we had to move all of our stuff to a new room (206).  We had a bad sleep in that room, because it was right next to the elevator and ice machine (quite noisy all night).  
+The next morning, we requested another room and was upgraded to a jacuzzi room (207).  That room was very large, but not worth the price we would have paid if not getting a free upgrade.  The furniture had scratches and stains, the carpet had paint spilled on it.  The floor was dirty (didn't look like it was vacuumed).  The room had a paint smell in it.
+Another problem we had was the stairway next to the office was closed for painting.  We were told it would only be closed for the night and to use the other stairway at the other end of the hotel, away from the office and entrance.  That stairway was full of trash and painting supplies.  These stairways are suppose to be used as emergency evacuation routes in case of a fire or other emergency.  Having the stairway full of trash is a safety hazard.  The stairway next to the office was not opened during our stay.  They said after a coat of primer, they had to do a coat of paint.  The smell was throughout the hotel.
+The hotel is...We had 3 rooms during our 2-day stay.  The first room's door key swiper did not work (203), so we had to move all of our stuff to a new room (206).  We had a bad sleep in that room, because it was right next to the elevator and ice machine (quite noisy all night).  The next morning, we requested another room and was upgraded to a jacuzzi room (207).  That room was very large, but not worth the price we would have paid if not getting a free upgrade.  The furniture had scratches and stains, the carpet had paint spilled on it.  The floor was dirty (didn't look like it was vacuumed).  The room had a paint smell in it.Another problem we had was the stairway next to the office was closed for painting.  We were told it would only be closed for the night and to use the other stairway at the other end of the hotel, away from the office and entrance.  That stairway was full of trash and painting supplies.  These stairways are suppose to be used as emergency evacuation routes in case of a fire or other emergency.  Having the stairway full of trash is a safety hazard.  The stairway next to the office was not opened during our stay.  They said after a coat of primer, they had to do a coat of paint.  The smell was throughout the hotel.The hotel is not in the best side of town.  The view from our window on one side of the hotel was an automotive garage and on the other side was the store next door.  There was a couple fast food restaurants close by, they were dirty and not up to standards.Also, we have a service dog.  When we arrived I told the desk clerk about our dog.  Thy asked for documentation, which I provided and they copied to put in our record.  Every time we took our dog past the office we would get stopped and told "no pets allowed in this hotel!"  We had to explain 4 times that she was a service dog and to check our records. We use Choice hotels all the time and this one did not meet up with their standards.   We paid over $300.00 for a 2-night stay.  Not worth the high price.  We will not use this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>ciuniversal, General Manager at Comfort Inn &amp; Suites Near Universal - N. Hollywood - Burbank, responded to this reviewResponded June 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2014</t>
+  </si>
+  <si>
+    <t>We had 3 rooms during our 2-day stay.  The first room's door key swiper did not work (203), so we had to move all of our stuff to a new room (206).  We had a bad sleep in that room, because it was right next to the elevator and ice machine (quite noisy all night).  
+The next morning, we requested another room and was upgraded to a jacuzzi room (207).  That room was very large, but not worth the price we would have paid if not getting a free upgrade.  The furniture had scratches and stains, the carpet had paint spilled on it.  The floor was dirty (didn't look like it was vacuumed).  The room had a paint smell in it.
+Another problem we had was the stairway next to the office was closed for painting.  We were told it would only be closed for the night and to use the other stairway at the other end of the hotel, away from the office and entrance.  That stairway was full of trash and painting supplies.  These stairways are suppose to be used as emergency evacuation routes in case of a fire or other emergency.  Having the stairway full of trash is a safety hazard.  The stairway next to the office was not opened during our stay.  They said after a coat of primer, they had to do a coat of paint.  The smell was throughout the hotel.
+The hotel is...We had 3 rooms during our 2-day stay.  The first room's door key swiper did not work (203), so we had to move all of our stuff to a new room (206).  We had a bad sleep in that room, because it was right next to the elevator and ice machine (quite noisy all night).  The next morning, we requested another room and was upgraded to a jacuzzi room (207).  That room was very large, but not worth the price we would have paid if not getting a free upgrade.  The furniture had scratches and stains, the carpet had paint spilled on it.  The floor was dirty (didn't look like it was vacuumed).  The room had a paint smell in it.Another problem we had was the stairway next to the office was closed for painting.  We were told it would only be closed for the night and to use the other stairway at the other end of the hotel, away from the office and entrance.  That stairway was full of trash and painting supplies.  These stairways are suppose to be used as emergency evacuation routes in case of a fire or other emergency.  Having the stairway full of trash is a safety hazard.  The stairway next to the office was not opened during our stay.  They said after a coat of primer, they had to do a coat of paint.  The smell was throughout the hotel.The hotel is not in the best side of town.  The view from our window on one side of the hotel was an automotive garage and on the other side was the store next door.  There was a couple fast food restaurants close by, they were dirty and not up to standards.Also, we have a service dog.  When we arrived I told the desk clerk about our dog.  Thy asked for documentation, which I provided and they copied to put in our record.  Every time we took our dog past the office we would get stopped and told "no pets allowed in this hotel!"  We had to explain 4 times that she was a service dog and to check our records. We use Choice hotels all the time and this one did not meet up with their standards.   We paid over $300.00 for a 2-night stay.  Not worth the high price.  We will not use this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r211596458-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>211596458</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>Universal Studios Trip</t>
+  </si>
+  <si>
+    <t>We stayed at Comfort Inn &amp; Suites for our entire 4 day trip with our grandkids and daughter. The reviews were good on this one so we decided to stay. We had 3 adults and 3 children so the two queen beds and sofa bed suited our needs and kept our costs down. The room was very spacious as was the bathroom. Everything was clean and we had everything we needed. The gentleman manning the laundry area in the parking structure was quite pleasant and gave me extra towels, washcloths, and coffee when I asked. The breakfast area was large (only one waffle iron though) and was well stocked. The pool was very small, but the kids did get to swim for a short time after we returned from Universal.  The area was just getting into the unsavory part of town, but was still okay.  To get into the elevator, you had to have a key so that was an added measure of safety.All in all a good value with everyone getting breakfast as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at Comfort Inn &amp; Suites for our entire 4 day trip with our grandkids and daughter. The reviews were good on this one so we decided to stay. We had 3 adults and 3 children so the two queen beds and sofa bed suited our needs and kept our costs down. The room was very spacious as was the bathroom. Everything was clean and we had everything we needed. The gentleman manning the laundry area in the parking structure was quite pleasant and gave me extra towels, washcloths, and coffee when I asked. The breakfast area was large (only one waffle iron though) and was well stocked. The pool was very small, but the kids did get to swim for a short time after we returned from Universal.  The area was just getting into the unsavory part of town, but was still okay.  To get into the elevator, you had to have a key so that was an added measure of safety.All in all a good value with everyone getting breakfast as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r202119593-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>202119593</t>
+  </si>
+  <si>
+    <t>04/21/2014</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable, Convenient</t>
+  </si>
+  <si>
+    <t>My wife and I found this property very convenient and met our needs very well.  It was a very typical Comfort Inn in terms of offerings and amenities.  It's located in a commercial section of the upper end of what is called No Ho.  There is an obvious attempt to give the area a safer, upscale look and feel.  It does mean there are restaurants nearby, but I would say they still have some work to do.  The outside door to the elevator was locked requiring a room key for access.  There is covered parking, but many places are double meaning you are going to get blocked in and have to go to the front desk to have a car moved.  Staff was friendly and helpful.  Our king bed room was clean, had reasonable room, but the large bathroom had a strange lighting and electrical outlet arrangement.  There was no direct  light over the sink, nor any outlets near it.  Don't know if that was a standard arrangement or not.  There also was no screen over our second floor window.  Mattress was comfortable.  Room was quiet.  We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>ciuniversal, General Manager at Comfort Inn &amp; Suites Near Universal - N. Hollywood - Burbank, responded to this reviewResponded June 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2014</t>
+  </si>
+  <si>
+    <t>My wife and I found this property very convenient and met our needs very well.  It was a very typical Comfort Inn in terms of offerings and amenities.  It's located in a commercial section of the upper end of what is called No Ho.  There is an obvious attempt to give the area a safer, upscale look and feel.  It does mean there are restaurants nearby, but I would say they still have some work to do.  The outside door to the elevator was locked requiring a room key for access.  There is covered parking, but many places are double meaning you are going to get blocked in and have to go to the front desk to have a car moved.  Staff was friendly and helpful.  Our king bed room was clean, had reasonable room, but the large bathroom had a strange lighting and electrical outlet arrangement.  There was no direct  light over the sink, nor any outlets near it.  Don't know if that was a standard arrangement or not.  There also was no screen over our second floor window.  Mattress was comfortable.  Room was quiet.  We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r195405767-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>195405767</t>
+  </si>
+  <si>
+    <t>02/25/2014</t>
+  </si>
+  <si>
+    <t>Very Clean Hotel</t>
+  </si>
+  <si>
+    <t>As a rule I sanitize the light switches, remotes and table top surfaces in hotel rooms.  I usually use the wipes on these areas.  Usually you come across a little dirt here and there, not at this hotel.  My wipes were as clean and as white...as if they weren't even used.  The room was large and quite clean.  The breakfast had enough choices for everyone.  They have free parking.  The staff is very polite and accommodating.  There is a grocery store across the street.  The rooms offer plenty of outlets and free WiFi.  The hotel is located between Burbank Airport and Los Angeles, central to everything.  I will be staying here again.  Can't recommend enough.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>As a rule I sanitize the light switches, remotes and table top surfaces in hotel rooms.  I usually use the wipes on these areas.  Usually you come across a little dirt here and there, not at this hotel.  My wipes were as clean and as white...as if they weren't even used.  The room was large and quite clean.  The breakfast had enough choices for everyone.  They have free parking.  The staff is very polite and accommodating.  There is a grocery store across the street.  The rooms offer plenty of outlets and free WiFi.  The hotel is located between Burbank Airport and Los Angeles, central to everything.  I will be staying here again.  Can't recommend enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r193308791-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>193308791</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>Good value hotel for a big family</t>
+  </si>
+  <si>
+    <t>We visited Los Angeles mainly for the Universal Studios. We searched at other hotels near Universal but couldn't find one that would cater to a big family for a lesser value. So, we stayed at this hotel, for 3 nights. Our family occupied 3 rooms, one is adjoining the other and another separate room. Four of us stayed in the adjoining room, and it was spacious. The room had a fridge and a coffeemaker, which are a treat nowadays when we compare it to standard rooms in other hotels. The staff were courteous. We requested for additional bathroom items and they gave it to us, at no extra charge. Breakfast was included in the package, and it was convenient. Continental buffet breakfast, though not overflowing, was enough to fill our tummies before we went out to explore LA. Our big family really enjoyed our stay at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>ciuniversal, Manager at Comfort Inn &amp; Suites Near Universal - N. Hollywood - Burbank, responded to this reviewResponded August 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2014</t>
+  </si>
+  <si>
+    <t>We visited Los Angeles mainly for the Universal Studios. We searched at other hotels near Universal but couldn't find one that would cater to a big family for a lesser value. So, we stayed at this hotel, for 3 nights. Our family occupied 3 rooms, one is adjoining the other and another separate room. Four of us stayed in the adjoining room, and it was spacious. The room had a fridge and a coffeemaker, which are a treat nowadays when we compare it to standard rooms in other hotels. The staff were courteous. We requested for additional bathroom items and they gave it to us, at no extra charge. Breakfast was included in the package, and it was convenient. Continental buffet breakfast, though not overflowing, was enough to fill our tummies before we went out to explore LA. Our big family really enjoyed our stay at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r179991946-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>179991946</t>
+  </si>
+  <si>
+    <t>10/06/2013</t>
+  </si>
+  <si>
+    <t>Nearly a 5! Great stay - Highly recommended</t>
+  </si>
+  <si>
+    <t>I was in town on business for 3 weeks - the first 2 I was staying at a terrible hotel in Glendale (see other reviews I've written), and switched to this one for my last week. I truly wish I would have booked here from the get-go.
+Clean and spacious rooms. I made good use of the mini fridge and microwave during my stay - thank you - helped me eat healthier! The Wi-Fi was rockin'. Excellent, consistent connection, which is very important to business travelers especially.  The free breakfast was very good too - I only wish they started serving it at 630 instead of 7AM.
+Parking can be tough here, but they make the best of it with what little space they have. If they are full, be prepared to give the front desk your keys as they have to stack park when they are sold out.
+After reading prior reviews, I was worried about noise. I didn't really hear much of my neighbors, only when they walked by down the hallway being obnoxious. One morning I was awakened at 3AM by someone upstairs stomping around continuously for about a half an hour. I'm assuming they had an early flight??  Other than that, it was great.
+I would HIGHLY recommend this hotel for budget conscious travelers. You also have restaurants, fast food, a dollar store for those supplies you've forgotten, and a cheap super market just across the...I was in town on business for 3 weeks - the first 2 I was staying at a terrible hotel in Glendale (see other reviews I've written), and switched to this one for my last week. I truly wish I would have booked here from the get-go.Clean and spacious rooms. I made good use of the mini fridge and microwave during my stay - thank you - helped me eat healthier! The Wi-Fi was rockin'. Excellent, consistent connection, which is very important to business travelers especially.  The free breakfast was very good too - I only wish they started serving it at 630 instead of 7AM.Parking can be tough here, but they make the best of it with what little space they have. If they are full, be prepared to give the front desk your keys as they have to stack park when they are sold out.After reading prior reviews, I was worried about noise. I didn't really hear much of my neighbors, only when they walked by down the hallway being obnoxious. One morning I was awakened at 3AM by someone upstairs stomping around continuously for about a half an hour. I'm assuming they had an early flight??  Other than that, it was great.I would HIGHLY recommend this hotel for budget conscious travelers. You also have restaurants, fast food, a dollar store for those supplies you've forgotten, and a cheap super market just across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>I was in town on business for 3 weeks - the first 2 I was staying at a terrible hotel in Glendale (see other reviews I've written), and switched to this one for my last week. I truly wish I would have booked here from the get-go.
+Clean and spacious rooms. I made good use of the mini fridge and microwave during my stay - thank you - helped me eat healthier! The Wi-Fi was rockin'. Excellent, consistent connection, which is very important to business travelers especially.  The free breakfast was very good too - I only wish they started serving it at 630 instead of 7AM.
+Parking can be tough here, but they make the best of it with what little space they have. If they are full, be prepared to give the front desk your keys as they have to stack park when they are sold out.
+After reading prior reviews, I was worried about noise. I didn't really hear much of my neighbors, only when they walked by down the hallway being obnoxious. One morning I was awakened at 3AM by someone upstairs stomping around continuously for about a half an hour. I'm assuming they had an early flight??  Other than that, it was great.
+I would HIGHLY recommend this hotel for budget conscious travelers. You also have restaurants, fast food, a dollar store for those supplies you've forgotten, and a cheap super market just across the...I was in town on business for 3 weeks - the first 2 I was staying at a terrible hotel in Glendale (see other reviews I've written), and switched to this one for my last week. I truly wish I would have booked here from the get-go.Clean and spacious rooms. I made good use of the mini fridge and microwave during my stay - thank you - helped me eat healthier! The Wi-Fi was rockin'. Excellent, consistent connection, which is very important to business travelers especially.  The free breakfast was very good too - I only wish they started serving it at 630 instead of 7AM.Parking can be tough here, but they make the best of it with what little space they have. If they are full, be prepared to give the front desk your keys as they have to stack park when they are sold out.After reading prior reviews, I was worried about noise. I didn't really hear much of my neighbors, only when they walked by down the hallway being obnoxious. One morning I was awakened at 3AM by someone upstairs stomping around continuously for about a half an hour. I'm assuming they had an early flight??  Other than that, it was great.I would HIGHLY recommend this hotel for budget conscious travelers. You also have restaurants, fast food, a dollar store for those supplies you've forgotten, and a cheap super market just across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r175046103-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>175046103</t>
+  </si>
+  <si>
+    <t>08/31/2013</t>
+  </si>
+  <si>
+    <t>This could be an ok motel if it does not have the Comfort Inn branding</t>
+  </si>
+  <si>
+    <t>We have a very spacious room with enough room for 2 comfy beds and a sofa bed.  The wifi works fine even with 4 connections from this room alone. The breakfast was quite good, with good varieties and enough tables - up the the Comfort Inn standard. However, there are quite a few areas fall below what we expect from a Comfort Inn. As most readers have pointed out the lack of enough parking area that cars will be forced to double parked or parked in undesignated spots. It is quite awkward that the hotel lobby is not connected to the elevator area - which is accessible through another outside door. The elevator does not have any ventilation and is very hot; so is the inside corridor which has an ice maker that pumps hot air back to the corridor. The hotel building is showing its age, and a major upgrade is certainly warrented. The air conditioner takes the whole day to cool down the room; the microwave oven and the mini-fridge seem to work fine - however the fridge also makes some annoying noise. Even though all these are quite minor problems, one would normally expect more if he/she is to pay the price of a Comfort Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>We have a very spacious room with enough room for 2 comfy beds and a sofa bed.  The wifi works fine even with 4 connections from this room alone. The breakfast was quite good, with good varieties and enough tables - up the the Comfort Inn standard. However, there are quite a few areas fall below what we expect from a Comfort Inn. As most readers have pointed out the lack of enough parking area that cars will be forced to double parked or parked in undesignated spots. It is quite awkward that the hotel lobby is not connected to the elevator area - which is accessible through another outside door. The elevator does not have any ventilation and is very hot; so is the inside corridor which has an ice maker that pumps hot air back to the corridor. The hotel building is showing its age, and a major upgrade is certainly warrented. The air conditioner takes the whole day to cool down the room; the microwave oven and the mini-fridge seem to work fine - however the fridge also makes some annoying noise. Even though all these are quite minor problems, one would normally expect more if he/she is to pay the price of a Comfort Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r171115852-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>171115852</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>Great location, just too many negatives...</t>
+  </si>
+  <si>
+    <t>Hotel is very close to Universal Studios, about a 10 min drive (no highway). My family and I just found too many negatives during our stay. We ended up getting the large suite room for 3 nights. At first we were lied to about our rooms being ready. We called after 3pm and were told that our room was specifically ready. We get there at 3:20 and low and behold, room isn't ready and wouldn't be for an hour. Needless to say, we didn't get to our room till close to 5pm. I am not sure what they did, but the room just seemed dirty (we couldn't get another room, given the other suite was taken). The free breakfast was really bad, I found a dead fly in the bread container and the lady cleaned it up as if nothing had happened, she didn't even remove the bread that the fly was touching. The food tasted processed, the eggs especially were just awful. Parking was horrible and the overall attendants just didn't seem to care...  for the price we paid, I was expecting a better overall experience...MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Hotel is very close to Universal Studios, about a 10 min drive (no highway). My family and I just found too many negatives during our stay. We ended up getting the large suite room for 3 nights. At first we were lied to about our rooms being ready. We called after 3pm and were told that our room was specifically ready. We get there at 3:20 and low and behold, room isn't ready and wouldn't be for an hour. Needless to say, we didn't get to our room till close to 5pm. I am not sure what they did, but the room just seemed dirty (we couldn't get another room, given the other suite was taken). The free breakfast was really bad, I found a dead fly in the bread container and the lady cleaned it up as if nothing had happened, she didn't even remove the bread that the fly was touching. The food tasted processed, the eggs especially were just awful. Parking was horrible and the overall attendants just didn't seem to care...  for the price we paid, I was expecting a better overall experience...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r164856352-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>164856352</t>
+  </si>
+  <si>
+    <t>06/22/2013</t>
+  </si>
+  <si>
+    <t>Poor location, Poor manner attendent, Poor customer service!</t>
+  </si>
+  <si>
+    <t>I had to stay at this hotel twice this past month because it was closed to the work location. Parking was a mess...never enough for the hotel guest. To make the matter worst, the attendent has poor manner (like yelling at the hotel guest). It was like going to a third world country. And it is not cheap compare to other hotel.  Also During checked it, I presented my Choice Privilege card so I would get rewards point. When I checked out, my reward number was never enter for me. I had to check both time I stayed here and both time it was blank.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I had to stay at this hotel twice this past month because it was closed to the work location. Parking was a mess...never enough for the hotel guest. To make the matter worst, the attendent has poor manner (like yelling at the hotel guest). It was like going to a third world country. And it is not cheap compare to other hotel.  Also During checked it, I presented my Choice Privilege card so I would get rewards point. When I checked out, my reward number was never enter for me. I had to check both time I stayed here and both time it was blank.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r164085257-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>164085257</t>
+  </si>
+  <si>
+    <t>06/15/2013</t>
+  </si>
+  <si>
+    <t>Surprisingly well kept</t>
+  </si>
+  <si>
+    <t>Stayed here recently to go a taping of The Tonight Show with Jay Leno. Surprisingly a well kept property.  The neighborhood is somewhat seedy.  The pool was rather small, we didn't use it though due to easy access to the property from outside.  Housekeeping was very helpful and the suite was very clean throughout.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Stayed here recently to go a taping of The Tonight Show with Jay Leno. Surprisingly a well kept property.  The neighborhood is somewhat seedy.  The pool was rather small, we didn't use it though due to easy access to the property from outside.  Housekeeping was very helpful and the suite was very clean throughout.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r163998713-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>163998713</t>
+  </si>
+  <si>
+    <t>06/14/2013</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Our family of six needed two rooms and I found this hotel to be affordable.  One room had a king bed and sofa sleeper with a refrigerator, microwave, table and chairs.  The other room was just two queen beds.  I wish it had a refrigerator in it.  Both rooms were clean.  The breakfast was great and included make your own waffles, eggs, sausage or bacon, cereal, bagels, yogart, milk, juice, fruit.  I didn't think the staff was very friendly, but they were competent.  They only allow one car per room because parking is limited.  We got there late and had to park behind someone else and leave our keys in the office.  Not ideal, but it wasn't really a problem.  The location is great for Universal Studios.  I didn't hear any noise from other guests or outside.  My only complaint was that there was no laundry facilities on site.  There is a laundry close by, but the area isn't the greatest so my husband wouldn't let me go alone.  I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family of six needed two rooms and I found this hotel to be affordable.  One room had a king bed and sofa sleeper with a refrigerator, microwave, table and chairs.  The other room was just two queen beds.  I wish it had a refrigerator in it.  Both rooms were clean.  The breakfast was great and included make your own waffles, eggs, sausage or bacon, cereal, bagels, yogart, milk, juice, fruit.  I didn't think the staff was very friendly, but they were competent.  They only allow one car per room because parking is limited.  We got there late and had to park behind someone else and leave our keys in the office.  Not ideal, but it wasn't really a problem.  The location is great for Universal Studios.  I didn't hear any noise from other guests or outside.  My only complaint was that there was no laundry facilities on site.  There is a laundry close by, but the area isn't the greatest so my husband wouldn't let me go alone.  I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r159925608-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>159925608</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>LA relocation</t>
+  </si>
+  <si>
+    <t>The hotel was fine.  The parking was difficult, with some spaces dedicated to compact cars.  The room was clean and a very good value.   The staff was helpful, but some were not very friendly.  The location was centrally located which was ideal for what we needed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r156894066-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>156894066</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>We stayed 4 nights over Easter Weekend. Staff was friendly and Helpful . We arrived very late at night (close to midnight) and There was a man in the parking area that told us exactly what to do and the front desk gentleman was awake , friendly and helpful . Nice big room with a King Bed and a double sofa sleeper. Room was clean and comfortable. Has some minor issues , peeling wallpaper in the bathroom and some small holes in the blanket . But room was clean . Wifi worked well. Breakfast plentiful and Hot . Room was cleaned daily and staff was helpful . Microwave , Refrigerator and a small coffee maker in the room was wonderful for us . We would stay again and recommend to others . Neighborhood was ok . Close to freeways, Universal Studios (10 minutes ) Hollywood Blvd and restaurants and shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>We stayed 4 nights over Easter Weekend. Staff was friendly and Helpful . We arrived very late at night (close to midnight) and There was a man in the parking area that told us exactly what to do and the front desk gentleman was awake , friendly and helpful . Nice big room with a King Bed and a double sofa sleeper. Room was clean and comfortable. Has some minor issues , peeling wallpaper in the bathroom and some small holes in the blanket . But room was clean . Wifi worked well. Breakfast plentiful and Hot . Room was cleaned daily and staff was helpful . Microwave , Refrigerator and a small coffee maker in the room was wonderful for us . We would stay again and recommend to others . Neighborhood was ok . Close to freeways, Universal Studios (10 minutes ) Hollywood Blvd and restaurants and shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r156493943-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>156493943</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>We stayed 5 nights for Spring Break.  Big Room, with fridge and microwave.  Wi-fi was good. Breakfast standard options, waffles, Eggs, breakfast meats, pastries, etc.  Room wasn't totally clean on arrival day (nothing major to worry about)  but each day's housekeeping was good.  Parking was a bit weird at first glance.  It is on ground level with hotel above it. It is small and sometimes you have to double park behind someone but on the nights that happened, which was only 2 nights for us, there was an employee to help us park and the morning departure was never an issue.  The tiny pool looks bigger on their website than it is.  It is at the entrance to the parking garage and totally enclosed except for being open air on top.   We did not use it due to cold temps for time of year. 
+Being on  Lankershim Blvd turned out to be very handy as you can take it to many spots including Universal Studios, easily without getting on freeway and the Blvd was not that busy. We traveled Lankershim to get to Hollywood Blvd, the Grove/Farmers Market, all on surface roads which worked out great for us and less stressful than freeways for me.  It was easy to get on freeway as well.  BTW, if you are getting on I-405 during any morning hours, plan 3 x's the time you need to get somewhere!
+So, hotel is good location,...We stayed 5 nights for Spring Break.  Big Room, with fridge and microwave.  Wi-fi was good. Breakfast standard options, waffles, Eggs, breakfast meats, pastries, etc.  Room wasn't totally clean on arrival day (nothing major to worry about)  but each day's housekeeping was good.  Parking was a bit weird at first glance.  It is on ground level with hotel above it. It is small and sometimes you have to double park behind someone but on the nights that happened, which was only 2 nights for us, there was an employee to help us park and the morning departure was never an issue.  The tiny pool looks bigger on their website than it is.  It is at the entrance to the parking garage and totally enclosed except for being open air on top.   We did not use it due to cold temps for time of year. Being on  Lankershim Blvd turned out to be very handy as you can take it to many spots including Universal Studios, easily without getting on freeway and the Blvd was not that busy. We traveled Lankershim to get to Hollywood Blvd, the Grove/Farmers Market, all on surface roads which worked out great for us and less stressful than freeways for me.  It was easy to get on freeway as well.  BTW, if you are getting on I-405 during any morning hours, plan 3 x's the time you need to get somewhere!So, hotel is good location, grocery across street, a few fast food places right there, felt safe, friendly staff, just north of the NOHO arts district, free parking and generally good value.  Not fancy but comfortable with the amenitites I wanted.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed 5 nights for Spring Break.  Big Room, with fridge and microwave.  Wi-fi was good. Breakfast standard options, waffles, Eggs, breakfast meats, pastries, etc.  Room wasn't totally clean on arrival day (nothing major to worry about)  but each day's housekeeping was good.  Parking was a bit weird at first glance.  It is on ground level with hotel above it. It is small and sometimes you have to double park behind someone but on the nights that happened, which was only 2 nights for us, there was an employee to help us park and the morning departure was never an issue.  The tiny pool looks bigger on their website than it is.  It is at the entrance to the parking garage and totally enclosed except for being open air on top.   We did not use it due to cold temps for time of year. 
+Being on  Lankershim Blvd turned out to be very handy as you can take it to many spots including Universal Studios, easily without getting on freeway and the Blvd was not that busy. We traveled Lankershim to get to Hollywood Blvd, the Grove/Farmers Market, all on surface roads which worked out great for us and less stressful than freeways for me.  It was easy to get on freeway as well.  BTW, if you are getting on I-405 during any morning hours, plan 3 x's the time you need to get somewhere!
+So, hotel is good location,...We stayed 5 nights for Spring Break.  Big Room, with fridge and microwave.  Wi-fi was good. Breakfast standard options, waffles, Eggs, breakfast meats, pastries, etc.  Room wasn't totally clean on arrival day (nothing major to worry about)  but each day's housekeeping was good.  Parking was a bit weird at first glance.  It is on ground level with hotel above it. It is small and sometimes you have to double park behind someone but on the nights that happened, which was only 2 nights for us, there was an employee to help us park and the morning departure was never an issue.  The tiny pool looks bigger on their website than it is.  It is at the entrance to the parking garage and totally enclosed except for being open air on top.   We did not use it due to cold temps for time of year. Being on  Lankershim Blvd turned out to be very handy as you can take it to many spots including Universal Studios, easily without getting on freeway and the Blvd was not that busy. We traveled Lankershim to get to Hollywood Blvd, the Grove/Farmers Market, all on surface roads which worked out great for us and less stressful than freeways for me.  It was easy to get on freeway as well.  BTW, if you are getting on I-405 during any morning hours, plan 3 x's the time you need to get somewhere!So, hotel is good location, grocery across street, a few fast food places right there, felt safe, friendly staff, just north of the NOHO arts district, free parking and generally good value.  Not fancy but comfortable with the amenitites I wanted.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r149991201-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>149991201</t>
+  </si>
+  <si>
+    <t>01/18/2013</t>
+  </si>
+  <si>
+    <t>Awesome!!</t>
+  </si>
+  <si>
+    <t>I found a great rate in Bookings.com. Location is perfect...a 10 minute ride by bus to North Hollywood Metro Station. Room was awesome...clean, roomy and updated. Breakfast was fine...just basics...waffle, cereals, bagels,bread.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r142924124-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>142924124</t>
+  </si>
+  <si>
+    <t>10/15/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel and great breakfast</t>
+  </si>
+  <si>
+    <t>Stayed here overnight during our trip to LA and booked the hotel at the last minute.  The staff was quite friendly.  The room was quite large.  They had the best breakfast selection of any hotel we stayed at this trip for the price.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r142525339-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>142525339</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>Very Good!</t>
+  </si>
+  <si>
+    <t>Stayed here overnight during our visit to Halloween Horror Nights at Universal Studios. We booked two rooms and they were straight across from each other. The price was right comparing to other hotels we have stayed at in the area. Check in was smooth and the man that helped us was very friendly. The rooms were also very nice and they had a free breakfast that looked like it had a nice variety. The location to Universal Studios was great we just drove straight down Lankershim and turned left up the hill to the park and City Walk. When we returned late in the evening there was a parking attendant that let us in. The pool and pool area are small and in the shade a bit if that is important for your stay; otherwise this was a good hotel and experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here overnight during our visit to Halloween Horror Nights at Universal Studios. We booked two rooms and they were straight across from each other. The price was right comparing to other hotels we have stayed at in the area. Check in was smooth and the man that helped us was very friendly. The rooms were also very nice and they had a free breakfast that looked like it had a nice variety. The location to Universal Studios was great we just drove straight down Lankershim and turned left up the hill to the park and City Walk. When we returned late in the evening there was a parking attendant that let us in. The pool and pool area are small and in the shade a bit if that is important for your stay; otherwise this was a good hotel and experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r137477195-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>137477195</t>
+  </si>
+  <si>
+    <t>08/17/2012</t>
+  </si>
+  <si>
+    <t>Ants on the beds, bad neighborhood</t>
+  </si>
+  <si>
+    <t>This hotel is located in a bad neighborhood.  Arrived in the room, went to wash my hands in the bathroom, and found dead ants in the sink.  As I wondered about that, I layed down on the bed, where I found ants crawling all over the comforters!  Then I inspected the sheets, which had burns, ink or what-not stains, and HAIRS as if the sheets had not been changed! I complained and they offered to spray the room for ants (yikes, my kids!!) and finally they "upgraded" the room for us.  Those issues were gone, but the whole hotel reeks of old cheap cigarrettes, and the breakfast was stale and awful.  Did not appreciate finding a roach in the bathroom adjacent to the breakfast room on our way out either.  Stay away!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>This hotel is located in a bad neighborhood.  Arrived in the room, went to wash my hands in the bathroom, and found dead ants in the sink.  As I wondered about that, I layed down on the bed, where I found ants crawling all over the comforters!  Then I inspected the sheets, which had burns, ink or what-not stains, and HAIRS as if the sheets had not been changed! I complained and they offered to spray the room for ants (yikes, my kids!!) and finally they "upgraded" the room for us.  Those issues were gone, but the whole hotel reeks of old cheap cigarrettes, and the breakfast was stale and awful.  Did not appreciate finding a roach in the bathroom adjacent to the breakfast room on our way out either.  Stay away!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r136264934-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>136264934</t>
+  </si>
+  <si>
+    <t>08/04/2012</t>
+  </si>
+  <si>
+    <t>Parking Nightmare</t>
+  </si>
+  <si>
+    <t>While this hotel does boast free parking, their parking lot is so small, the cars have to be double parked. They say they have an attendant who will assist with parking. But they are never at their post. While the room was OK overall- There was just a lot of little things that added up for an overall poor hotel stay. There was only one highchair in the breakfast room and it was always being used by other families. The pool was very small as well. We also had a discrepancy with our hotel reservation over the room coming with a fridge. The evening front desk employee was always less than friendly as well. The only time I was properly helped, was when checking out. The neighborhood is less than desirable. I would definitely stay closer to Universal Studios if we were to go again. The entrance to the actual hotel was very strange. You can't get up to the rooms without walking out into the parking structure. The lobby and the hotel aren't connected. Very strange and it feels slightly unsafe. The bed was also very hard! It seems like the hotel was updated recently, but very poorly. There was "Ok" Written outside the door on the walls. We were going to stay a third day, but for the price, completely not worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>While this hotel does boast free parking, their parking lot is so small, the cars have to be double parked. They say they have an attendant who will assist with parking. But they are never at their post. While the room was OK overall- There was just a lot of little things that added up for an overall poor hotel stay. There was only one highchair in the breakfast room and it was always being used by other families. The pool was very small as well. We also had a discrepancy with our hotel reservation over the room coming with a fridge. The evening front desk employee was always less than friendly as well. The only time I was properly helped, was when checking out. The neighborhood is less than desirable. I would definitely stay closer to Universal Studios if we were to go again. The entrance to the actual hotel was very strange. You can't get up to the rooms without walking out into the parking structure. The lobby and the hotel aren't connected. Very strange and it feels slightly unsafe. The bed was also very hard! It seems like the hotel was updated recently, but very poorly. There was "Ok" Written outside the door on the walls. We were going to stay a third day, but for the price, completely not worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r135391715-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>135391715</t>
+  </si>
+  <si>
+    <t>07/25/2012</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>Excellent room service, good location and friendly staff! The breakfast was good and our overall experience was very positive. I would highly recommend this hotel to anybody visiting LA. We were 10 minutes away from universal studios and Chinese theatre. There were a lot of small restaurants and fast food places near the hotel. The room had a microwave and a fridge, as well as a couch.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r129133359-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>129133359</t>
+  </si>
+  <si>
+    <t>04/30/2012</t>
+  </si>
+  <si>
+    <t>Excellent Service Nice Staff</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 when first arriving in LA after traveling to Las Vegas and San Francisco we re booked our last 4 days in LA here, they gave us a good deal before we left if we returned and I got upgraded to a junior suite leaving my daughter and boyfriend in the standard room (thats the breaks being the children Haha!!).Staff were very polite and friendly, car parking secure, location a mile from Highway 1 giving access to all of LA and a short drive to Universal and The Grove Shopping Centre (a must visit place).Some OK restaurants down the road (a but a car ride) shops opposite cater for essential needs and there is a Burger King and crappy looking Chinese, there a really good Chinese restaurant/take away about 1/4 mile down Lankershim on the opposite side by a MexicanThe rooms were very clean and pleasant for the price.The pool is a bit of a waste of space.Breakfast was adequate for free with plenty of nice fruit and good coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 when first arriving in LA after traveling to Las Vegas and San Francisco we re booked our last 4 days in LA here, they gave us a good deal before we left if we returned and I got upgraded to a junior suite leaving my daughter and boyfriend in the standard room (thats the breaks being the children Haha!!).Staff were very polite and friendly, car parking secure, location a mile from Highway 1 giving access to all of LA and a short drive to Universal and The Grove Shopping Centre (a must visit place).Some OK restaurants down the road (a but a car ride) shops opposite cater for essential needs and there is a Burger King and crappy looking Chinese, there a really good Chinese restaurant/take away about 1/4 mile down Lankershim on the opposite side by a MexicanThe rooms were very clean and pleasant for the price.The pool is a bit of a waste of space.Breakfast was adequate for free with plenty of nice fruit and good coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r127475442-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>127475442</t>
+  </si>
+  <si>
+    <t>04/08/2012</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Kayak didn't transmit my reservation (ie the fact I paid) but the gentleman at the desk helped get that straightened out.   They got me a room and it was very nice.   Rooms are large as is the bathroom.   They are very clean as is the whole hotel.   All the staff I met were very polite.   TVs could be modernized the one in my room has picture issues.  But that would be my only complaint.   I stayed there the night before running the Hollywood Half Marathon on a Friday night.   The hotel is quiet the neighborhood was quiet.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r126707610-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>126707610</t>
+  </si>
+  <si>
+    <t>03/26/2012</t>
+  </si>
+  <si>
+    <t>Nothing fancy, but decent place close to Universal</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights while we visited Universal Studios and Magic Mountain.   The hotel is very clean and new feeling.   The service was fine and the free breakfasts were decent-each morning there was your standard donuts, bagels, toast, dry cereal, coffee and juice.  In addition to that, each day there was a hot egg dish (one day scrambled eggs and twice "omelet things") and meat (bacon twice and sausage once).    There is also a waffle maker which we enjoyed.    The breakfast area was clean and they did a good job of keeping it stocked.Our beds were comfortable and the room was a nice size.   We didn't have any problems with loud neighbors- we were on the 3rd floor, so no one above us helped.There is a small, bare bones pool that our kids swam in once.   Not fancy, but clean.Free Wifi and free garage parking was also a plus.This certainly isn't a fancy place, but if you are looking for decent place to stay while visiting the area, I'd recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights while we visited Universal Studios and Magic Mountain.   The hotel is very clean and new feeling.   The service was fine and the free breakfasts were decent-each morning there was your standard donuts, bagels, toast, dry cereal, coffee and juice.  In addition to that, each day there was a hot egg dish (one day scrambled eggs and twice "omelet things") and meat (bacon twice and sausage once).    There is also a waffle maker which we enjoyed.    The breakfast area was clean and they did a good job of keeping it stocked.Our beds were comfortable and the room was a nice size.   We didn't have any problems with loud neighbors- we were on the 3rd floor, so no one above us helped.There is a small, bare bones pool that our kids swam in once.   Not fancy, but clean.Free Wifi and free garage parking was also a plus.This certainly isn't a fancy place, but if you are looking for decent place to stay while visiting the area, I'd recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r123003412-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>123003412</t>
+  </si>
+  <si>
+    <t>01/12/2012</t>
+  </si>
+  <si>
+    <t>Comfort Inn Studio City</t>
+  </si>
+  <si>
+    <t>Nice place close to everything comfortable beds problem is if next door to you are loud partiers you can hear through the walls, if location is most important this is good choiceOnly couple miles from Universal studios  &amp; CBS Studio City</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r122831670-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>122831670</t>
+  </si>
+  <si>
+    <t>01/09/2012</t>
+  </si>
+  <si>
+    <t>You know something is wrong</t>
+  </si>
+  <si>
+    <t>when you arrive and the desk person is asleep in the lobby.  Your instinct is confirmed when you receive your room key and it was from the Holiday Inn Express.  When you asked about the elevator and was told "it's outside, behind the lobby," it added another measure of discomfort, particularly when it was behind doors that are apparently locked in the nighttime hours.  Then you noticed the 'movie theatre' or 'bank tellers' window between the lobby and the elevator doors.  WOW, where am I?After driving 475 miles and being tired we decided to venture up to our 3rd floor room.  Large enough, but unlike other Comfort Suites (we had stayed at a Comfort Suites in Sacramento the night before- fine place), no Fridge or microwave and a carpet that may not have been cleaned in 20 years.  We dared not try the breakfast.Fortunately, we had not prepaid for our 5 nights so we escaped the next morning to a Marriott Suites in Burbank.   Are there worse places? Probably, but this is pretty far down the list.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>when you arrive and the desk person is asleep in the lobby.  Your instinct is confirmed when you receive your room key and it was from the Holiday Inn Express.  When you asked about the elevator and was told "it's outside, behind the lobby," it added another measure of discomfort, particularly when it was behind doors that are apparently locked in the nighttime hours.  Then you noticed the 'movie theatre' or 'bank tellers' window between the lobby and the elevator doors.  WOW, where am I?After driving 475 miles and being tired we decided to venture up to our 3rd floor room.  Large enough, but unlike other Comfort Suites (we had stayed at a Comfort Suites in Sacramento the night before- fine place), no Fridge or microwave and a carpet that may not have been cleaned in 20 years.  We dared not try the breakfast.Fortunately, we had not prepaid for our 5 nights so we escaped the next morning to a Marriott Suites in Burbank.   Are there worse places? Probably, but this is pretty far down the list.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r121401208-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>121401208</t>
+  </si>
+  <si>
+    <t>12/04/2011</t>
+  </si>
+  <si>
+    <t>Nice hotel, not a good location</t>
+  </si>
+  <si>
+    <t>I have to admit that when I drove up to this hotel I was making a mental note of other hotels I had driven by  in case I needed to stay at them - I think I drove by three or four adult bookstores on the way from the Burbank Airport . . . most of the buildings nearby are not in good condition and the whole area is dingy . . .The lady that was supposed to check me in was a lot more interested in talking with her friends on the phone and took two fairly long phone calls during the 10 minutes I was standing in front of her . . . when she finished the last one I had to remind her that she was checking me in . . .That said, though, the hotel itself is fine for the one night stop over I am doing - but if you have a family or like to go out after dark this is probably not the place for you . . .MoreShow less</t>
+  </si>
+  <si>
+    <t>I have to admit that when I drove up to this hotel I was making a mental note of other hotels I had driven by  in case I needed to stay at them - I think I drove by three or four adult bookstores on the way from the Burbank Airport . . . most of the buildings nearby are not in good condition and the whole area is dingy . . .The lady that was supposed to check me in was a lot more interested in talking with her friends on the phone and took two fairly long phone calls during the 10 minutes I was standing in front of her . . . when she finished the last one I had to remind her that she was checking me in . . .That said, though, the hotel itself is fine for the one night stop over I am doing - but if you have a family or like to go out after dark this is probably not the place for you . . .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r120252447-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>120252447</t>
+  </si>
+  <si>
+    <t>11/06/2011</t>
+  </si>
+  <si>
+    <t>Nice Experience</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at the Comfort Inn near Universal Studio's on October 31st. We arrived earlier than the 3:00PM check in time, but were allowed to check in on arrival. The room was Clean and larger than expected for the rate we received on the hotel web site. There is a large grocery store across the street and plenty of fast food and regular restaurants in the area. The hotel is 3 miles from Universal Studio's and City Walk where we planned to visit for "Fright Night". Breakfast was adequate and filling with everything necessary. We would stay at this hotel again.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r116969913-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>116969913</t>
+  </si>
+  <si>
+    <t>08/19/2011</t>
+  </si>
+  <si>
+    <t>I would never go back.</t>
+  </si>
+  <si>
+    <t>This is one hotel I wouldn't return to.   The front desk staff are indfiferent.   They NEVER give you enough towels.  Even when you rent a suite room, they only leave you three towels.   All three nights we had to ask for more towels.   It isn't the cleanest and my son woke up with bed bug bites all over his back after sleeping on the pullout sofa.   If you have a problem at this hotel it takes a small miracle to get anyone to do anything about it.  The maid barged into the room in the morning while we were still there even though we told her we weren't ready for her---she barged in anyhow and just started cleaning.  Maybe she didn't speak english, I don't know.   Then when my husband went back to the room later to retrieve something we forgot...she didn't even look up from cleaning the bathroom.   Anyone could've walked in and stolen something because she didn't even look up when he walked in.   Don't stay here.  Find somewhere else to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>This is one hotel I wouldn't return to.   The front desk staff are indfiferent.   They NEVER give you enough towels.  Even when you rent a suite room, they only leave you three towels.   All three nights we had to ask for more towels.   It isn't the cleanest and my son woke up with bed bug bites all over his back after sleeping on the pullout sofa.   If you have a problem at this hotel it takes a small miracle to get anyone to do anything about it.  The maid barged into the room in the morning while we were still there even though we told her we weren't ready for her---she barged in anyhow and just started cleaning.  Maybe she didn't speak english, I don't know.   Then when my husband went back to the room later to retrieve something we forgot...she didn't even look up from cleaning the bathroom.   Anyone could've walked in and stolen something because she didn't even look up when he walked in.   Don't stay here.  Find somewhere else to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r116732757-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>116732757</t>
+  </si>
+  <si>
+    <t>08/14/2011</t>
+  </si>
+  <si>
+    <t>Comfortable accommodations in a working class neighborhood.</t>
+  </si>
+  <si>
+    <t>My family stayed here for three nights in August. If you travel outside of rush hour, you'll be in central Los Angeles or West Hollywood in 20 minutes.It's a little bit off the beaten path, and in no way a "hip" area, and therein lies its character.
+Across the street there is a shopping plaza, and a large grocery  store that caters mostly to Mexican folks. I went in there several times for various things (including some tasty bakery treats)  and people there were friendly. There's a CVS pharmacy a couple blocks away, and the legendary In &amp; Out Burger is represented about four blocks south. Across the street is a Burger King and a McDonald's is abut 2 blocks north.
+Now, I read a review here were someone wrote they ate at the McDonald's and scurried back. Ummm, ok....this is not the kind of McDonald's you might visit in Ames, Iowa or some suburb where everything is squeaky clean. 
+The neighborhood is working class, a bit gritty, perhaps, but if some reviewers think of the area as "ghetto", as one person wrote, I would say, dear sir, you are quite paranoid.
+In the day, you see all kinds of people out. Single women at bus stops, moms with kids and strollers, etc. At night, you're not going to see so many people walking around, And because it's a major city, you obviously want to always be aware of your...My family stayed here for three nights in August. If you travel outside of rush hour, you'll be in central Los Angeles or West Hollywood in 20 minutes.It's a little bit off the beaten path, and in no way a "hip" area, and therein lies its character.Across the street there is a shopping plaza, and a large grocery  store that caters mostly to Mexican folks. I went in there several times for various things (including some tasty bakery treats)  and people there were friendly. There's a CVS pharmacy a couple blocks away, and the legendary In &amp; Out Burger is represented about four blocks south. Across the street is a Burger King and a McDonald's is abut 2 blocks north.Now, I read a review here were someone wrote they ate at the McDonald's and scurried back. Ummm, ok....this is not the kind of McDonald's you might visit in Ames, Iowa or some suburb where everything is squeaky clean. The neighborhood is working class, a bit gritty, perhaps, but if some reviewers think of the area as "ghetto", as one person wrote, I would say, dear sir, you are quite paranoid.In the day, you see all kinds of people out. Single women at bus stops, moms with kids and strollers, etc. At night, you're not going to see so many people walking around, And because it's a major city, you obviously want to always be aware of your surroundings.One of the great things about L.A. is the food trucks.  Every night, one parked at the shopping center across the street. My wife and two of our kids walked from the hotel to the truck a couple of times and came back with great tasting food that was cheap. I swear, I'd stay in this hotel again just to hit up that food truck every night. They had the best tacos I had in L.A. One night around 9 pm I had to walk to the CVS pharmacy a couple of blocks way. Would I want my wife to do that? No, of course not, but that's common sense. I walked it and didn't ever feel threatened. but I grew up in Chicago and I'm not going to think I'm in danger if I see a cigarette butt in the curb or see a homeless guy nodding off on a bus stop bench.Parking was never an issue. One reviewer wrote you had to leave your keys with the front desk or some kind of parking valet, but that wasn't my experience. I found the area quite interesting. it is not the glitzy L.A. of the Strip, or as cool as West Hollywood. Walking around the area in the morning, I found mostly small, modest homes of working class folks. There's no cool clubs or coffeeshops. In other words, the yuppies haven't got to it yet and it's authentic.The rooms were clean, spacious, a good spot to sleep for the night, or just put the TV on and zone out. No noise from the streets drifted in. Breakfast was a lot better than other similar hotels I have stayed in. Eggs, waffles, fruit, muffins, yogurt, juice, coffee...I'd suggest at night, go out to the pool area. Pull up a plastic chair, have a glass of wine and chill. Watch the neighborhood, the cars going by, the people coming away from the taco truck, the shoppers at Superior Grocers. This is a part of L.A. that most visitors don't see. It's a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family stayed here for three nights in August. If you travel outside of rush hour, you'll be in central Los Angeles or West Hollywood in 20 minutes.It's a little bit off the beaten path, and in no way a "hip" area, and therein lies its character.
+Across the street there is a shopping plaza, and a large grocery  store that caters mostly to Mexican folks. I went in there several times for various things (including some tasty bakery treats)  and people there were friendly. There's a CVS pharmacy a couple blocks away, and the legendary In &amp; Out Burger is represented about four blocks south. Across the street is a Burger King and a McDonald's is abut 2 blocks north.
+Now, I read a review here were someone wrote they ate at the McDonald's and scurried back. Ummm, ok....this is not the kind of McDonald's you might visit in Ames, Iowa or some suburb where everything is squeaky clean. 
+The neighborhood is working class, a bit gritty, perhaps, but if some reviewers think of the area as "ghetto", as one person wrote, I would say, dear sir, you are quite paranoid.
+In the day, you see all kinds of people out. Single women at bus stops, moms with kids and strollers, etc. At night, you're not going to see so many people walking around, And because it's a major city, you obviously want to always be aware of your...My family stayed here for three nights in August. If you travel outside of rush hour, you'll be in central Los Angeles or West Hollywood in 20 minutes.It's a little bit off the beaten path, and in no way a "hip" area, and therein lies its character.Across the street there is a shopping plaza, and a large grocery  store that caters mostly to Mexican folks. I went in there several times for various things (including some tasty bakery treats)  and people there were friendly. There's a CVS pharmacy a couple blocks away, and the legendary In &amp; Out Burger is represented about four blocks south. Across the street is a Burger King and a McDonald's is abut 2 blocks north.Now, I read a review here were someone wrote they ate at the McDonald's and scurried back. Ummm, ok....this is not the kind of McDonald's you might visit in Ames, Iowa or some suburb where everything is squeaky clean. The neighborhood is working class, a bit gritty, perhaps, but if some reviewers think of the area as "ghetto", as one person wrote, I would say, dear sir, you are quite paranoid.In the day, you see all kinds of people out. Single women at bus stops, moms with kids and strollers, etc. At night, you're not going to see so many people walking around, And because it's a major city, you obviously want to always be aware of your surroundings.One of the great things about L.A. is the food trucks.  Every night, one parked at the shopping center across the street. My wife and two of our kids walked from the hotel to the truck a couple of times and came back with great tasting food that was cheap. I swear, I'd stay in this hotel again just to hit up that food truck every night. They had the best tacos I had in L.A. One night around 9 pm I had to walk to the CVS pharmacy a couple of blocks way. Would I want my wife to do that? No, of course not, but that's common sense. I walked it and didn't ever feel threatened. but I grew up in Chicago and I'm not going to think I'm in danger if I see a cigarette butt in the curb or see a homeless guy nodding off on a bus stop bench.Parking was never an issue. One reviewer wrote you had to leave your keys with the front desk or some kind of parking valet, but that wasn't my experience. I found the area quite interesting. it is not the glitzy L.A. of the Strip, or as cool as West Hollywood. Walking around the area in the morning, I found mostly small, modest homes of working class folks. There's no cool clubs or coffeeshops. In other words, the yuppies haven't got to it yet and it's authentic.The rooms were clean, spacious, a good spot to sleep for the night, or just put the TV on and zone out. No noise from the streets drifted in. Breakfast was a lot better than other similar hotels I have stayed in. Eggs, waffles, fruit, muffins, yogurt, juice, coffee...I'd suggest at night, go out to the pool area. Pull up a plastic chair, have a glass of wine and chill. Watch the neighborhood, the cars going by, the people coming away from the taco truck, the shoppers at Superior Grocers. This is a part of L.A. that most visitors don't see. It's a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r114945942-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>114945942</t>
+  </si>
+  <si>
+    <t>07/01/2011</t>
+  </si>
+  <si>
+    <t>DISGUSTING</t>
+  </si>
+  <si>
+    <t>This was the WORST Comfort Inn we have ever stayed at.  This place was disgusting, dirty, the staff was RUDE.  When we got settled into our room we found that our phone was broken. Not enough towels.  The A/C blew warm/cold at best and the tiny TV worked only if you wanted to see black and white TV.There was not enough parking which we had to PAY EXTRA FOR.  The night we stayed there the manager rented out parking spaces for an event in L.A. so the space that we paid for got rented to someone else.  Nice huh?  Our car sat out in front of the hotel until the event was over and the manager parked it for us in the middle of the night.  DO NOT EVER STAY HERE.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>This was the WORST Comfort Inn we have ever stayed at.  This place was disgusting, dirty, the staff was RUDE.  When we got settled into our room we found that our phone was broken. Not enough towels.  The A/C blew warm/cold at best and the tiny TV worked only if you wanted to see black and white TV.There was not enough parking which we had to PAY EXTRA FOR.  The night we stayed there the manager rented out parking spaces for an event in L.A. so the space that we paid for got rented to someone else.  Nice huh?  Our car sat out in front of the hotel until the event was over and the manager parked it for us in the middle of the night.  DO NOT EVER STAY HERE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r109162569-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>109162569</t>
+  </si>
+  <si>
+    <t>05/21/2011</t>
+  </si>
+  <si>
+    <t>Would definitely stay again.</t>
+  </si>
+  <si>
+    <t>We visit LA quite often and have stayed in many hotels over the years. This one rates near the top for sure. The room was very large and clean, as was the bathroom. The pillows were a little small, but that's a minor annoyance. The price was great. A big plus for us was the free parking, which is almost impossible to find at LA hotels.The location was very convenient for our purposes of Universal Studios and Hollywood. And I don't know what the heck people are talking about when they criticize the area/neighborhood. It's fine. We came back to the room at 2:30 AM and felt totally safe walking around. I'd take this area over a lot of the other big city areas we've visited.We'll definitely keep Comfort Inn in mind for future trips.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>We visit LA quite often and have stayed in many hotels over the years. This one rates near the top for sure. The room was very large and clean, as was the bathroom. The pillows were a little small, but that's a minor annoyance. The price was great. A big plus for us was the free parking, which is almost impossible to find at LA hotels.The location was very convenient for our purposes of Universal Studios and Hollywood. And I don't know what the heck people are talking about when they criticize the area/neighborhood. It's fine. We came back to the room at 2:30 AM and felt totally safe walking around. I'd take this area over a lot of the other big city areas we've visited.We'll definitely keep Comfort Inn in mind for future trips.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r105675664-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>105675664</t>
+  </si>
+  <si>
+    <t>04/26/2011</t>
+  </si>
+  <si>
+    <t>convenient !</t>
+  </si>
+  <si>
+    <t>Stayed there with our teen girls for 3 nights. The hotel was very clean also helpful and friendly staff. Nice breakfast, value for money. Very close to Universal studios. A huge supermarket just outside. Weird neighborhood( as my girl called it)!  But it was quiet at nights.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r75104217-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>75104217</t>
+  </si>
+  <si>
+    <t>08/13/2010</t>
+  </si>
+  <si>
+    <t>Nice hotel questionable neighborhood</t>
+  </si>
+  <si>
+    <t>Hotel was clean, internet was not so good. Breakfast was decent. Neighborhood was a bit rough not recommended for tourists. We stayed there because it is 4 miles from the Gibson Amphitheater, caught a bus to the show and a taxi home. Price was right would have paid more to stay in Hollywood at this time of year easy trip to Universal Studios.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r74612189-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>74612189</t>
+  </si>
+  <si>
+    <t>08/10/2010</t>
+  </si>
+  <si>
+    <t>Nice place!</t>
+  </si>
+  <si>
+    <t>This is a review for
+Comfort Inn, 6147 Lankershim, North Hollwood, California
+Payed $98 a night with AAA discount plus tax.
+Booked for two nights.  Decided to stay a third night.  Neighbor hood....not great.  Parking was fine.  Attendant was on duty most of the time and would tell you where to park.  Yes, they do double park some cars.  We were never double parked during our three day stay.  Lobby was nice and had a computer for guests to use.  Breakfast area was really pretty with big windows.  The lady working the breakfast area really hussled and kept things full and clean.  Waffles were fun to make....felt bad hogging machine making four waffles for my family of four....another waffle maker would be helpful.  Basic foods, fruits, cereals, muffins, danish, toast, bagels, english muffins, hard boiled eggs, coffees, milk, juice, etc.  Elevator dropped you in the garage, you then walked five steps into a door that put you in the lobby and breakfast area.  Rooms and halls were nice.  On thing....we had a non-smoking room.....on our second  and third day I could smell smoke....like it was coming through the walls or something.  I didn't complain.  Bathroom was good sized.  Blow dryer.  Large counter.  Man at desk loaned us a cable to hook up to the internet in room. My husband said the man at the desk when we checked in on July 21st around 5 PM was extreemly nice and offered...This is a review forComfort Inn, 6147 Lankershim, North Hollwood, CaliforniaPayed $98 a night with AAA discount plus tax.Booked for two nights.  Decided to stay a third night.  Neighbor hood....not great.  Parking was fine.  Attendant was on duty most of the time and would tell you where to park.  Yes, they do double park some cars.  We were never double parked during our three day stay.  Lobby was nice and had a computer for guests to use.  Breakfast area was really pretty with big windows.  The lady working the breakfast area really hussled and kept things full and clean.  Waffles were fun to make....felt bad hogging machine making four waffles for my family of four....another waffle maker would be helpful.  Basic foods, fruits, cereals, muffins, danish, toast, bagels, english muffins, hard boiled eggs, coffees, milk, juice, etc.  Elevator dropped you in the garage, you then walked five steps into a door that put you in the lobby and breakfast area.  Rooms and halls were nice.  On thing....we had a non-smoking room.....on our second  and third day I could smell smoke....like it was coming through the walls or something.  I didn't complain.  Bathroom was good sized.  Blow dryer.  Large counter.  Man at desk loaned us a cable to hook up to the internet in room. My husband said the man at the desk when we checked in on July 21st around 5 PM was extreemly nice and offered any help we might need with directions and places to go see.  My husband was very impressed with the man.  I was in the car......I had a sick migrain and unfortunately was tossing my "cookies".  Across the street there was a grocery store.  Husband went there and got me some saltines and gingerale.  There was also a Burger King across the street and a McDonald's 1/4 mile up the road. We walked there one day for dinner....it was scary and we hurried back to the hotel.  Wouldn't walk the streets after dark....but felt very safe in the hotel.  Had an indoor pool that was very small...very small.  But, my 10 year old enjoyed it.  Beds were comfortable.  Drove up to Six Flags one day.  About 40 minutes...beautiful drive.  Another day we went to Universal Studios, about 8-10 minutes away.  Also a 10 minutes drive down to Hollywood Blvd for sight seeing.  We felt the location was perfect for what we wanted to see and do.  I would stay here again and would recommend it to you!  We had a really good stay at this Comfort Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>This is a review for
+Comfort Inn, 6147 Lankershim, North Hollwood, California
+Payed $98 a night with AAA discount plus tax.
+Booked for two nights.  Decided to stay a third night.  Neighbor hood....not great.  Parking was fine.  Attendant was on duty most of the time and would tell you where to park.  Yes, they do double park some cars.  We were never double parked during our three day stay.  Lobby was nice and had a computer for guests to use.  Breakfast area was really pretty with big windows.  The lady working the breakfast area really hussled and kept things full and clean.  Waffles were fun to make....felt bad hogging machine making four waffles for my family of four....another waffle maker would be helpful.  Basic foods, fruits, cereals, muffins, danish, toast, bagels, english muffins, hard boiled eggs, coffees, milk, juice, etc.  Elevator dropped you in the garage, you then walked five steps into a door that put you in the lobby and breakfast area.  Rooms and halls were nice.  On thing....we had a non-smoking room.....on our second  and third day I could smell smoke....like it was coming through the walls or something.  I didn't complain.  Bathroom was good sized.  Blow dryer.  Large counter.  Man at desk loaned us a cable to hook up to the internet in room. My husband said the man at the desk when we checked in on July 21st around 5 PM was extreemly nice and offered...This is a review forComfort Inn, 6147 Lankershim, North Hollwood, CaliforniaPayed $98 a night with AAA discount plus tax.Booked for two nights.  Decided to stay a third night.  Neighbor hood....not great.  Parking was fine.  Attendant was on duty most of the time and would tell you where to park.  Yes, they do double park some cars.  We were never double parked during our three day stay.  Lobby was nice and had a computer for guests to use.  Breakfast area was really pretty with big windows.  The lady working the breakfast area really hussled and kept things full and clean.  Waffles were fun to make....felt bad hogging machine making four waffles for my family of four....another waffle maker would be helpful.  Basic foods, fruits, cereals, muffins, danish, toast, bagels, english muffins, hard boiled eggs, coffees, milk, juice, etc.  Elevator dropped you in the garage, you then walked five steps into a door that put you in the lobby and breakfast area.  Rooms and halls were nice.  On thing....we had a non-smoking room.....on our second  and third day I could smell smoke....like it was coming through the walls or something.  I didn't complain.  Bathroom was good sized.  Blow dryer.  Large counter.  Man at desk loaned us a cable to hook up to the internet in room. My husband said the man at the desk when we checked in on July 21st around 5 PM was extreemly nice and offered any help we might need with directions and places to go see.  My husband was very impressed with the man.  I was in the car......I had a sick migrain and unfortunately was tossing my "cookies".  Across the street there was a grocery store.  Husband went there and got me some saltines and gingerale.  There was also a Burger King across the street and a McDonald's 1/4 mile up the road. We walked there one day for dinner....it was scary and we hurried back to the hotel.  Wouldn't walk the streets after dark....but felt very safe in the hotel.  Had an indoor pool that was very small...very small.  But, my 10 year old enjoyed it.  Beds were comfortable.  Drove up to Six Flags one day.  About 40 minutes...beautiful drive.  Another day we went to Universal Studios, about 8-10 minutes away.  Also a 10 minutes drive down to Hollywood Blvd for sight seeing.  We felt the location was perfect for what we wanted to see and do.  I would stay here again and would recommend it to you!  We had a really good stay at this Comfort Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r74514675-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>74514675</t>
+  </si>
+  <si>
+    <t>08/09/2010</t>
+  </si>
+  <si>
+    <t>Good for what it is</t>
+  </si>
+  <si>
+    <t>We were a family of 5 and able to book one room - spacious and comfortable bed, sofabed and rollaway. Stayed 3 nights and it worked perfectly. Internet (free) connection good, breakfast standard but plentiful. Service fine. Outdoor pool not tried but didn't look that appealing. Close to Universal Studios (about 5 miles away, an easy drive). But otherwise location quite isolated and we didn't find any decent restaurants close to the hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r59299365-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>59299365</t>
+  </si>
+  <si>
+    <t>03/22/2010</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>I did all my homework on this site and had wonderful accomodation etc throughout  the States, this was our first night stay, I chose this because it was near Universal studios andd many other attractions,the staff were friendly helpful I had fridge and microwave in my room very clean pool great,breakfast included fill up off you go. Fresh and a great assortment,very clean.I also hired a car they provided me with the info he was efficient and helpful. We had flown 4 hours from Aus they made us very welcome.</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r56525845-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>56525845</t>
+  </si>
+  <si>
+    <t>02/19/2010</t>
+  </si>
+  <si>
+    <t>Great hotel - comparable with Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>My wife and I really enjoyed our stay at this Comfort Inn. The room was nice, clean, and bigger than most we've stayed in. I've seen some negative comments about the neighborhood, but it was fine. It's a much more ethnic neighborhood than you might be used to, but that is all. I didn't feel worried. The complimentary breakfast was great and so was the parking situation in the first-floor garage. This Comfort Inn is very similar to our experiences at many Holiday Inn Express hotels. A very nice stay.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r55606434-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>55606434</t>
+  </si>
+  <si>
+    <t>02/09/2010</t>
+  </si>
+  <si>
+    <t>Great stay all round</t>
+  </si>
+  <si>
+    <t>We chose this motel for its closeness to Universal Studios. Universal is NOT walking distance but close enough by car. The motel room was dated but nice. The linen and towels were clean, however I didn't like that the coffee machine was in the bathroom. The windows opened (which is always nice, despite the view into the car repair store next door). We stayed in a room with two queen beds (there were four of us) and it was comfortable. The staff were extrememly friendly; the breakfast was great (bagels, waffles, cereals, fresh fruit and boiled eggs); free parking. The WiFi was bad but there was free computer use, internet and printing in the main reception lobby. Great amenities and service for the price. Definately recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>We chose this motel for its closeness to Universal Studios. Universal is NOT walking distance but close enough by car. The motel room was dated but nice. The linen and towels were clean, however I didn't like that the coffee machine was in the bathroom. The windows opened (which is always nice, despite the view into the car repair store next door). We stayed in a room with two queen beds (there were four of us) and it was comfortable. The staff were extrememly friendly; the breakfast was great (bagels, waffles, cereals, fresh fruit and boiled eggs); free parking. The WiFi was bad but there was free computer use, internet and printing in the main reception lobby. Great amenities and service for the price. Definately recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r38424426-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>38424426</t>
+  </si>
+  <si>
+    <t>08/22/2009</t>
+  </si>
+  <si>
+    <t>Not a great area</t>
+  </si>
+  <si>
+    <t>This motel is located in a transitional area of car repair shops, light industry, etc. that does not feel very safe. Although the room was spacious, the carpeting was worn and a bit dingy as were the interior corridors. The motel is quite a distance from Universal Studios. It is not a bad value, but don't expect to walk around outside at night.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r33957586-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>33957586</t>
+  </si>
+  <si>
+    <t>07/05/2009</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Room was very nice, large, spacious and quiet! Bathroom looked new. Both were very clean. They gave 2 complimentary bottles of water (on a daily basis) and some cookies and chocolats, which were very appreciated !!! Location was OK for us, as we had a car, although is not possible to walk to Universal Studios. Free and very easy parking; they didn't have many cars when we were there.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r27779438-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>27779438</t>
+  </si>
+  <si>
+    <t>04/10/2009</t>
+  </si>
+  <si>
+    <t>Nice place...not that close to Universal Studios</t>
+  </si>
+  <si>
+    <t>I've always had good experiences with Comfort Hotels and this property is no exception.  Overall, the place is nice.  Nice large rooms.  Clean.  Fluffy bed and pillows.  New linens.  Big clean bathroom.  We had a King suite which comes with a sleeper sofa, fridge and microwave.   Breakfast room was nice.  Zenny, the Filipina attendant was there for several mornings and looked after us very well.  Maraming salamat po Zenny!  The whole staff was friendly and helpful.  The location is okay.  Nothing stellar, so actually the Comfort Hotel is a bit of an oasis in an otherwise regulat neighborhood.   Parking is all fully covered and there is a fulltime attendant.  Univeral Studios is actually 3.9 miles away...so not exactly down the road, but overall convenient to the freeways and for all access to SoCal.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>I've always had good experiences with Comfort Hotels and this property is no exception.  Overall, the place is nice.  Nice large rooms.  Clean.  Fluffy bed and pillows.  New linens.  Big clean bathroom.  We had a King suite which comes with a sleeper sofa, fridge and microwave.   Breakfast room was nice.  Zenny, the Filipina attendant was there for several mornings and looked after us very well.  Maraming salamat po Zenny!  The whole staff was friendly and helpful.  The location is okay.  Nothing stellar, so actually the Comfort Hotel is a bit of an oasis in an otherwise regulat neighborhood.   Parking is all fully covered and there is a fulltime attendant.  Univeral Studios is actually 3.9 miles away...so not exactly down the road, but overall convenient to the freeways and for all access to SoCal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r22767890-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>22767890</t>
+  </si>
+  <si>
+    <t>12/15/2008</t>
+  </si>
+  <si>
+    <t>Girls day At Universal Studios</t>
+  </si>
+  <si>
+    <t>Well I took my 7 year old to universal studios for her birthday me and a girl friend, we made it a road trip, we got to the hotel at 9:00pm after a long day at universal studios (with 2 kids) the clerk was very nice (lobby was nice ) room was big, bathroom was huge and very nice we both had forgot toothpaste and called down and the front desk gave us a trial size for free.Bed was very comfortable and we had lots of pillows.Breakfast was very good waffles &amp; eggs &amp; cereal &amp; bagels and Danish coffee and juice it was very good.We did not use pool and did not look like any one had but they still had someone cleaning the pool.Hotel was very nice and ok location we had no problems and I am very picky.Will be back next year!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>Well I took my 7 year old to universal studios for her birthday me and a girl friend, we made it a road trip, we got to the hotel at 9:00pm after a long day at universal studios (with 2 kids) the clerk was very nice (lobby was nice ) room was big, bathroom was huge and very nice we both had forgot toothpaste and called down and the front desk gave us a trial size for free.Bed was very comfortable and we had lots of pillows.Breakfast was very good waffles &amp; eggs &amp; cereal &amp; bagels and Danish coffee and juice it was very good.We did not use pool and did not look like any one had but they still had someone cleaning the pool.Hotel was very nice and ok location we had no problems and I am very picky.Will be back next year!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r20357752-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>20357752</t>
+  </si>
+  <si>
+    <t>09/24/2008</t>
+  </si>
+  <si>
+    <t>Great base to explore Hollywood.</t>
+  </si>
+  <si>
+    <t>Okay first lets get the negative comments out of the way.  For the price, the hotel should have had a microwave and/or refrigerator.  Their pool (which we did not use) is located in an unusual place to say the least.  Our window did not have a screen.  We asked the clerk if it was safe to leave it open at night and he said he would not recommend it because *theoretically"* someone could climb up or down to the overhang and well, you get the idea.
+Having said that, the hotel was great for the price--many places in LA worth more than this one are dumps, and almost all under $100 seem to be.  The staff was very helpful (a couple were not all that helpful but tried to be), and the room was nice.  Their free computer with internet access in the lobby area was a bonus (kind of slow, but how many motels even offer this service); I used it a few times for information.  We had no parking issues as some have raised.  Perhaps we were there at a slow week but there were plenty of spaces available.  
+The neighborhood felt safe to us.  I don't know how some posters here define safe, but there are far worse neighborhoods in Hollywood and I have stayed in much less safer-feeling areas before.  I only saw one instance of what I assume was crime-related (one evening, a helicopter flying...Okay first lets get the negative comments out of the way.  For the price, the hotel should have had a microwave and/or refrigerator.  Their pool (which we did not use) is located in an unusual place to say the least.  Our window did not have a screen.  We asked the clerk if it was safe to leave it open at night and he said he would not recommend it because *theoretically"* someone could climb up or down to the overhang and well, you get the idea.Having said that, the hotel was great for the price--many places in LA worth more than this one are dumps, and almost all under $100 seem to be.  The staff was very helpful (a couple were not all that helpful but tried to be), and the room was nice.  Their free computer with internet access in the lobby area was a bonus (kind of slow, but how many motels even offer this service); I used it a few times for information.  We had no parking issues as some have raised.  Perhaps we were there at a slow week but there were plenty of spaces available.  The neighborhood felt safe to us.  I don't know how some posters here define safe, but there are far worse neighborhoods in Hollywood and I have stayed in much less safer-feeling areas before.  I only saw one instance of what I assume was crime-related (one evening, a helicopter flying a few blocks from the hotel shining a spotlight on the ground)  A great supermarket was conveniently located across the street which I went to every night for cooler ice. The best thing about the hotel was their continental breakfast.  They had a lot of choices, of which I tried most in 4 mornings, and all the food was fresh and good.  Loved the waffle-maker!  Why can't more hotels/motels have breakfast that is more than a piece of fruit and plain toast.Very good hotel overall.MoreShow less</t>
+  </si>
+  <si>
+    <t>Okay first lets get the negative comments out of the way.  For the price, the hotel should have had a microwave and/or refrigerator.  Their pool (which we did not use) is located in an unusual place to say the least.  Our window did not have a screen.  We asked the clerk if it was safe to leave it open at night and he said he would not recommend it because *theoretically"* someone could climb up or down to the overhang and well, you get the idea.
+Having said that, the hotel was great for the price--many places in LA worth more than this one are dumps, and almost all under $100 seem to be.  The staff was very helpful (a couple were not all that helpful but tried to be), and the room was nice.  Their free computer with internet access in the lobby area was a bonus (kind of slow, but how many motels even offer this service); I used it a few times for information.  We had no parking issues as some have raised.  Perhaps we were there at a slow week but there were plenty of spaces available.  
+The neighborhood felt safe to us.  I don't know how some posters here define safe, but there are far worse neighborhoods in Hollywood and I have stayed in much less safer-feeling areas before.  I only saw one instance of what I assume was crime-related (one evening, a helicopter flying...Okay first lets get the negative comments out of the way.  For the price, the hotel should have had a microwave and/or refrigerator.  Their pool (which we did not use) is located in an unusual place to say the least.  Our window did not have a screen.  We asked the clerk if it was safe to leave it open at night and he said he would not recommend it because *theoretically"* someone could climb up or down to the overhang and well, you get the idea.Having said that, the hotel was great for the price--many places in LA worth more than this one are dumps, and almost all under $100 seem to be.  The staff was very helpful (a couple were not all that helpful but tried to be), and the room was nice.  Their free computer with internet access in the lobby area was a bonus (kind of slow, but how many motels even offer this service); I used it a few times for information.  We had no parking issues as some have raised.  Perhaps we were there at a slow week but there were plenty of spaces available.  The neighborhood felt safe to us.  I don't know how some posters here define safe, but there are far worse neighborhoods in Hollywood and I have stayed in much less safer-feeling areas before.  I only saw one instance of what I assume was crime-related (one evening, a helicopter flying a few blocks from the hotel shining a spotlight on the ground)  A great supermarket was conveniently located across the street which I went to every night for cooler ice. The best thing about the hotel was their continental breakfast.  They had a lot of choices, of which I tried most in 4 mornings, and all the food was fresh and good.  Loved the waffle-maker!  Why can't more hotels/motels have breakfast that is more than a piece of fruit and plain toast.Very good hotel overall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r19627390-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>19627390</t>
+  </si>
+  <si>
+    <t>09/01/2008</t>
+  </si>
+  <si>
+    <t>You get what you pay for!</t>
+  </si>
+  <si>
+    <t>I was planning a trip with my boyfriend to see a concert in Hollywood, CA, when we saw a great offer through AAA for $85 a night online! And shortly after arriving, we quickly saw why. From the brand name, we had already been expecting 2-3 diamond standard service - which was fine with us. We weren't planning to spend a majority of our time at the resort. There are a couple things that should change though if they haven't already!
+Being that I work at a resort myself, I'm very careful to use my debit card to hold a reservation - I only did so after calling the property directly to confirm no deposit would be taken, which they confirmed. Upon arriving, I told the front desk agent I would like to use a different card than the one I used to hold the reservation with, which he said was fine. I signed the registration form with the new credit card information. Upon getting to my room, I called both my credit card used and debit card to check the balances on both - I had over $250 holding on both cards! I'm very aware that additional money is usually held for parking, resort fees, incidentals, etc - but I had specifically asked for my debit card not to be charged! I walked back to the front desk and asked for them to reverse the charge, which the agent...I was planning a trip with my boyfriend to see a concert in Hollywood, CA, when we saw a great offer through AAA for $85 a night online! And shortly after arriving, we quickly saw why. From the brand name, we had already been expecting 2-3 diamond standard service - which was fine with us. We weren't planning to spend a majority of our time at the resort. There are a couple things that should change though if they haven't already!Being that I work at a resort myself, I'm very careful to use my debit card to hold a reservation - I only did so after calling the property directly to confirm no deposit would be taken, which they confirmed. Upon arriving, I told the front desk agent I would like to use a different card than the one I used to hold the reservation with, which he said was fine. I signed the registration form with the new credit card information. Upon getting to my room, I called both my credit card used and debit card to check the balances on both - I had over $250 holding on both cards! I'm very aware that additional money is usually held for parking, resort fees, incidentals, etc - but I had specifically asked for my debit card not to be charged! I walked back to the front desk and asked for them to reverse the charge, which the agent said he had already done - and that it's up to the bank now to release it. Again, I work at a front desk myself - after asking him to please call the authorization center and to reverse the authorization using his merchant number, he said he couldn't do it and that only a manager could - and the next manager wouldn't be there until the day of my departure. This was a horrible start to 3 days, since the money in my checking was what I would be using for food, recreation etc. Had it been held only on the debit card, I would have used my credit card - but he was holding both! That's near $500 I couldn't use! I told him he should do his best to fix it himself or to call his manager, as I wouldn't be paying for his mistake.Shortly after we had settled in and unpacked everything, the fire alarm system went off. Assuming it could be serious, we picked up everything we could grab (after just unpacking it) and ran down the stairs. We were stuck outside of the hotel for roughly 45 minutes before it was clear to go back in.We went to the concert that evening, and came back to find there were no parking spaces available. This upset me because we're paying for daily parking, and either 1) there aren't enough spaces to accomodate all guests, or 2) someone is bringining additional cars, which hurts both the employees and the guests. There was a parking space blocked off with traffic cones, which I removed myself - I was not going to pay someone else for overnight parking when I was already paying that to the hotel!Beds were very comfortable - A/C was a bit loud.The next morning, took a shower - very refreshing, strong pressure - until the hot water went out! Day of departure - hotel included continental breakfast. The bagels and muffins were stale! We ended up going to Denny's before driving home.It's good that my boyfriend and I have humor, because most of these things were pretty funny in restrospect - but I left comments with the manager - so hopefully, your future stay there is more enjoyable! Just remember when selecting a hotel/resort/inn, you usually get what you pay for!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>I was planning a trip with my boyfriend to see a concert in Hollywood, CA, when we saw a great offer through AAA for $85 a night online! And shortly after arriving, we quickly saw why. From the brand name, we had already been expecting 2-3 diamond standard service - which was fine with us. We weren't planning to spend a majority of our time at the resort. There are a couple things that should change though if they haven't already!
+Being that I work at a resort myself, I'm very careful to use my debit card to hold a reservation - I only did so after calling the property directly to confirm no deposit would be taken, which they confirmed. Upon arriving, I told the front desk agent I would like to use a different card than the one I used to hold the reservation with, which he said was fine. I signed the registration form with the new credit card information. Upon getting to my room, I called both my credit card used and debit card to check the balances on both - I had over $250 holding on both cards! I'm very aware that additional money is usually held for parking, resort fees, incidentals, etc - but I had specifically asked for my debit card not to be charged! I walked back to the front desk and asked for them to reverse the charge, which the agent...I was planning a trip with my boyfriend to see a concert in Hollywood, CA, when we saw a great offer through AAA for $85 a night online! And shortly after arriving, we quickly saw why. From the brand name, we had already been expecting 2-3 diamond standard service - which was fine with us. We weren't planning to spend a majority of our time at the resort. There are a couple things that should change though if they haven't already!Being that I work at a resort myself, I'm very careful to use my debit card to hold a reservation - I only did so after calling the property directly to confirm no deposit would be taken, which they confirmed. Upon arriving, I told the front desk agent I would like to use a different card than the one I used to hold the reservation with, which he said was fine. I signed the registration form with the new credit card information. Upon getting to my room, I called both my credit card used and debit card to check the balances on both - I had over $250 holding on both cards! I'm very aware that additional money is usually held for parking, resort fees, incidentals, etc - but I had specifically asked for my debit card not to be charged! I walked back to the front desk and asked for them to reverse the charge, which the agent said he had already done - and that it's up to the bank now to release it. Again, I work at a front desk myself - after asking him to please call the authorization center and to reverse the authorization using his merchant number, he said he couldn't do it and that only a manager could - and the next manager wouldn't be there until the day of my departure. This was a horrible start to 3 days, since the money in my checking was what I would be using for food, recreation etc. Had it been held only on the debit card, I would have used my credit card - but he was holding both! That's near $500 I couldn't use! I told him he should do his best to fix it himself or to call his manager, as I wouldn't be paying for his mistake.Shortly after we had settled in and unpacked everything, the fire alarm system went off. Assuming it could be serious, we picked up everything we could grab (after just unpacking it) and ran down the stairs. We were stuck outside of the hotel for roughly 45 minutes before it was clear to go back in.We went to the concert that evening, and came back to find there were no parking spaces available. This upset me because we're paying for daily parking, and either 1) there aren't enough spaces to accomodate all guests, or 2) someone is bringining additional cars, which hurts both the employees and the guests. There was a parking space blocked off with traffic cones, which I removed myself - I was not going to pay someone else for overnight parking when I was already paying that to the hotel!Beds were very comfortable - A/C was a bit loud.The next morning, took a shower - very refreshing, strong pressure - until the hot water went out! Day of departure - hotel included continental breakfast. The bagels and muffins were stale! We ended up going to Denny's before driving home.It's good that my boyfriend and I have humor, because most of these things were pretty funny in restrospect - but I left comments with the manager - so hopefully, your future stay there is more enjoyable! Just remember when selecting a hotel/resort/inn, you usually get what you pay for!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r13837190-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>13837190</t>
+  </si>
+  <si>
+    <t>02/25/2008</t>
+  </si>
+  <si>
+    <t>Scared at first, but it was great!</t>
+  </si>
+  <si>
+    <t>As we were driving to this hotel at night, we were concerned about the area, as it doesn't seem like the best part of town. We were pleasantly surpised upon arrival, as the place is practically brand new. Our room was very spacious, with two queen beds, desk area, etc;. Staff is very good and helpful, and there is free internet access with a printer in the lobby area. Free parking too. Very good breakfast included from 7-10am in a large room. Great fresh fruit and bagels, rolls, pastries, etc; Our room was really great with very comfortable beds, good shower, and in brand new condition with nice furnishings and decorations. You will like this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>As we were driving to this hotel at night, we were concerned about the area, as it doesn't seem like the best part of town. We were pleasantly surpised upon arrival, as the place is practically brand new. Our room was very spacious, with two queen beds, desk area, etc;. Staff is very good and helpful, and there is free internet access with a printer in the lobby area. Free parking too. Very good breakfast included from 7-10am in a large room. Great fresh fruit and bagels, rolls, pastries, etc; Our room was really great with very comfortable beds, good shower, and in brand new condition with nice furnishings and decorations. You will like this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r11675648-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>11675648</t>
+  </si>
+  <si>
+    <t>12/18/2007</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I recently booked a room at the Comfort inn &amp; suites in North Hollywood, when we visited the Ellen DeGeneres show, and I have to say, it was a very nice, comfortable stay. I felt a little weary when we drove up late, cause the neighborhood didn't look very safe, but since I was traveling with 3 other people, I felt a lot safer. Even though we didn't check in until almost midnight, we were able to find parking in the covered garage. The staff was very friendly and the rooms were very nice and clean. The beds were comfortable and taking a shower was a bit of a surprise because either the pressure is too low or too high and the water is too hot or too cold, but the shower was actually very pleasant. They have a free continental breakfast every morning, I didn't make it down on time so I can't comment on that. But all in all, I was very much satisfied with my stay. I do think, however, that it is a little over priced.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>I recently booked a room at the Comfort inn &amp; suites in North Hollywood, when we visited the Ellen DeGeneres show, and I have to say, it was a very nice, comfortable stay. I felt a little weary when we drove up late, cause the neighborhood didn't look very safe, but since I was traveling with 3 other people, I felt a lot safer. Even though we didn't check in until almost midnight, we were able to find parking in the covered garage. The staff was very friendly and the rooms were very nice and clean. The beds were comfortable and taking a shower was a bit of a surprise because either the pressure is too low or too high and the water is too hot or too cold, but the shower was actually very pleasant. They have a free continental breakfast every morning, I didn't make it down on time so I can't comment on that. But all in all, I was very much satisfied with my stay. I do think, however, that it is a little over priced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r8592918-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>8592918</t>
+  </si>
+  <si>
+    <t>08/31/2007</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised, but a little pricey</t>
+  </si>
+  <si>
+    <t>A friend of mine booked this place for a few of us to stay while we were visiting some friends and on our way to Universal Studios.  I must admit I was a little afraid to see what this place would be like, especially as we were driving down Lankershim and noticed it probably wasn't the best of neighborhoods.  We had 2 suites booked (apparently there are only 4 in the whole place?) and when we walked in, everything seemed pretty new.  Dark wood furniture, fairly modern decor and the white shutters were a nice touch.  The suite was very spacious: 2 queen sized beds, a sofa bed that was separated by a tiny half wall (no distinct separation here), a desk, and a small table.  We had 4 adults in the room with ample space.  Housekeeping did a great job of maintaining the cleanliness.  Free Wi-Fi was great.  The place is about a 15 minute drive from Universal Studios and the breakfast room is bright and cheery in the morning with the sun coming through the tall windows.  Breakfast is continental, includes fruit, waffles, baked goods, coffee/milk/juice...a good amount for what is needed.  Garage is definitely too small for the amount of guests there when we visited.  But there is parking along the street as well which makes it bearable.  All in all, an enjoyable stay but considering the location and that it is almost a glamorized motel, I...A friend of mine booked this place for a few of us to stay while we were visiting some friends and on our way to Universal Studios.  I must admit I was a little afraid to see what this place would be like, especially as we were driving down Lankershim and noticed it probably wasn't the best of neighborhoods.  We had 2 suites booked (apparently there are only 4 in the whole place?) and when we walked in, everything seemed pretty new.  Dark wood furniture, fairly modern decor and the white shutters were a nice touch.  The suite was very spacious: 2 queen sized beds, a sofa bed that was separated by a tiny half wall (no distinct separation here), a desk, and a small table.  We had 4 adults in the room with ample space.  Housekeeping did a great job of maintaining the cleanliness.  Free Wi-Fi was great.  The place is about a 15 minute drive from Universal Studios and the breakfast room is bright and cheery in the morning with the sun coming through the tall windows.  Breakfast is continental, includes fruit, waffles, baked goods, coffee/milk/juice...a good amount for what is needed.  Garage is definitely too small for the amount of guests there when we visited.  But there is parking along the street as well which makes it bearable.  All in all, an enjoyable stay but considering the location and that it is almost a glamorized motel, I agree...shouldn't be more than $99/night..MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>A friend of mine booked this place for a few of us to stay while we were visiting some friends and on our way to Universal Studios.  I must admit I was a little afraid to see what this place would be like, especially as we were driving down Lankershim and noticed it probably wasn't the best of neighborhoods.  We had 2 suites booked (apparently there are only 4 in the whole place?) and when we walked in, everything seemed pretty new.  Dark wood furniture, fairly modern decor and the white shutters were a nice touch.  The suite was very spacious: 2 queen sized beds, a sofa bed that was separated by a tiny half wall (no distinct separation here), a desk, and a small table.  We had 4 adults in the room with ample space.  Housekeeping did a great job of maintaining the cleanliness.  Free Wi-Fi was great.  The place is about a 15 minute drive from Universal Studios and the breakfast room is bright and cheery in the morning with the sun coming through the tall windows.  Breakfast is continental, includes fruit, waffles, baked goods, coffee/milk/juice...a good amount for what is needed.  Garage is definitely too small for the amount of guests there when we visited.  But there is parking along the street as well which makes it bearable.  All in all, an enjoyable stay but considering the location and that it is almost a glamorized motel, I...A friend of mine booked this place for a few of us to stay while we were visiting some friends and on our way to Universal Studios.  I must admit I was a little afraid to see what this place would be like, especially as we were driving down Lankershim and noticed it probably wasn't the best of neighborhoods.  We had 2 suites booked (apparently there are only 4 in the whole place?) and when we walked in, everything seemed pretty new.  Dark wood furniture, fairly modern decor and the white shutters were a nice touch.  The suite was very spacious: 2 queen sized beds, a sofa bed that was separated by a tiny half wall (no distinct separation here), a desk, and a small table.  We had 4 adults in the room with ample space.  Housekeeping did a great job of maintaining the cleanliness.  Free Wi-Fi was great.  The place is about a 15 minute drive from Universal Studios and the breakfast room is bright and cheery in the morning with the sun coming through the tall windows.  Breakfast is continental, includes fruit, waffles, baked goods, coffee/milk/juice...a good amount for what is needed.  Garage is definitely too small for the amount of guests there when we visited.  But there is parking along the street as well which makes it bearable.  All in all, an enjoyable stay but considering the location and that it is almost a glamorized motel, I agree...shouldn't be more than $99/night..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r7236774-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>7236774</t>
+  </si>
+  <si>
+    <t>03/27/2007</t>
+  </si>
+  <si>
+    <t>Great Hotel Friendly Staff!!!</t>
+  </si>
+  <si>
+    <t>After searching on the internet for hotels to stay in, I became a little frustrated at trying to pick something decent after finally settling on this Comfort inn, I was very pleased when we got to LA late and checked in.  This hotel is an  excellent place to stay!!!  The room sizes are great, the staff was very friendly and the continental breakfast was great.  We stayed there for 5 nights and I would definately go back to that hotel.  I highly recommend this hotel.  The only thing that I can really say and its not really negative is the swimming pool was a little wierd where it was located (in the parking garage) That particular hotel really does not need a swimming pool, my suggestion would be to add a few more parking spaces and get rid of the pool, so if you are not looking to go swimming this is the hotel for you.   Parking was not bad, and when we came back late they would always find us a place to park!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>After searching on the internet for hotels to stay in, I became a little frustrated at trying to pick something decent after finally settling on this Comfort inn, I was very pleased when we got to LA late and checked in.  This hotel is an  excellent place to stay!!!  The room sizes are great, the staff was very friendly and the continental breakfast was great.  We stayed there for 5 nights and I would definately go back to that hotel.  I highly recommend this hotel.  The only thing that I can really say and its not really negative is the swimming pool was a little wierd where it was located (in the parking garage) That particular hotel really does not need a swimming pool, my suggestion would be to add a few more parking spaces and get rid of the pool, so if you are not looking to go swimming this is the hotel for you.   Parking was not bad, and when we came back late they would always find us a place to park!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r6556097-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>6556097</t>
+  </si>
+  <si>
+    <t>01/04/2007</t>
+  </si>
+  <si>
+    <t>Great deal</t>
+  </si>
+  <si>
+    <t>We stayed here over New Years to view the Rose Parade floats after the parade. This was a good location for that. It was a short, easy drive to Pasadena. The hotel seemed to have been recently remodeled and showed well. Security was good. My only complaint was that the room seemed a little stuffy without the fan on. We would return to this location in the future.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2507,5876 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" t="s">
+        <v>134</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>140</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" t="s">
+        <v>161</v>
+      </c>
+      <c r="L21" t="s">
+        <v>162</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" t="s">
+        <v>166</v>
+      </c>
+      <c r="K22" t="s">
+        <v>167</v>
+      </c>
+      <c r="L22" t="s">
+        <v>168</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>169</v>
+      </c>
+      <c r="O22" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" t="s">
+        <v>175</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" t="s">
+        <v>180</v>
+      </c>
+      <c r="L24" t="s">
+        <v>181</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>182</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>189</v>
+      </c>
+      <c r="J26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" t="s">
+        <v>192</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>193</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>196</v>
+      </c>
+      <c r="J27" t="s">
+        <v>197</v>
+      </c>
+      <c r="K27" t="s">
+        <v>198</v>
+      </c>
+      <c r="L27" t="s">
+        <v>199</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>201</v>
+      </c>
+      <c r="J28" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" t="s">
+        <v>203</v>
+      </c>
+      <c r="L28" t="s">
+        <v>204</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>205</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29" t="s">
+        <v>208</v>
+      </c>
+      <c r="K29" t="s">
+        <v>209</v>
+      </c>
+      <c r="L29" t="s">
+        <v>210</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>211</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" t="s">
+        <v>216</v>
+      </c>
+      <c r="L30" t="s">
+        <v>217</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>211</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>220</v>
+      </c>
+      <c r="J31" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" t="s">
+        <v>223</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>224</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>226</v>
+      </c>
+      <c r="J32" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" t="s">
+        <v>228</v>
+      </c>
+      <c r="L32" t="s">
+        <v>229</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>230</v>
+      </c>
+      <c r="O32" t="s">
+        <v>231</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>232</v>
+      </c>
+      <c r="X32" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>235</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>236</v>
+      </c>
+      <c r="J33" t="s">
+        <v>237</v>
+      </c>
+      <c r="K33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L33" t="s">
+        <v>239</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>240</v>
+      </c>
+      <c r="O33" t="s">
+        <v>122</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>232</v>
+      </c>
+      <c r="X33" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>242</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>243</v>
+      </c>
+      <c r="J34" t="s">
+        <v>244</v>
+      </c>
+      <c r="K34" t="s">
+        <v>245</v>
+      </c>
+      <c r="L34" t="s">
+        <v>246</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>224</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>232</v>
+      </c>
+      <c r="X34" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>249</v>
+      </c>
+      <c r="J35" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" t="s">
+        <v>251</v>
+      </c>
+      <c r="L35" t="s">
+        <v>252</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>224</v>
+      </c>
+      <c r="O35" t="s">
+        <v>90</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>255</v>
+      </c>
+      <c r="J36" t="s">
+        <v>256</v>
+      </c>
+      <c r="K36" t="s">
+        <v>257</v>
+      </c>
+      <c r="L36" t="s">
+        <v>258</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>259</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>260</v>
+      </c>
+      <c r="X36" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K37" t="s">
+        <v>266</v>
+      </c>
+      <c r="L37" t="s">
+        <v>267</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>240</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>260</v>
+      </c>
+      <c r="X37" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>269</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>270</v>
+      </c>
+      <c r="J38" t="s">
+        <v>271</v>
+      </c>
+      <c r="K38" t="s">
+        <v>272</v>
+      </c>
+      <c r="L38" t="s">
+        <v>273</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>274</v>
+      </c>
+      <c r="O38" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>275</v>
+      </c>
+      <c r="X38" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>278</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>279</v>
+      </c>
+      <c r="J39" t="s">
+        <v>271</v>
+      </c>
+      <c r="K39" t="s">
+        <v>280</v>
+      </c>
+      <c r="L39" t="s">
+        <v>281</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>282</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>275</v>
+      </c>
+      <c r="X39" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>284</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>285</v>
+      </c>
+      <c r="J40" t="s">
+        <v>286</v>
+      </c>
+      <c r="K40" t="s">
+        <v>287</v>
+      </c>
+      <c r="L40" t="s">
+        <v>288</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>289</v>
+      </c>
+      <c r="X40" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>292</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>293</v>
+      </c>
+      <c r="J41" t="s">
+        <v>294</v>
+      </c>
+      <c r="K41" t="s">
+        <v>295</v>
+      </c>
+      <c r="L41" t="s">
+        <v>296</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>297</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>298</v>
+      </c>
+      <c r="X41" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>301</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>302</v>
+      </c>
+      <c r="J42" t="s">
+        <v>303</v>
+      </c>
+      <c r="K42" t="s">
+        <v>304</v>
+      </c>
+      <c r="L42" t="s">
+        <v>305</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>297</v>
+      </c>
+      <c r="O42" t="s">
+        <v>122</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>298</v>
+      </c>
+      <c r="X42" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>307</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>308</v>
+      </c>
+      <c r="J43" t="s">
+        <v>309</v>
+      </c>
+      <c r="K43" t="s">
+        <v>310</v>
+      </c>
+      <c r="L43" t="s">
+        <v>311</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>230</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>312</v>
+      </c>
+      <c r="X43" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>316</v>
+      </c>
+      <c r="J44" t="s">
+        <v>317</v>
+      </c>
+      <c r="K44" t="s">
+        <v>318</v>
+      </c>
+      <c r="L44" t="s">
+        <v>319</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>320</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>321</v>
+      </c>
+      <c r="X44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>324</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>325</v>
+      </c>
+      <c r="J45" t="s">
+        <v>326</v>
+      </c>
+      <c r="K45" t="s">
+        <v>327</v>
+      </c>
+      <c r="L45" t="s">
+        <v>328</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>329</v>
+      </c>
+      <c r="O45" t="s">
+        <v>90</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>330</v>
+      </c>
+      <c r="X45" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>333</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>334</v>
+      </c>
+      <c r="J46" t="s">
+        <v>335</v>
+      </c>
+      <c r="K46" t="s">
+        <v>336</v>
+      </c>
+      <c r="L46" t="s">
+        <v>337</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>329</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>330</v>
+      </c>
+      <c r="X46" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>339</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>340</v>
+      </c>
+      <c r="J47" t="s">
+        <v>341</v>
+      </c>
+      <c r="K47" t="s">
+        <v>342</v>
+      </c>
+      <c r="L47" t="s">
+        <v>343</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>344</v>
+      </c>
+      <c r="O47" t="s">
+        <v>90</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>345</v>
+      </c>
+      <c r="X47" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>348</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>349</v>
+      </c>
+      <c r="J48" t="s">
+        <v>350</v>
+      </c>
+      <c r="K48" t="s">
+        <v>351</v>
+      </c>
+      <c r="L48" t="s">
+        <v>352</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>353</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>345</v>
+      </c>
+      <c r="X48" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>355</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J49" t="s">
+        <v>357</v>
+      </c>
+      <c r="K49" t="s">
+        <v>358</v>
+      </c>
+      <c r="L49" t="s">
+        <v>359</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>360</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>361</v>
+      </c>
+      <c r="X49" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>364</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>365</v>
+      </c>
+      <c r="J50" t="s">
+        <v>366</v>
+      </c>
+      <c r="K50" t="s">
+        <v>367</v>
+      </c>
+      <c r="L50" t="s">
+        <v>368</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>369</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>361</v>
+      </c>
+      <c r="X50" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>371</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>372</v>
+      </c>
+      <c r="J51" t="s">
+        <v>373</v>
+      </c>
+      <c r="K51" t="s">
+        <v>374</v>
+      </c>
+      <c r="L51" t="s">
+        <v>375</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>376</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>361</v>
+      </c>
+      <c r="X51" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>378</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>379</v>
+      </c>
+      <c r="J52" t="s">
+        <v>380</v>
+      </c>
+      <c r="K52" t="s">
+        <v>381</v>
+      </c>
+      <c r="L52" t="s">
+        <v>382</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>383</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>361</v>
+      </c>
+      <c r="X52" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>385</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>386</v>
+      </c>
+      <c r="J53" t="s">
+        <v>387</v>
+      </c>
+      <c r="K53" t="s">
+        <v>388</v>
+      </c>
+      <c r="L53" t="s">
+        <v>389</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>390</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>361</v>
+      </c>
+      <c r="X53" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>392</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>393</v>
+      </c>
+      <c r="J54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K54" t="s">
+        <v>395</v>
+      </c>
+      <c r="L54" t="s">
+        <v>396</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>397</v>
+      </c>
+      <c r="O54" t="s">
+        <v>90</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>361</v>
+      </c>
+      <c r="X54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>399</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>400</v>
+      </c>
+      <c r="J55" t="s">
+        <v>401</v>
+      </c>
+      <c r="K55" t="s">
+        <v>402</v>
+      </c>
+      <c r="L55" t="s">
+        <v>403</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>390</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>406</v>
+      </c>
+      <c r="J56" t="s">
+        <v>407</v>
+      </c>
+      <c r="K56" t="s">
+        <v>408</v>
+      </c>
+      <c r="L56" t="s">
+        <v>409</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>410</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>411</v>
+      </c>
+      <c r="J57" t="s">
+        <v>412</v>
+      </c>
+      <c r="K57" t="s">
+        <v>402</v>
+      </c>
+      <c r="L57" t="s">
+        <v>413</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>414</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>416</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>417</v>
+      </c>
+      <c r="J58" t="s">
+        <v>418</v>
+      </c>
+      <c r="K58" t="s">
+        <v>419</v>
+      </c>
+      <c r="L58" t="s">
+        <v>420</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>414</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>422</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>423</v>
+      </c>
+      <c r="J59" t="s">
+        <v>424</v>
+      </c>
+      <c r="K59" t="s">
+        <v>425</v>
+      </c>
+      <c r="L59" t="s">
+        <v>426</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>427</v>
+      </c>
+      <c r="O59" t="s">
+        <v>90</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>428</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>429</v>
+      </c>
+      <c r="J60" t="s">
+        <v>430</v>
+      </c>
+      <c r="K60" t="s">
+        <v>431</v>
+      </c>
+      <c r="L60" t="s">
+        <v>432</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>433</v>
+      </c>
+      <c r="O60" t="s">
+        <v>90</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>434</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>435</v>
+      </c>
+      <c r="J61" t="s">
+        <v>436</v>
+      </c>
+      <c r="K61" t="s">
+        <v>437</v>
+      </c>
+      <c r="L61" t="s">
+        <v>438</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>433</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>440</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>441</v>
+      </c>
+      <c r="J62" t="s">
+        <v>442</v>
+      </c>
+      <c r="K62" t="s">
+        <v>443</v>
+      </c>
+      <c r="L62" t="s">
+        <v>444</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>445</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>447</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>448</v>
+      </c>
+      <c r="J63" t="s">
+        <v>449</v>
+      </c>
+      <c r="K63" t="s">
+        <v>450</v>
+      </c>
+      <c r="L63" t="s">
+        <v>451</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>452</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>454</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>455</v>
+      </c>
+      <c r="J64" t="s">
+        <v>456</v>
+      </c>
+      <c r="K64" t="s">
+        <v>457</v>
+      </c>
+      <c r="L64" t="s">
+        <v>458</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>452</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>459</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>460</v>
+      </c>
+      <c r="J65" t="s">
+        <v>461</v>
+      </c>
+      <c r="K65" t="s">
+        <v>462</v>
+      </c>
+      <c r="L65" t="s">
+        <v>463</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>464</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>466</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>467</v>
+      </c>
+      <c r="J66" t="s">
+        <v>468</v>
+      </c>
+      <c r="K66" t="s">
+        <v>469</v>
+      </c>
+      <c r="L66" t="s">
+        <v>470</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>464</v>
+      </c>
+      <c r="O66" t="s">
+        <v>231</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>471</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>472</v>
+      </c>
+      <c r="J67" t="s">
+        <v>473</v>
+      </c>
+      <c r="K67" t="s">
+        <v>474</v>
+      </c>
+      <c r="L67" t="s">
+        <v>475</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>476</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>478</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>479</v>
+      </c>
+      <c r="J68" t="s">
+        <v>480</v>
+      </c>
+      <c r="K68" t="s">
+        <v>481</v>
+      </c>
+      <c r="L68" t="s">
+        <v>482</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>483</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>484</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>485</v>
+      </c>
+      <c r="J69" t="s">
+        <v>486</v>
+      </c>
+      <c r="K69" t="s">
+        <v>487</v>
+      </c>
+      <c r="L69" t="s">
+        <v>488</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>489</v>
+      </c>
+      <c r="O69" t="s">
+        <v>90</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>491</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>492</v>
+      </c>
+      <c r="J70" t="s">
+        <v>493</v>
+      </c>
+      <c r="K70" t="s">
+        <v>494</v>
+      </c>
+      <c r="L70" t="s">
+        <v>495</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>489</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>497</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>498</v>
+      </c>
+      <c r="J71" t="s">
+        <v>499</v>
+      </c>
+      <c r="K71" t="s">
+        <v>500</v>
+      </c>
+      <c r="L71" t="s">
+        <v>501</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>502</v>
+      </c>
+      <c r="O71" t="s">
+        <v>90</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>503</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>504</v>
+      </c>
+      <c r="J72" t="s">
+        <v>505</v>
+      </c>
+      <c r="K72" t="s">
+        <v>506</v>
+      </c>
+      <c r="L72" t="s">
+        <v>507</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>508</v>
+      </c>
+      <c r="O72" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>510</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>511</v>
+      </c>
+      <c r="J73" t="s">
+        <v>512</v>
+      </c>
+      <c r="K73" t="s">
+        <v>513</v>
+      </c>
+      <c r="L73" t="s">
+        <v>514</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>508</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>516</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>517</v>
+      </c>
+      <c r="J74" t="s">
+        <v>518</v>
+      </c>
+      <c r="K74" t="s">
+        <v>519</v>
+      </c>
+      <c r="L74" t="s">
+        <v>520</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>521</v>
+      </c>
+      <c r="O74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>523</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>524</v>
+      </c>
+      <c r="J75" t="s">
+        <v>525</v>
+      </c>
+      <c r="K75" t="s">
+        <v>526</v>
+      </c>
+      <c r="L75" t="s">
+        <v>527</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>528</v>
+      </c>
+      <c r="O75" t="s">
+        <v>90</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>530</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>531</v>
+      </c>
+      <c r="J76" t="s">
+        <v>532</v>
+      </c>
+      <c r="K76" t="s">
+        <v>533</v>
+      </c>
+      <c r="L76" t="s">
+        <v>534</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>535</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>536</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>537</v>
+      </c>
+      <c r="J77" t="s">
+        <v>538</v>
+      </c>
+      <c r="K77" t="s">
+        <v>539</v>
+      </c>
+      <c r="L77" t="s">
+        <v>540</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>541</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>542</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>543</v>
+      </c>
+      <c r="J78" t="s">
+        <v>544</v>
+      </c>
+      <c r="K78" t="s">
+        <v>545</v>
+      </c>
+      <c r="L78" t="s">
+        <v>546</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>547</v>
+      </c>
+      <c r="O78" t="s">
+        <v>60</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>549</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>550</v>
+      </c>
+      <c r="J79" t="s">
+        <v>551</v>
+      </c>
+      <c r="K79" t="s">
+        <v>552</v>
+      </c>
+      <c r="L79" t="s">
+        <v>553</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>541</v>
+      </c>
+      <c r="O79" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>554</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>555</v>
+      </c>
+      <c r="J80" t="s">
+        <v>556</v>
+      </c>
+      <c r="K80" t="s">
+        <v>557</v>
+      </c>
+      <c r="L80" t="s">
+        <v>558</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>559</v>
+      </c>
+      <c r="O80" t="s">
+        <v>60</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>560</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>561</v>
+      </c>
+      <c r="J81" t="s">
+        <v>562</v>
+      </c>
+      <c r="K81" t="s">
+        <v>563</v>
+      </c>
+      <c r="L81" t="s">
+        <v>564</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>565</v>
+      </c>
+      <c r="O81" t="s">
+        <v>90</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>566</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>567</v>
+      </c>
+      <c r="J82" t="s">
+        <v>568</v>
+      </c>
+      <c r="K82" t="s">
+        <v>569</v>
+      </c>
+      <c r="L82" t="s">
+        <v>570</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>571</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>573</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>574</v>
+      </c>
+      <c r="J83" t="s">
+        <v>575</v>
+      </c>
+      <c r="K83" t="s">
+        <v>576</v>
+      </c>
+      <c r="L83" t="s">
+        <v>577</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>578</v>
+      </c>
+      <c r="O83" t="s">
+        <v>90</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>579</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>580</v>
+      </c>
+      <c r="J84" t="s">
+        <v>581</v>
+      </c>
+      <c r="K84" t="s">
+        <v>582</v>
+      </c>
+      <c r="L84" t="s">
+        <v>583</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>584</v>
+      </c>
+      <c r="O84" t="s">
+        <v>90</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>585</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>586</v>
+      </c>
+      <c r="J85" t="s">
+        <v>587</v>
+      </c>
+      <c r="K85" t="s">
+        <v>588</v>
+      </c>
+      <c r="L85" t="s">
+        <v>589</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>590</v>
+      </c>
+      <c r="O85" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>592</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>593</v>
+      </c>
+      <c r="J86" t="s">
+        <v>594</v>
+      </c>
+      <c r="K86" t="s">
+        <v>595</v>
+      </c>
+      <c r="L86" t="s">
+        <v>596</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>597</v>
+      </c>
+      <c r="O86" t="s">
+        <v>60</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>599</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>600</v>
+      </c>
+      <c r="J87" t="s">
+        <v>601</v>
+      </c>
+      <c r="K87" t="s">
+        <v>602</v>
+      </c>
+      <c r="L87" t="s">
+        <v>603</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>605</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>606</v>
+      </c>
+      <c r="J88" t="s">
+        <v>607</v>
+      </c>
+      <c r="K88" t="s">
+        <v>608</v>
+      </c>
+      <c r="L88" t="s">
+        <v>609</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>610</v>
+      </c>
+      <c r="O88" t="s">
+        <v>90</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>612</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>613</v>
+      </c>
+      <c r="J89" t="s">
+        <v>614</v>
+      </c>
+      <c r="K89" t="s">
+        <v>615</v>
+      </c>
+      <c r="L89" t="s">
+        <v>616</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>617</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>619</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>620</v>
+      </c>
+      <c r="J90" t="s">
+        <v>621</v>
+      </c>
+      <c r="K90" t="s">
+        <v>622</v>
+      </c>
+      <c r="L90" t="s">
+        <v>623</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>624</v>
+      </c>
+      <c r="O90" t="s">
+        <v>60</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>626</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>627</v>
+      </c>
+      <c r="J91" t="s">
+        <v>628</v>
+      </c>
+      <c r="K91" t="s">
+        <v>629</v>
+      </c>
+      <c r="L91" t="s">
+        <v>630</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>631</v>
+      </c>
+      <c r="O91" t="s">
+        <v>122</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>633</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>634</v>
+      </c>
+      <c r="J92" t="s">
+        <v>635</v>
+      </c>
+      <c r="K92" t="s">
+        <v>636</v>
+      </c>
+      <c r="L92" t="s">
+        <v>637</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>638</v>
+      </c>
+      <c r="O92" t="s">
+        <v>60</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>54553</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>640</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>641</v>
+      </c>
+      <c r="J93" t="s">
+        <v>642</v>
+      </c>
+      <c r="K93" t="s">
+        <v>643</v>
+      </c>
+      <c r="L93" t="s">
+        <v>644</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>644</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_122.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_122.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="737">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>ricknie</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Oh-oh-oh-0h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r553973868-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Rajat D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r553012684-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>sangeeta10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r544709385-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>rookiegrl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r540808392-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>We enjoyed our stay here while visiting Universal Studios. Only about a ten minute drive to the park. Convenient shopping center across the street with a grocery store, little Cesar's pizza and a dollar store.. We felt clean and comfortable and safe. Free hot breakfast was decent and free parking a huge plus. Would definitely stay here again</t>
   </si>
   <si>
+    <t>Mark K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r535661288-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -270,6 +288,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>jgemza</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r524246444-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Norjean</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r524053482-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -303,6 +327,9 @@
     <t>We were skeptical driving  to the Comfort Inn 'cause of the neighborhood.  Upon arrival we found what appeared to be a new or renovated Inn. King suite was large, contemporary decor. No issues. Lobby and breakfast room clean and modern. Double garage parking so be careful how you park. Stay away from shopping center across street. Lots of groups of folks hanging around,  passing out fliers, etc. Would recommend hotel to travelers. Breakfast typical Choice Hotel offering.</t>
   </si>
   <si>
+    <t>Scott R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r521242188-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -321,6 +348,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>dyte_123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r504307367-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -339,6 +369,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>TIMB0</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r503580151-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -354,6 +387,9 @@
     <t>Our family stayed here for just one night while at Universal Studios.  The hotel was nice and kept clean.  The area is a bit rough (especially the roads out front) but the hotel always felt safe.  Parking is a little tricky as it's tandem, but we never got blocked so I can't complain.  The free breakfast was lackluster, but not terrible.  This was a nice location near the freeway and easy access to the theme park and Burbank attractions.</t>
   </si>
   <si>
+    <t>GSmith07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r496379940-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -369,6 +405,9 @@
     <t>Food and grocery store nearby. Rooms have mini fridge and microwave. Clean rooms and safe parking. Breakfast is pretty good but you should get there early. The staff are very friendly and helpful. Whenever I come to L.A. for work I always stay here.</t>
   </si>
   <si>
+    <t>Brandy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r487739200-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -387,6 +426,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Megomeyago</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r483691455-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -408,6 +450,9 @@
     <t>I will start off by stating that this hotel was convenient to stay at when looking for a "cheaper deal" near Universal Studios. However the cost of the hotel was a bit much for what we got. I feel the cost is that price it is because they can due to it's location to Universal. The good:The rooms were clean and they had a nice clean hotel smell to it all. The bad:Outdated hotelPool was very small and in a small enclosed room no bigger than a front room. It was very crowded with a large family. Their is one small elevator Parking is odd you have to pull up into a 2 car stall and leave your keys so they can move your car if the person in front of you needs to leave. Bars on windows. I get this is for our protection but that seemed very concerning to me that their was bars on my window!The location is very run down around the hotel. It seems to be a place you wouldn't want to just walk around by ones self. The soaps (shampoo and conditioner) they give you seemed to be refilled from a time before it was very unsettling. Over all I will not be staying here again and will advise others not to.More</t>
   </si>
   <si>
+    <t>Mom4pups</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r474841293-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -423,6 +468,9 @@
     <t>The price is reasonable. The room is clean and bed is comfortable. Close to Universal Studios and not that far to Porto's Bakery. The only thing that Is negative is the parking.. it is kind of odd. Continental breakfast is a plus! Over all, I like our stay.Will be coming back!</t>
   </si>
   <si>
+    <t>Patricia M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r466603363-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -441,6 +489,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>califmac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r461603522-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -459,6 +510,9 @@
     <t>We decided to make a spur of the moment trip to Universal Studios....and we were having trouble finding a good place to stay - needing two rooms for eight adults...and we found this place.  It is in an area called NOHO....never heard of it - but it is an Art's District of sorts, but it was close to Universal...so we decided, what the heck.  Price was good and they had the rooms.Very easy to find and the service was really GREAT!  Parking was the only issue that I can really think of....since most is double-parking, if you park behind someone, you need to leave your keys at the front desk....so we had to clean out our van at night - because you never know.  Again, this was the ONLY thing I can come up with.  Everyone we came in contact with was great.  From the front desk....the food area....housekeeping....everyone!  Outstanding job by all...we will have this location on our very short list of places to stay in the future.More</t>
   </si>
   <si>
+    <t>Mariano A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r446168848-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -477,6 +531,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>VICTOR M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r429338902-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -492,6 +549,9 @@
     <t xml:space="preserve">This hotel was just what we needed after a long car ride.  It was clean and comfortable, we were able to walk to a nearby place for dinner. the neighbor is working class but safe.  the next day we traveled a short ride to the theme park .  the only thing is parking, small amount of spaces for size of hotel. </t>
   </si>
   <si>
+    <t>franco6872</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r428455934-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -510,6 +570,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>R0wi3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r416306089-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -531,6 +594,9 @@
     <t>This hotel is in a good location to get to most places, very easy to get to downtown, universal studios and Warner brothers studios. We didn't uber because it worked out to be more expensive than parking and they don't offer a shuttle. But we got to the studios in like 15 minutes easy. The room was nice and big, good size bathroom, microwave, coffee machine etc. Our tv was broken at first but the came and fixed it very quickly. No noise from other rooms at all. The only problem I had was the smell, not sure exactly what it was, dusty or a wet smell but it was noticeable when you entered the room and didn't seem to go away. There's a cheap decent Chinese place in the strip mall across the street, big meals, so big that's what we had for dinner both night, thanks to the microwave too! The parking was weird, you have to park in the front space and if the hotel is fuller, someone essentially has to park you in and leave the keys at reception. It wasn't busy for us so didn't need to worry about it. Breakfast was alright, not as extensive as most other places that includes breakfast but nice to not have to adventure out for it. More</t>
   </si>
   <si>
+    <t>AndyJM63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r403409930-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -549,6 +615,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r395772871-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -567,6 +636,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>amehta71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r395259926-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -580,6 +652,9 @@
   </si>
   <si>
     <t>This hotel is one of my favorite Comfort Inn I stayed at. This hotel has everything you need. The staff were very nice and the breakfast was awesome. I was with my family of 5 and had 2 rooms and the manager made sure we were satisfied. Overall this is an excellent property.</t>
+  </si>
+  <si>
+    <t>landiiiks</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r388313432-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
@@ -609,6 +684,9 @@
 The parking garage does have cars parked two deep when necessary, but that wasn't a problem either.  I just made it a point to check about 10 minutes before I wanted to leave, and the only time someone was parked in front of me I just asked at the desk to have it...I was very pleased with this hotel.  Huge room, large bathroom, very clean, very nice bedding and comfortable bed.  Everything you need in a hotel room, especially for the price.  I read all the reviews ahead of time and was aware of the "cons," but none of them turned out to be a big deal at all.  First, yes, there is construction in front of the hotel that means you can't turn directly into it from the other side of the street.  But I quickly realized that I could turn into the grocery store parking lot, come out on the far side of it and be able to turn left at the light and right into the hotel.  So it was no big deal.  The neighborhood certainly wasn't upscale, but not too bad either and I really don't care about a view.  The hotel's location is such that you will want a car to get to places anyway, so that also makes the neighborhood somewhat irrelevant.  At night the door to the elevator which led to the rooms was locked and required a room card to enter.  The parking garage does have cars parked two deep when necessary, but that wasn't a problem either.  I just made it a point to check about 10 minutes before I wanted to leave, and the only time someone was parked in front of me I just asked at the desk to have it moved and within five minutes it had been.  I was very glad to have a parking garage, and a free one at that, so the "double parking" didn't bother me at all.  The pool was small and sort of strangely located across from the lobby, but it was fine for my grandson and was refreshing after a day of sightseeing.  It was clean and towels were provided.I was also pleased with the location - fairly close to the highway, not far from Universal, Warner Bros, and even Hollywood, etc.  You do need to understand that nothing is in walking distance, but Universal was only about a 10 minute drive.  The highway was about 5 minutes away.  There were several good restaurants just down Lankershim also.  The breakfast at the hotel was very good and varied.  The staff was very pleasant and helpful.  I had no problem with the free wifi.So I have only positive things to say about this hotel.  We had a very pleasant stay and there was nothing negative about our experience there.  I would highly recommend it, especially for the price and relative proximity to many attractions/areas of town.More</t>
   </si>
   <si>
+    <t>Taylor T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r352599317-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -624,6 +702,9 @@
     <t>This hotel was clean, the rooms have all had a makeover which was a very nice surprise.Yes, this hotel is situated in a rather "seedy" part of town, but I had no issues with the locals, just don't walk around waving your wallet.There is a "Superior" grocery store opposite which seemed to be alright, nothing too fancy, mind.Wifi is good and relatively reliable as well, rooms come with an iron and board, flat screen tv, desk area, microwave and fridge.Only negative experience I had was where I was given a room that stated there were two beds, only to find that there was one bed and one sofa bed.</t>
   </si>
   <si>
+    <t>J H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r349825743-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -642,6 +723,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Travel_Critic83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r326254102-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -663,6 +747,9 @@
     <t>This hotel is great!!!  It is modern, clean, offers free continental breakfast and free parking.  It is also close to sites like Universal Studios and Warner Brothers.  The room we were assigned to seemed like it was new and the bathroom was very large.  The front desk staff were also very courteous.  The only downfall was the parking situation because the lot is so small.  Vehicles are parked behind one another and guests are required to provide their car keys to the front desk if they are blocking anyone in.  Fortunately, we didn’t run into a situation where we blocked another car in, and so we never had to give our keys to a representative at the front desk.More</t>
   </si>
   <si>
+    <t>joshalden</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r324973026-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -681,6 +768,9 @@
     <t>We stayed here as a last minute addition to our trip to Disneyland. My daughter wanted to take the kids to Universal Studios. I couldn't wait to get to Disneyland but I didn't want to leave this hotel! I am VERY aware of cleanliness when I stay at hotels. I always find the one hair, or the trash behind the nightstand that the housekeeper missed. This place was SPOTLESSLY CLEAN! The rooms were spacious and had a very comfortable feel. The staff was courteous and the complimentary breakfast was better than average for a lobby breakfast. We only stayed one night, but I will definitely book here again when we return.More</t>
   </si>
   <si>
+    <t>AAASparky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r321731448-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -699,6 +789,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Gabriela G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r308628903-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -729,6 +822,9 @@
     <t>U must have a car since is far from everything. I had a walk to Dennis to have breakfast and it was a long walk. There is a small indoor pool that only kids would have fun. I arrived on time but I had to wait about 40 minutes for the room be ready ( I was at 3pm check in time). The housekeepers did a good job though (august 7th 2014). If you are not a smoking person, please don't get a smoking room! It smells is not enjoyable. I really liked the room since has a lot of space. It is fair for the price.More</t>
   </si>
   <si>
+    <t>Paula F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r302081706-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -750,6 +846,9 @@
     <t>When a co-worker's daughter received a scholarship to Millennium Dance Studio, a total of 5 of us decided to got for the week.  We found this hotel through the Millennium website.  It was very convenient to the Bob Hope Airport.  It was right on the bus line to go down the street to Millennium.  We had a room with a pull-out sofa bed and the 5 of us were comfortable.  The staff was super helpful.  Due to the time change, I was waking very early everyday.  I would take reading material and go sit by the pool.  When Charles (morning desk clerk) saw me, he would unlock the breakfast room early and invite me to go get coffee.  There is a very nice breakfast room with a good selection.  We did lots of sightseeing.  I would plan our daytrips on the hotel computer and then print out directions (making sure to avoid highways).  I found it very easy to drive around.  We went to Disneyland, Santa Monica Pier, an event for the LA Film Festival, The Farmer's Market, and hiked the canyon to the Hollywood Sign.  We had a great week and would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Rfjgvkls</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r298509801-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -768,6 +867,9 @@
     <t>Good place to stay very clean and breakfast was awesome! Parking was a little weird but I didn't have a problem since I have a suburban nobody parked behind me. Because their parking space is small, cars park behind an other car but like I said it wasn't a problem. For breakfast they have it all it was delicious.More</t>
   </si>
   <si>
+    <t>James B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r291622097-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -786,6 +888,9 @@
     <t>I had booked this hotel on booking. com   and found a cheaper rate or a better room on the Comfort Inn and Suites web site.  I cancelled the Booking. com Reservation and them booked he better room and cheaper rate on the Comfort Inn and Suites website.   Arrived at the hotel   only to find that the manager had cancelled my new reservation, and was told by the extremely rude desk jockey that I was out of luck.  He told me that all the rooms were booked....The Entire parking structure was empty except for my car.     No effort was made to get me a room anywhere, I was stuck with no room for the night.  I had even called the hotel the night prior to my arrival to make sure my reservation included a refrigerator.   I missed my concert at the Hollywood Bowl because I could not get a room for the night anywhere...had   the worst experience ever at this hotel....I will NEVER STAY WITH THE CHOICE HOTEL CHAIN AGAIN.    TOTALLY RUINED MY DAY.   STAY AWAY FROM HERE...IT IS IN A TERRIBLE AREAMore</t>
   </si>
   <si>
+    <t>Dawson J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r287683090-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -813,6 +918,9 @@
     <t>This hotel is great and has a wonderful staff. However when we went they were painting the halls so the fans were noisy and at midnight we heard a drunk woman shouting in the hall and banging on doors. Kinda sketchy, probably because on the news in the breakfast room the next morning we saw that there was a 3 man murder 2 miles way from us. Overall, great for the price but just a little sketcy.More</t>
   </si>
   <si>
+    <t>174Gracie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r285827101-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -831,6 +939,9 @@
     <t>I've chosen this hotel because of it's location and price. We went to Universal Studio for 2 days. Staff are very friendly. The pool is located in an enclosed area. There's a parking area for clients, Wi-Fi is free. Continental breakfast is good, they have scrambled eggs and bacon. They also have a waffle maker but it would have been better if they have two so the line wouldn't be longer. It could be crowded early in the morning. We have a fridge, coffeemaker and a microwave in our room. Overall, it was a nice, pleasant stay.More</t>
   </si>
   <si>
+    <t>sguidi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r257889714-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -856,6 +967,9 @@
   </si>
   <si>
     <t>We booked this for one night stay because it was close to TPIR. The hotel price was 100.00 per night and the location was great, but, we had to change rooms twice. The first room had holes in the drywall large enough for rats to come in. The second room the front door did not lock. The front desk was very nice but the hotel was not. The bed was clean so we stayed, but if we would of had small kids we would have left.I think next time I pay more!More</t>
+  </si>
+  <si>
+    <t>Fredrock</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r257839520-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
@@ -882,6 +996,9 @@
 Area is kinda sketchy, especially turning left from the hotel but better than staying on...I have stayed here twice.  First time was a 3 night stay in between Xmas and New Years 2014 and the Valentine Weekend 2015.  We love the place.  Front desk was very helpful, especially the night time attendant (I believe his name was Charles but I could be wrong.....he had a pony tail).  But he has one of the best customer service you can find.   It's a quite place.  We had the 3rd floor the first time and the 2nd floor the next stay.  One elevator but never was busy.  I can see vacationers from couples to families to girls night out in the Hollywood and Universal Studios area.  Parking can get weird.  We had to leave our keys one time because they would need to move your car if you park your card in back of another person.  Quiet room but like most place, there are people who are just loud and we had one guy talk loud on the phone but wasn't too bad.  Both times we had a king bed and a sofa bed.  My wife and I slept on the king bed and our 9 year old daughter slept on the sofa bed.  We did have a problem with the toilet the first time but they were able to fix when we went out to Universal (which is a short drive).  Area is kinda sketchy, especially turning left from the hotel but better than staying on the strip in Hollywood.  Many places to eat if you turn right from the hotel.  There is also a grocery store across the street, a Dollartree as well and a CVS a minute drive from the place. The pool is small so if you wanted to have a place to stay with a nice pool I would recommend the Sportsmen's Lodge instead.  So next time we come to Hollywood and just need a nice clean place to stay we'll come back here.More</t>
   </si>
   <si>
+    <t>jgc95</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r253133620-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -906,6 +1023,9 @@
     <t>This hotel is in excellent shape! Everything crisp and new! Great breakfast. More than adequate parking for L.A. Staff was friendly and helpful especially Alam and the 7-3 first shift desk clerks.We will definitely recommend the hotel to other persons we know travelling thru Burbank/ Los Angeles. Thanks. Other hotels could learn from how youre doing business!More</t>
   </si>
   <si>
+    <t>Brad H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r240241486-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -933,6 +1053,9 @@
     <t>The mid level hotels in LA are usually in worse shape than newer ones in a suburban setting. This one is crammed between an auto shop and welding place and then you have your usual big city homeless and traffic right outside the door. Some contruction also, but it wasn't a huge issue. The staff was nice and upgraded me and also let me check out a bit later than 11AM. THe parking is tight and there are some rules regarding parking you should be aware of, but the beds were standard and cozy, but I never quite figured out the bizarre TV channel situation. Despite getting a channel guide, I never found HBO or any sports channels. It is about 15 minutes from Universal and 20 from Griffith park, so the location is great and it was a nice onbe night stay in the urban jungle.More</t>
   </si>
   <si>
+    <t>Lyka S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r237815137-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -951,6 +1074,9 @@
     <t>If you are tight on budget but wants to stay in a very fine motel, ill recommend this place. Its not that expensive and just 12 mins away from universal studios. We rented a family room. They carried 1 master bed and 2 queen bed. 8 of us came here and we requested an extra rollover bed. Clean was so neat and so organize. Who ever clean that room at that moment was obviously did a great job, meaning to say that not all the time, rooms are messy and dirty.its just depends on the housekeeper. Queen beds are comfy, i saw a lil stain but not big deal FOR ME coz it looks like a non removable stain. All lights are working. Both tv are workin except there is only 1 remote control. Bathroom both in good condition. The funny part about it is there is no tissue dispenser. Tissues are sitting just on top of toilet. Also those towels are hangin on top of bowl, i wonder if i pull one, all will fall straight to bowl  haha. (Yuck). Mirror are so big.... horizontally. Meaning its useless coz u cant see your whole body in it. Iron is working, microwave, mini ref, coffee maker and hair blow dryer are all in good condition. The only thing i dont like is there is only 1 exit door for family room.  Hey there is a swimmin pool, the deepest part...If you are tight on budget but wants to stay in a very fine motel, ill recommend this place. Its not that expensive and just 12 mins away from universal studios. We rented a family room. They carried 1 master bed and 2 queen bed. 8 of us came here and we requested an extra rollover bed. Clean was so neat and so organize. Who ever clean that room at that moment was obviously did a great job, meaning to say that not all the time, rooms are messy and dirty.its just depends on the housekeeper. Queen beds are comfy, i saw a lil stain but not big deal FOR ME coz it looks like a non removable stain. All lights are working. Both tv are workin except there is only 1 remote control. Bathroom both in good condition. The funny part about it is there is no tissue dispenser. Tissues are sitting just on top of toilet. Also those towels are hangin on top of bowl, i wonder if i pull one, all will fall straight to bowl  haha. (Yuck). Mirror are so big.... horizontally. Meaning its useless coz u cant see your whole body in it. Iron is working, microwave, mini ref, coffee maker and hair blow dryer are all in good condition. The only thing i dont like is there is only 1 exit door for family room.  Hey there is a swimmin pool, the deepest part is 4&amp; 1/2.  Lol. And not that big pool and water is kinda dirty, idk id its bcoz of the rain or its just dirty. Parking is under the building and not outside which is good for any weather except at night, it will b full and some parking space required to have atleast 2 cars in 1 spot first car will pull forward), well i dont mind coz we got 12 passengers van so we occupied both space hehe. Breakfast are awesome. Theres variety of fresh foods and drinks and thanks for that. Overall, i feel so comfy sleeping here for cheap price. If u are so picky but practical like me, ill take this place. More</t>
   </si>
   <si>
+    <t>Markloveshaggis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r233803156-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -973,6 +1099,9 @@
   </si>
   <si>
     <t>Prior reviews show that significant renovations have been underway.  Those continue.  Each day (we stayed 5 nights) something new showed up in our room; lamps, lamp shades, tables.  It was quite fun to see what was added each day.  Staff was very attentive and helpful.  Hotel was clean and convenient to where I wanted to be.  Breakfast was plentiful and tasty.  The only negatives were:  New TVs had been installed but only local stations were available.  Also, all of the debris (carpet, old lamps, etc) from our remodeled room had been thrown out of the window on the ledge.  If coming to N. Hollywood again, I would consider this hotel.More</t>
+  </si>
+  <si>
+    <t>momto5ls</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r218331142-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
@@ -1008,6 +1137,9 @@
 I would not recommend this hotel for a family, just because I didn't feel the accommodations were very convenient for a mom caring for...I love Comfort Inn and Suites...but this one was surprisingly disappointing.  The staff was nice and helpful, but the experience was less than nice.  The main entrance to the rooms is through the parking garage, not the lobby - different.  The room did not have the expected sink area outside the bathroom.  We were traveling for a funeral and had 6 people who needed to get ready in the bathroom...and the coffee maker and only sink was in the bathroom.  That was the only access to water and a counter (!?!).  We had an odd situation where we made our reservation the day we stayed.  We were checked in at the desk and given directions to our room.  When we arrived at the room there was luggage from another guest already in that room...awkward!  The person at the desk was very apologetic, but it took a while to get it straightened out and the luggage moved.  Evidently the staff was supposed to move the luggage earlier in the day. We were tired and had been driving all night.  It really was an inconvenience we could have done without.Because we had to book the hotel the day we stayed, I also felt that we ended up paying too much.  That was especially disappointing with the experience.I would not recommend this hotel for a family, just because I didn't feel the accommodations were very convenient for a mom caring for children.  The beds were comfortable, the room was clean and we didn't hear the noise outside.  Breakfast was OK.More</t>
   </si>
   <si>
+    <t>Rob D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r212093980-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1041,6 +1173,9 @@
 The hotel is...We had 3 rooms during our 2-day stay.  The first room's door key swiper did not work (203), so we had to move all of our stuff to a new room (206).  We had a bad sleep in that room, because it was right next to the elevator and ice machine (quite noisy all night).  The next morning, we requested another room and was upgraded to a jacuzzi room (207).  That room was very large, but not worth the price we would have paid if not getting a free upgrade.  The furniture had scratches and stains, the carpet had paint spilled on it.  The floor was dirty (didn't look like it was vacuumed).  The room had a paint smell in it.Another problem we had was the stairway next to the office was closed for painting.  We were told it would only be closed for the night and to use the other stairway at the other end of the hotel, away from the office and entrance.  That stairway was full of trash and painting supplies.  These stairways are suppose to be used as emergency evacuation routes in case of a fire or other emergency.  Having the stairway full of trash is a safety hazard.  The stairway next to the office was not opened during our stay.  They said after a coat of primer, they had to do a coat of paint.  The smell was throughout the hotel.The hotel is not in the best side of town.  The view from our window on one side of the hotel was an automotive garage and on the other side was the store next door.  There was a couple fast food restaurants close by, they were dirty and not up to standards.Also, we have a service dog.  When we arrived I told the desk clerk about our dog.  Thy asked for documentation, which I provided and they copied to put in our record.  Every time we took our dog past the office we would get stopped and told "no pets allowed in this hotel!"  We had to explain 4 times that she was a service dog and to check our records. We use Choice hotels all the time and this one did not meet up with their standards.   We paid over $300.00 for a 2-night stay.  Not worth the high price.  We will not use this hotel again.More</t>
   </si>
   <si>
+    <t>gratefulgrandma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r211596458-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1059,6 +1194,9 @@
     <t>We stayed at Comfort Inn &amp; Suites for our entire 4 day trip with our grandkids and daughter. The reviews were good on this one so we decided to stay. We had 3 adults and 3 children so the two queen beds and sofa bed suited our needs and kept our costs down. The room was very spacious as was the bathroom. Everything was clean and we had everything we needed. The gentleman manning the laundry area in the parking structure was quite pleasant and gave me extra towels, washcloths, and coffee when I asked. The breakfast area was large (only one waffle iron though) and was well stocked. The pool was very small, but the kids did get to swim for a short time after we returned from Universal.  The area was just getting into the unsavory part of town, but was still okay.  To get into the elevator, you had to have a key so that was an added measure of safety.All in all a good value with everyone getting breakfast as well.More</t>
   </si>
   <si>
+    <t>Jim W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r202119593-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1086,6 +1224,9 @@
     <t>My wife and I found this property very convenient and met our needs very well.  It was a very typical Comfort Inn in terms of offerings and amenities.  It's located in a commercial section of the upper end of what is called No Ho.  There is an obvious attempt to give the area a safer, upscale look and feel.  It does mean there are restaurants nearby, but I would say they still have some work to do.  The outside door to the elevator was locked requiring a room key for access.  There is covered parking, but many places are double meaning you are going to get blocked in and have to go to the front desk to have a car moved.  Staff was friendly and helpful.  Our king bed room was clean, had reasonable room, but the large bathroom had a strange lighting and electrical outlet arrangement.  There was no direct  light over the sink, nor any outlets near it.  Don't know if that was a standard arrangement or not.  There also was no screen over our second floor window.  Mattress was comfortable.  Room was quiet.  We would stay here again.More</t>
   </si>
   <si>
+    <t>Daniel H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r195405767-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1107,6 +1248,9 @@
     <t>As a rule I sanitize the light switches, remotes and table top surfaces in hotel rooms.  I usually use the wipes on these areas.  Usually you come across a little dirt here and there, not at this hotel.  My wipes were as clean and as white...as if they weren't even used.  The room was large and quite clean.  The breakfast had enough choices for everyone.  They have free parking.  The staff is very polite and accommodating.  There is a grocery store across the street.  The rooms offer plenty of outlets and free WiFi.  The hotel is located between Burbank Airport and Los Angeles, central to everything.  I will be staying here again.  Can't recommend enough.More</t>
   </si>
   <si>
+    <t>AJJ70</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r193308791-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1132,6 +1276,9 @@
   </si>
   <si>
     <t>We visited Los Angeles mainly for the Universal Studios. We searched at other hotels near Universal but couldn't find one that would cater to a big family for a lesser value. So, we stayed at this hotel, for 3 nights. Our family occupied 3 rooms, one is adjoining the other and another separate room. Four of us stayed in the adjoining room, and it was spacious. The room had a fridge and a coffeemaker, which are a treat nowadays when we compare it to standard rooms in other hotels. The staff were courteous. We requested for additional bathroom items and they gave it to us, at no extra charge. Breakfast was included in the package, and it was convenient. Continental buffet breakfast, though not overflowing, was enough to fill our tummies before we went out to explore LA. Our big family really enjoyed our stay at this hotel.More</t>
+  </si>
+  <si>
+    <t>LMicheleS</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r179991946-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
@@ -1163,6 +1310,9 @@
 I would HIGHLY recommend this hotel for budget conscious travelers. You also have restaurants, fast food, a dollar store for those supplies you've forgotten, and a cheap super market just across the...I was in town on business for 3 weeks - the first 2 I was staying at a terrible hotel in Glendale (see other reviews I've written), and switched to this one for my last week. I truly wish I would have booked here from the get-go.Clean and spacious rooms. I made good use of the mini fridge and microwave during my stay - thank you - helped me eat healthier! The Wi-Fi was rockin'. Excellent, consistent connection, which is very important to business travelers especially.  The free breakfast was very good too - I only wish they started serving it at 630 instead of 7AM.Parking can be tough here, but they make the best of it with what little space they have. If they are full, be prepared to give the front desk your keys as they have to stack park when they are sold out.After reading prior reviews, I was worried about noise. I didn't really hear much of my neighbors, only when they walked by down the hallway being obnoxious. One morning I was awakened at 3AM by someone upstairs stomping around continuously for about a half an hour. I'm assuming they had an early flight??  Other than that, it was great.I would HIGHLY recommend this hotel for budget conscious travelers. You also have restaurants, fast food, a dollar store for those supplies you've forgotten, and a cheap super market just across the street.More</t>
   </si>
   <si>
+    <t>Snowbird888</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r175046103-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1184,6 +1334,9 @@
     <t>We have a very spacious room with enough room for 2 comfy beds and a sofa bed.  The wifi works fine even with 4 connections from this room alone. The breakfast was quite good, with good varieties and enough tables - up the the Comfort Inn standard. However, there are quite a few areas fall below what we expect from a Comfort Inn. As most readers have pointed out the lack of enough parking area that cars will be forced to double parked or parked in undesignated spots. It is quite awkward that the hotel lobby is not connected to the elevator area - which is accessible through another outside door. The elevator does not have any ventilation and is very hot; so is the inside corridor which has an ice maker that pumps hot air back to the corridor. The hotel building is showing its age, and a major upgrade is certainly warrented. The air conditioner takes the whole day to cool down the room; the microwave oven and the mini-fridge seem to work fine - however the fridge also makes some annoying noise. Even though all these are quite minor problems, one would normally expect more if he/she is to pay the price of a Comfort Inn.More</t>
   </si>
   <si>
+    <t>frank v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r171115852-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1205,6 +1358,9 @@
     <t>Hotel is very close to Universal Studios, about a 10 min drive (no highway). My family and I just found too many negatives during our stay. We ended up getting the large suite room for 3 nights. At first we were lied to about our rooms being ready. We called after 3pm and were told that our room was specifically ready. We get there at 3:20 and low and behold, room isn't ready and wouldn't be for an hour. Needless to say, we didn't get to our room till close to 5pm. I am not sure what they did, but the room just seemed dirty (we couldn't get another room, given the other suite was taken). The free breakfast was really bad, I found a dead fly in the bread container and the lady cleaned it up as if nothing had happened, she didn't even remove the bread that the fly was touching. The food tasted processed, the eggs especially were just awful. Parking was horrible and the overall attendants just didn't seem to care...  for the price we paid, I was expecting a better overall experience...More</t>
   </si>
   <si>
+    <t>NTabkum</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r164856352-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1226,6 +1382,9 @@
     <t>I had to stay at this hotel twice this past month because it was closed to the work location. Parking was a mess...never enough for the hotel guest. To make the matter worst, the attendent has poor manner (like yelling at the hotel guest). It was like going to a third world country. And it is not cheap compare to other hotel.  Also During checked it, I presented my Choice Privilege card so I would get rewards point. When I checked out, my reward number was never enter for me. I had to check both time I stayed here and both time it was blank.More</t>
   </si>
   <si>
+    <t>k4jdp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r164085257-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1247,6 +1406,9 @@
     <t>Stayed here recently to go a taping of The Tonight Show with Jay Leno. Surprisingly a well kept property.  The neighborhood is somewhat seedy.  The pool was rather small, we didn't use it though due to easy access to the property from outside.  Housekeeping was very helpful and the suite was very clean throughout.More</t>
   </si>
   <si>
+    <t>klmcfarland1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r163998713-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1265,6 +1427,9 @@
     <t>Our family of six needed two rooms and I found this hotel to be affordable.  One room had a king bed and sofa sleeper with a refrigerator, microwave, table and chairs.  The other room was just two queen beds.  I wish it had a refrigerator in it.  Both rooms were clean.  The breakfast was great and included make your own waffles, eggs, sausage or bacon, cereal, bagels, yogart, milk, juice, fruit.  I didn't think the staff was very friendly, but they were competent.  They only allow one car per room because parking is limited.  We got there late and had to park behind someone else and leave our keys in the office.  Not ideal, but it wasn't really a problem.  The location is great for Universal Studios.  I didn't hear any noise from other guests or outside.  My only complaint was that there was no laundry facilities on site.  There is a laundry close by, but the area isn't the greatest so my husband wouldn't let me go alone.  I would stay there again.More</t>
   </si>
   <si>
+    <t>KLE1963</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r159925608-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1280,6 +1445,9 @@
     <t>The hotel was fine.  The parking was difficult, with some spaces dedicated to compact cars.  The room was clean and a very good value.   The staff was helpful, but some were not very friendly.  The location was centrally located which was ideal for what we needed.</t>
   </si>
   <si>
+    <t>Laura S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r156894066-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1296,6 +1464,9 @@
   </si>
   <si>
     <t>We stayed 4 nights over Easter Weekend. Staff was friendly and Helpful . We arrived very late at night (close to midnight) and There was a man in the parking area that told us exactly what to do and the front desk gentleman was awake , friendly and helpful . Nice big room with a King Bed and a double sofa sleeper. Room was clean and comfortable. Has some minor issues , peeling wallpaper in the bathroom and some small holes in the blanket . But room was clean . Wifi worked well. Breakfast plentiful and Hot . Room was cleaned daily and staff was helpful . Microwave , Refrigerator and a small coffee maker in the room was wonderful for us . We would stay again and recommend to others . Neighborhood was ok . Close to freeways, Universal Studios (10 minutes ) Hollywood Blvd and restaurants and shopping.More</t>
+  </si>
+  <si>
+    <t>mhansencmc</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r156493943-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
@@ -1320,6 +1491,9 @@
 So, hotel is good location,...We stayed 5 nights for Spring Break.  Big Room, with fridge and microwave.  Wi-fi was good. Breakfast standard options, waffles, Eggs, breakfast meats, pastries, etc.  Room wasn't totally clean on arrival day (nothing major to worry about)  but each day's housekeeping was good.  Parking was a bit weird at first glance.  It is on ground level with hotel above it. It is small and sometimes you have to double park behind someone but on the nights that happened, which was only 2 nights for us, there was an employee to help us park and the morning departure was never an issue.  The tiny pool looks bigger on their website than it is.  It is at the entrance to the parking garage and totally enclosed except for being open air on top.   We did not use it due to cold temps for time of year. Being on  Lankershim Blvd turned out to be very handy as you can take it to many spots including Universal Studios, easily without getting on freeway and the Blvd was not that busy. We traveled Lankershim to get to Hollywood Blvd, the Grove/Farmers Market, all on surface roads which worked out great for us and less stressful than freeways for me.  It was easy to get on freeway as well.  BTW, if you are getting on I-405 during any morning hours, plan 3 x's the time you need to get somewhere!So, hotel is good location, grocery across street, a few fast food places right there, felt safe, friendly staff, just north of the NOHO arts district, free parking and generally good value.  Not fancy but comfortable with the amenitites I wanted.More</t>
   </si>
   <si>
+    <t>princesa93</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r149991201-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1338,6 +1512,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Brion B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r142924124-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1356,6 +1533,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Snowbear007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r142525339-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1374,6 +1554,9 @@
     <t>Stayed here overnight during our visit to Halloween Horror Nights at Universal Studios. We booked two rooms and they were straight across from each other. The price was right comparing to other hotels we have stayed at in the area. Check in was smooth and the man that helped us was very friendly. The rooms were also very nice and they had a free breakfast that looked like it had a nice variety. The location to Universal Studios was great we just drove straight down Lankershim and turned left up the hill to the park and City Walk. When we returned late in the evening there was a parking attendant that let us in. The pool and pool area are small and in the shade a bit if that is important for your stay; otherwise this was a good hotel and experience.More</t>
   </si>
   <si>
+    <t>sweetcaroline1976</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r137477195-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1395,6 +1578,9 @@
     <t>This hotel is located in a bad neighborhood.  Arrived in the room, went to wash my hands in the bathroom, and found dead ants in the sink.  As I wondered about that, I layed down on the bed, where I found ants crawling all over the comforters!  Then I inspected the sheets, which had burns, ink or what-not stains, and HAIRS as if the sheets had not been changed! I complained and they offered to spray the room for ants (yikes, my kids!!) and finally they "upgraded" the room for us.  Those issues were gone, but the whole hotel reeks of old cheap cigarrettes, and the breakfast was stale and awful.  Did not appreciate finding a roach in the bathroom adjacent to the breakfast room on our way out either.  Stay away!More</t>
   </si>
   <si>
+    <t>libertylovers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r136264934-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1416,6 +1602,9 @@
     <t>While this hotel does boast free parking, their parking lot is so small, the cars have to be double parked. They say they have an attendant who will assist with parking. But they are never at their post. While the room was OK overall- There was just a lot of little things that added up for an overall poor hotel stay. There was only one highchair in the breakfast room and it was always being used by other families. The pool was very small as well. We also had a discrepancy with our hotel reservation over the room coming with a fridge. The evening front desk employee was always less than friendly as well. The only time I was properly helped, was when checking out. The neighborhood is less than desirable. I would definitely stay closer to Universal Studios if we were to go again. The entrance to the actual hotel was very strange. You can't get up to the rooms without walking out into the parking structure. The lobby and the hotel aren't connected. Very strange and it feels slightly unsafe. The bed was also very hard! It seems like the hotel was updated recently, but very poorly. There was "Ok" Written outside the door on the walls. We were going to stay a third day, but for the price, completely not worth it.More</t>
   </si>
   <si>
+    <t>Anna2007_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r135391715-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1431,6 +1620,9 @@
     <t>Excellent room service, good location and friendly staff! The breakfast was good and our overall experience was very positive. I would highly recommend this hotel to anybody visiting LA. We were 10 minutes away from universal studios and Chinese theatre. There were a lot of small restaurants and fast food places near the hotel. The room had a microwave and a fridge, as well as a couch.</t>
   </si>
   <si>
+    <t>Anthony S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r129133359-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1452,6 +1644,9 @@
     <t>We stayed here for 2 when first arriving in LA after traveling to Las Vegas and San Francisco we re booked our last 4 days in LA here, they gave us a good deal before we left if we returned and I got upgraded to a junior suite leaving my daughter and boyfriend in the standard room (thats the breaks being the children Haha!!).Staff were very polite and friendly, car parking secure, location a mile from Highway 1 giving access to all of LA and a short drive to Universal and The Grove Shopping Centre (a must visit place).Some OK restaurants down the road (a but a car ride) shops opposite cater for essential needs and there is a Burger King and crappy looking Chinese, there a really good Chinese restaurant/take away about 1/4 mile down Lankershim on the opposite side by a MexicanThe rooms were very clean and pleasant for the price.The pool is a bit of a waste of space.Breakfast was adequate for free with plenty of nice fruit and good coffee.More</t>
   </si>
   <si>
+    <t>windowashgirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r127475442-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1467,6 +1662,9 @@
     <t>Kayak didn't transmit my reservation (ie the fact I paid) but the gentleman at the desk helped get that straightened out.   They got me a room and it was very nice.   Rooms are large as is the bathroom.   They are very clean as is the whole hotel.   All the staff I met were very polite.   TVs could be modernized the one in my room has picture issues.  But that would be my only complaint.   I stayed there the night before running the Hollywood Half Marathon on a Friday night.   The hotel is quiet the neighborhood was quiet.</t>
   </si>
   <si>
+    <t>azblueagave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r126707610-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1488,6 +1686,9 @@
     <t>We stayed here for 3 nights while we visited Universal Studios and Magic Mountain.   The hotel is very clean and new feeling.   The service was fine and the free breakfasts were decent-each morning there was your standard donuts, bagels, toast, dry cereal, coffee and juice.  In addition to that, each day there was a hot egg dish (one day scrambled eggs and twice "omelet things") and meat (bacon twice and sausage once).    There is also a waffle maker which we enjoyed.    The breakfast area was clean and they did a good job of keeping it stocked.Our beds were comfortable and the room was a nice size.   We didn't have any problems with loud neighbors- we were on the 3rd floor, so no one above us helped.There is a small, bare bones pool that our kids swam in once.   Not fancy, but clean.Free Wifi and free garage parking was also a plus.This certainly isn't a fancy place, but if you are looking for decent place to stay while visiting the area, I'd recommend it.More</t>
   </si>
   <si>
+    <t>Fredric C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r123003412-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1506,6 +1707,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>efband</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r122831670-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1527,6 +1731,9 @@
     <t>when you arrive and the desk person is asleep in the lobby.  Your instinct is confirmed when you receive your room key and it was from the Holiday Inn Express.  When you asked about the elevator and was told "it's outside, behind the lobby," it added another measure of discomfort, particularly when it was behind doors that are apparently locked in the nighttime hours.  Then you noticed the 'movie theatre' or 'bank tellers' window between the lobby and the elevator doors.  WOW, where am I?After driving 475 miles and being tired we decided to venture up to our 3rd floor room.  Large enough, but unlike other Comfort Suites (we had stayed at a Comfort Suites in Sacramento the night before- fine place), no Fridge or microwave and a carpet that may not have been cleaned in 20 years.  We dared not try the breakfast.Fortunately, we had not prepaid for our 5 nights so we escaped the next morning to a Marriott Suites in Burbank.   Are there worse places? Probably, but this is pretty far down the list.More</t>
   </si>
   <si>
+    <t>raffin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r121401208-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1545,6 +1752,9 @@
     <t>I have to admit that when I drove up to this hotel I was making a mental note of other hotels I had driven by  in case I needed to stay at them - I think I drove by three or four adult bookstores on the way from the Burbank Airport . . . most of the buildings nearby are not in good condition and the whole area is dingy . . .The lady that was supposed to check me in was a lot more interested in talking with her friends on the phone and took two fairly long phone calls during the 10 minutes I was standing in front of her . . . when she finished the last one I had to remind her that she was checking me in . . .That said, though, the hotel itself is fine for the one night stop over I am doing - but if you have a family or like to go out after dark this is probably not the place for you . . .More</t>
   </si>
   <si>
+    <t>jj_schmidt1946</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r120252447-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1563,6 +1773,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>mndawn63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r116969913-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1582,6 +1795,9 @@
   </si>
   <si>
     <t>This is one hotel I wouldn't return to.   The front desk staff are indfiferent.   They NEVER give you enough towels.  Even when you rent a suite room, they only leave you three towels.   All three nights we had to ask for more towels.   It isn't the cleanest and my son woke up with bed bug bites all over his back after sleeping on the pullout sofa.   If you have a problem at this hotel it takes a small miracle to get anyone to do anything about it.  The maid barged into the room in the morning while we were still there even though we told her we weren't ready for her---she barged in anyhow and just started cleaning.  Maybe she didn't speak english, I don't know.   Then when my husband went back to the room later to retrieve something we forgot...she didn't even look up from cleaning the bathroom.   Anyone could've walked in and stolen something because she didn't even look up when he walked in.   Don't stay here.  Find somewhere else to stay.More</t>
+  </si>
+  <si>
+    <t>Michael W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r116732757-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
@@ -1610,6 +1826,9 @@
 In the day, you see all kinds of people out. Single women at bus stops, moms with kids and strollers, etc. At night, you're not going to see so many people walking around, And because it's a major city, you obviously want to always be aware of your...My family stayed here for three nights in August. If you travel outside of rush hour, you'll be in central Los Angeles or West Hollywood in 20 minutes.It's a little bit off the beaten path, and in no way a "hip" area, and therein lies its character.Across the street there is a shopping plaza, and a large grocery  store that caters mostly to Mexican folks. I went in there several times for various things (including some tasty bakery treats)  and people there were friendly. There's a CVS pharmacy a couple blocks away, and the legendary In &amp; Out Burger is represented about four blocks south. Across the street is a Burger King and a McDonald's is abut 2 blocks north.Now, I read a review here were someone wrote they ate at the McDonald's and scurried back. Ummm, ok....this is not the kind of McDonald's you might visit in Ames, Iowa or some suburb where everything is squeaky clean. The neighborhood is working class, a bit gritty, perhaps, but if some reviewers think of the area as "ghetto", as one person wrote, I would say, dear sir, you are quite paranoid.In the day, you see all kinds of people out. Single women at bus stops, moms with kids and strollers, etc. At night, you're not going to see so many people walking around, And because it's a major city, you obviously want to always be aware of your surroundings.One of the great things about L.A. is the food trucks.  Every night, one parked at the shopping center across the street. My wife and two of our kids walked from the hotel to the truck a couple of times and came back with great tasting food that was cheap. I swear, I'd stay in this hotel again just to hit up that food truck every night. They had the best tacos I had in L.A. One night around 9 pm I had to walk to the CVS pharmacy a couple of blocks way. Would I want my wife to do that? No, of course not, but that's common sense. I walked it and didn't ever feel threatened. but I grew up in Chicago and I'm not going to think I'm in danger if I see a cigarette butt in the curb or see a homeless guy nodding off on a bus stop bench.Parking was never an issue. One reviewer wrote you had to leave your keys with the front desk or some kind of parking valet, but that wasn't my experience. I found the area quite interesting. it is not the glitzy L.A. of the Strip, or as cool as West Hollywood. Walking around the area in the morning, I found mostly small, modest homes of working class folks. There's no cool clubs or coffeeshops. In other words, the yuppies haven't got to it yet and it's authentic.The rooms were clean, spacious, a good spot to sleep for the night, or just put the TV on and zone out. No noise from the streets drifted in. Breakfast was a lot better than other similar hotels I have stayed in. Eggs, waffles, fruit, muffins, yogurt, juice, coffee...I'd suggest at night, go out to the pool area. Pull up a plastic chair, have a glass of wine and chill. Watch the neighborhood, the cars going by, the people coming away from the taco truck, the shoppers at Superior Grocers. This is a part of L.A. that most visitors don't see. It's a good value.More</t>
   </si>
   <si>
+    <t>TravelingMomAZ777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r114945942-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1631,6 +1850,9 @@
     <t>This was the WORST Comfort Inn we have ever stayed at.  This place was disgusting, dirty, the staff was RUDE.  When we got settled into our room we found that our phone was broken. Not enough towels.  The A/C blew warm/cold at best and the tiny TV worked only if you wanted to see black and white TV.There was not enough parking which we had to PAY EXTRA FOR.  The night we stayed there the manager rented out parking spaces for an event in L.A. so the space that we paid for got rented to someone else.  Nice huh?  Our car sat out in front of the hotel until the event was over and the manager parked it for us in the middle of the night.  DO NOT EVER STAY HERE.More</t>
   </si>
   <si>
+    <t>tintedviolet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r109162569-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1652,6 +1874,9 @@
     <t>We visit LA quite often and have stayed in many hotels over the years. This one rates near the top for sure. The room was very large and clean, as was the bathroom. The pillows were a little small, but that's a minor annoyance. The price was great. A big plus for us was the free parking, which is almost impossible to find at LA hotels.The location was very convenient for our purposes of Universal Studios and Hollywood. And I don't know what the heck people are talking about when they criticize the area/neighborhood. It's fine. We came back to the room at 2:30 AM and felt totally safe walking around. I'd take this area over a lot of the other big city areas we've visited.We'll definitely keep Comfort Inn in mind for future trips.More</t>
   </si>
   <si>
+    <t>FridaAmir</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r105675664-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1670,6 +1895,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>rce9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r75104217-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1686,6 +1914,9 @@
   </si>
   <si>
     <t>August 2010</t>
+  </si>
+  <si>
+    <t>gymath</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r74612189-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
@@ -1715,6 +1946,9 @@
 Booked for two nights.  Decided to stay a third night.  Neighbor hood....not great.  Parking was fine.  Attendant was on duty most of the time and would tell you where to park.  Yes, they do double park some cars.  We were never double parked during our three day stay.  Lobby was nice and had a computer for guests to use.  Breakfast area was really pretty with big windows.  The lady working the breakfast area really hussled and kept things full and clean.  Waffles were fun to make....felt bad hogging machine making four waffles for my family of four....another waffle maker would be helpful.  Basic foods, fruits, cereals, muffins, danish, toast, bagels, english muffins, hard boiled eggs, coffees, milk, juice, etc.  Elevator dropped you in the garage, you then walked five steps into a door that put you in the lobby and breakfast area.  Rooms and halls were nice.  On thing....we had a non-smoking room.....on our second  and third day I could smell smoke....like it was coming through the walls or something.  I didn't complain.  Bathroom was good sized.  Blow dryer.  Large counter.  Man at desk loaned us a cable to hook up to the internet in room. My husband said the man at the desk when we checked in on July 21st around 5 PM was extreemly nice and offered...This is a review forComfort Inn, 6147 Lankershim, North Hollwood, CaliforniaPayed $98 a night with AAA discount plus tax.Booked for two nights.  Decided to stay a third night.  Neighbor hood....not great.  Parking was fine.  Attendant was on duty most of the time and would tell you where to park.  Yes, they do double park some cars.  We were never double parked during our three day stay.  Lobby was nice and had a computer for guests to use.  Breakfast area was really pretty with big windows.  The lady working the breakfast area really hussled and kept things full and clean.  Waffles were fun to make....felt bad hogging machine making four waffles for my family of four....another waffle maker would be helpful.  Basic foods, fruits, cereals, muffins, danish, toast, bagels, english muffins, hard boiled eggs, coffees, milk, juice, etc.  Elevator dropped you in the garage, you then walked five steps into a door that put you in the lobby and breakfast area.  Rooms and halls were nice.  On thing....we had a non-smoking room.....on our second  and third day I could smell smoke....like it was coming through the walls or something.  I didn't complain.  Bathroom was good sized.  Blow dryer.  Large counter.  Man at desk loaned us a cable to hook up to the internet in room. My husband said the man at the desk when we checked in on July 21st around 5 PM was extreemly nice and offered any help we might need with directions and places to go see.  My husband was very impressed with the man.  I was in the car......I had a sick migrain and unfortunately was tossing my "cookies".  Across the street there was a grocery store.  Husband went there and got me some saltines and gingerale.  There was also a Burger King across the street and a McDonald's 1/4 mile up the road. We walked there one day for dinner....it was scary and we hurried back to the hotel.  Wouldn't walk the streets after dark....but felt very safe in the hotel.  Had an indoor pool that was very small...very small.  But, my 10 year old enjoyed it.  Beds were comfortable.  Drove up to Six Flags one day.  About 40 minutes...beautiful drive.  Another day we went to Universal Studios, about 8-10 minutes away.  Also a 10 minutes drive down to Hollywood Blvd for sight seeing.  We felt the location was perfect for what we wanted to see and do.  I would stay here again and would recommend it to you!  We had a really good stay at this Comfort Inn.More</t>
   </si>
   <si>
+    <t>olliemolly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r74514675-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1730,6 +1964,9 @@
     <t>We were a family of 5 and able to book one room - spacious and comfortable bed, sofabed and rollaway. Stayed 3 nights and it worked perfectly. Internet (free) connection good, breakfast standard but plentiful. Service fine. Outdoor pool not tried but didn't look that appealing. Close to Universal Studios (about 5 miles away, an easy drive). But otherwise location quite isolated and we didn't find any decent restaurants close to the hotel.</t>
   </si>
   <si>
+    <t>Lozzapies</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r59299365-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1748,6 +1985,9 @@
     <t>September 2009</t>
   </si>
   <si>
+    <t>NashvilleBarry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r56525845-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1766,6 +2006,9 @@
     <t>February 2010</t>
   </si>
   <si>
+    <t>Rhea1983</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r55606434-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1787,6 +2030,9 @@
     <t>We chose this motel for its closeness to Universal Studios. Universal is NOT walking distance but close enough by car. The motel room was dated but nice. The linen and towels were clean, however I didn't like that the coffee machine was in the bathroom. The windows opened (which is always nice, despite the view into the car repair store next door). We stayed in a room with two queen beds (there were four of us) and it was comfortable. The staff were extrememly friendly; the breakfast was great (bagels, waffles, cereals, fresh fruit and boiled eggs); free parking. The WiFi was bad but there was free computer use, internet and printing in the main reception lobby. Great amenities and service for the price. Definately recommend.More</t>
   </si>
   <si>
+    <t>Upstate_Gator</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r38424426-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1805,6 +2051,9 @@
     <t>August 2009</t>
   </si>
   <si>
+    <t>CIVOG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r33957586-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1823,6 +2072,9 @@
     <t>June 2009</t>
   </si>
   <si>
+    <t>Kebud</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r27779438-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1844,6 +2096,9 @@
     <t>I've always had good experiences with Comfort Hotels and this property is no exception.  Overall, the place is nice.  Nice large rooms.  Clean.  Fluffy bed and pillows.  New linens.  Big clean bathroom.  We had a King suite which comes with a sleeper sofa, fridge and microwave.   Breakfast room was nice.  Zenny, the Filipina attendant was there for several mornings and looked after us very well.  Maraming salamat po Zenny!  The whole staff was friendly and helpful.  The location is okay.  Nothing stellar, so actually the Comfort Hotel is a bit of an oasis in an otherwise regulat neighborhood.   Parking is all fully covered and there is a fulltime attendant.  Univeral Studios is actually 3.9 miles away...so not exactly down the road, but overall convenient to the freeways and for all access to SoCal.More</t>
   </si>
   <si>
+    <t>babygirl96</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r22767890-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1863,6 +2118,9 @@
   </si>
   <si>
     <t>Well I took my 7 year old to universal studios for her birthday me and a girl friend, we made it a road trip, we got to the hotel at 9:00pm after a long day at universal studios (with 2 kids) the clerk was very nice (lobby was nice ) room was big, bathroom was huge and very nice we both had forgot toothpaste and called down and the front desk gave us a trial size for free.Bed was very comfortable and we had lots of pillows.Breakfast was very good waffles &amp; eggs &amp; cereal &amp; bagels and Danish coffee and juice it was very good.We did not use pool and did not look like any one had but they still had someone cleaning the pool.Hotel was very nice and ok location we had no problems and I am very picky.Will be back next year!More</t>
+  </si>
+  <si>
+    <t>Humboldtus</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r20357752-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
@@ -1887,6 +2145,9 @@
 The neighborhood felt safe to us.  I don't know how some posters here define safe, but there are far worse neighborhoods in Hollywood and I have stayed in much less safer-feeling areas before.  I only saw one instance of what I assume was crime-related (one evening, a helicopter flying...Okay first lets get the negative comments out of the way.  For the price, the hotel should have had a microwave and/or refrigerator.  Their pool (which we did not use) is located in an unusual place to say the least.  Our window did not have a screen.  We asked the clerk if it was safe to leave it open at night and he said he would not recommend it because *theoretically"* someone could climb up or down to the overhang and well, you get the idea.Having said that, the hotel was great for the price--many places in LA worth more than this one are dumps, and almost all under $100 seem to be.  The staff was very helpful (a couple were not all that helpful but tried to be), and the room was nice.  Their free computer with internet access in the lobby area was a bonus (kind of slow, but how many motels even offer this service); I used it a few times for information.  We had no parking issues as some have raised.  Perhaps we were there at a slow week but there were plenty of spaces available.  The neighborhood felt safe to us.  I don't know how some posters here define safe, but there are far worse neighborhoods in Hollywood and I have stayed in much less safer-feeling areas before.  I only saw one instance of what I assume was crime-related (one evening, a helicopter flying a few blocks from the hotel shining a spotlight on the ground)  A great supermarket was conveniently located across the street which I went to every night for cooler ice. The best thing about the hotel was their continental breakfast.  They had a lot of choices, of which I tried most in 4 mornings, and all the food was fresh and good.  Loved the waffle-maker!  Why can't more hotels/motels have breakfast that is more than a piece of fruit and plain toast.Very good hotel overall.More</t>
   </si>
   <si>
+    <t>savethesaltonsea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r19627390-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1910,6 +2171,9 @@
 Being that I work at a resort myself, I'm very careful to use my debit card to hold a reservation - I only did so after calling the property directly to confirm no deposit would be taken, which they confirmed. Upon arriving, I told the front desk agent I would like to use a different card than the one I used to hold the reservation with, which he said was fine. I signed the registration form with the new credit card information. Upon getting to my room, I called both my credit card used and debit card to check the balances on both - I had over $250 holding on both cards! I'm very aware that additional money is usually held for parking, resort fees, incidentals, etc - but I had specifically asked for my debit card not to be charged! I walked back to the front desk and asked for them to reverse the charge, which the agent...I was planning a trip with my boyfriend to see a concert in Hollywood, CA, when we saw a great offer through AAA for $85 a night online! And shortly after arriving, we quickly saw why. From the brand name, we had already been expecting 2-3 diamond standard service - which was fine with us. We weren't planning to spend a majority of our time at the resort. There are a couple things that should change though if they haven't already!Being that I work at a resort myself, I'm very careful to use my debit card to hold a reservation - I only did so after calling the property directly to confirm no deposit would be taken, which they confirmed. Upon arriving, I told the front desk agent I would like to use a different card than the one I used to hold the reservation with, which he said was fine. I signed the registration form with the new credit card information. Upon getting to my room, I called both my credit card used and debit card to check the balances on both - I had over $250 holding on both cards! I'm very aware that additional money is usually held for parking, resort fees, incidentals, etc - but I had specifically asked for my debit card not to be charged! I walked back to the front desk and asked for them to reverse the charge, which the agent said he had already done - and that it's up to the bank now to release it. Again, I work at a front desk myself - after asking him to please call the authorization center and to reverse the authorization using his merchant number, he said he couldn't do it and that only a manager could - and the next manager wouldn't be there until the day of my departure. This was a horrible start to 3 days, since the money in my checking was what I would be using for food, recreation etc. Had it been held only on the debit card, I would have used my credit card - but he was holding both! That's near $500 I couldn't use! I told him he should do his best to fix it himself or to call his manager, as I wouldn't be paying for his mistake.Shortly after we had settled in and unpacked everything, the fire alarm system went off. Assuming it could be serious, we picked up everything we could grab (after just unpacking it) and ran down the stairs. We were stuck outside of the hotel for roughly 45 minutes before it was clear to go back in.We went to the concert that evening, and came back to find there were no parking spaces available. This upset me because we're paying for daily parking, and either 1) there aren't enough spaces to accomodate all guests, or 2) someone is bringining additional cars, which hurts both the employees and the guests. There was a parking space blocked off with traffic cones, which I removed myself - I was not going to pay someone else for overnight parking when I was already paying that to the hotel!Beds were very comfortable - A/C was a bit loud.The next morning, took a shower - very refreshing, strong pressure - until the hot water went out! Day of departure - hotel included continental breakfast. The bagels and muffins were stale! We ended up going to Denny's before driving home.It's good that my boyfriend and I have humor, because most of these things were pretty funny in restrospect - but I left comments with the manager - so hopefully, your future stay there is more enjoyable! Just remember when selecting a hotel/resort/inn, you usually get what you pay for!More</t>
   </si>
   <si>
+    <t>safey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r13837190-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1931,6 +2195,9 @@
     <t>As we were driving to this hotel at night, we were concerned about the area, as it doesn't seem like the best part of town. We were pleasantly surpised upon arrival, as the place is practically brand new. Our room was very spacious, with two queen beds, desk area, etc;. Staff is very good and helpful, and there is free internet access with a printer in the lobby area. Free parking too. Very good breakfast included from 7-10am in a large room. Great fresh fruit and bagels, rolls, pastries, etc; Our room was really great with very comfortable beds, good shower, and in brand new condition with nice furnishings and decorations. You will like this place!More</t>
   </si>
   <si>
+    <t>blessed3times</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r11675648-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1952,6 +2219,9 @@
     <t>I recently booked a room at the Comfort inn &amp; suites in North Hollywood, when we visited the Ellen DeGeneres show, and I have to say, it was a very nice, comfortable stay. I felt a little weary when we drove up late, cause the neighborhood didn't look very safe, but since I was traveling with 3 other people, I felt a lot safer. Even though we didn't check in until almost midnight, we were able to find parking in the covered garage. The staff was very friendly and the rooms were very nice and clean. The beds were comfortable and taking a shower was a bit of a surprise because either the pressure is too low or too high and the water is too hot or too cold, but the shower was actually very pleasant. They have a free continental breakfast every morning, I didn't make it down on time so I can't comment on that. But all in all, I was very much satisfied with my stay. I do think, however, that it is a little over priced.More</t>
   </si>
   <si>
+    <t>travelmot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r8592918-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1973,6 +2243,9 @@
     <t>A friend of mine booked this place for a few of us to stay while we were visiting some friends and on our way to Universal Studios.  I must admit I was a little afraid to see what this place would be like, especially as we were driving down Lankershim and noticed it probably wasn't the best of neighborhoods.  We had 2 suites booked (apparently there are only 4 in the whole place?) and when we walked in, everything seemed pretty new.  Dark wood furniture, fairly modern decor and the white shutters were a nice touch.  The suite was very spacious: 2 queen sized beds, a sofa bed that was separated by a tiny half wall (no distinct separation here), a desk, and a small table.  We had 4 adults in the room with ample space.  Housekeeping did a great job of maintaining the cleanliness.  Free Wi-Fi was great.  The place is about a 15 minute drive from Universal Studios and the breakfast room is bright and cheery in the morning with the sun coming through the tall windows.  Breakfast is continental, includes fruit, waffles, baked goods, coffee/milk/juice...a good amount for what is needed.  Garage is definitely too small for the amount of guests there when we visited.  But there is parking along the street as well which makes it bearable.  All in all, an enjoyable stay but considering the location and that it is almost a glamorized motel, I...A friend of mine booked this place for a few of us to stay while we were visiting some friends and on our way to Universal Studios.  I must admit I was a little afraid to see what this place would be like, especially as we were driving down Lankershim and noticed it probably wasn't the best of neighborhoods.  We had 2 suites booked (apparently there are only 4 in the whole place?) and when we walked in, everything seemed pretty new.  Dark wood furniture, fairly modern decor and the white shutters were a nice touch.  The suite was very spacious: 2 queen sized beds, a sofa bed that was separated by a tiny half wall (no distinct separation here), a desk, and a small table.  We had 4 adults in the room with ample space.  Housekeeping did a great job of maintaining the cleanliness.  Free Wi-Fi was great.  The place is about a 15 minute drive from Universal Studios and the breakfast room is bright and cheery in the morning with the sun coming through the tall windows.  Breakfast is continental, includes fruit, waffles, baked goods, coffee/milk/juice...a good amount for what is needed.  Garage is definitely too small for the amount of guests there when we visited.  But there is parking along the street as well which makes it bearable.  All in all, an enjoyable stay but considering the location and that it is almost a glamorized motel, I agree...shouldn't be more than $99/night..More</t>
   </si>
   <si>
+    <t>Msdia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r7236774-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1992,6 +2265,9 @@
   </si>
   <si>
     <t>After searching on the internet for hotels to stay in, I became a little frustrated at trying to pick something decent after finally settling on this Comfort inn, I was very pleased when we got to LA late and checked in.  This hotel is an  excellent place to stay!!!  The room sizes are great, the staff was very friendly and the continental breakfast was great.  We stayed there for 5 nights and I would definately go back to that hotel.  I highly recommend this hotel.  The only thing that I can really say and its not really negative is the swimming pool was a little wierd where it was located (in the parking garage) That particular hotel really does not need a swimming pool, my suggestion would be to add a few more parking spaces and get rid of the pool, so if you are not looking to go swimming this is the hotel for you.   Parking was not bad, and when we came back late they would always find us a place to park!!More</t>
+  </si>
+  <si>
+    <t>mkstach</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d632541-r6556097-Comfort_Inn_Suites_Near_Universal_N_Hollywood_Burbank-Los_Angeles_California.html</t>
@@ -2511,43 +2787,47 @@
       <c r="A2" t="n">
         <v>54553</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>131046</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2561,50 +2841,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>54553</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>121056</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2618,50 +2902,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>54553</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>100133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2675,50 +2963,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>54553</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>131047</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2736,50 +3028,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>54553</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>131048</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>76</v>
       </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>72</v>
-      </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2793,50 +3089,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>54553</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>654</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2856,50 +3156,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>54553</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>6608</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2917,50 +3221,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>54553</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>6609</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2974,50 +3282,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>54553</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>43820</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3031,50 +3343,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>54553</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>131049</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3088,50 +3404,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>54553</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>131050</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3149,41 +3469,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>54553</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>131051</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
@@ -3202,50 +3526,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>54553</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>25805</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3259,50 +3587,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>54553</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>131052</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3322,50 +3654,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>54553</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>131053</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3379,50 +3715,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>54553</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>804</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3442,50 +3782,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>54553</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>131054</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="J18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3505,50 +3849,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>54553</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>51981</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3562,41 +3910,45 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>54553</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>131055</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="J20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
@@ -3615,50 +3967,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>54553</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>131056</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3672,50 +4028,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>54553</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>131057</v>
+      </c>
+      <c r="C22" t="s">
+        <v>184</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="J22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="K22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3729,50 +4089,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>54553</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>131058</v>
+      </c>
+      <c r="C23" t="s">
+        <v>192</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="J23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3790,50 +4154,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>54553</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>199</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="J24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3847,50 +4215,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>54553</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>131059</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="J25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3904,50 +4276,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>54553</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>131060</v>
+      </c>
+      <c r="C26" t="s">
+        <v>212</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="J26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3965,41 +4341,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>54553</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>131061</v>
+      </c>
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="J27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
@@ -4018,50 +4398,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>54553</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>7144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="J28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="K28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="L28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4075,50 +4459,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>54553</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>131062</v>
+      </c>
+      <c r="C29" t="s">
+        <v>233</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="J29" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="K29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -4136,50 +4524,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>54553</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>131063</v>
+      </c>
+      <c r="C30" t="s">
+        <v>241</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="J30" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="K30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -4197,50 +4589,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>54553</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>47527</v>
+      </c>
+      <c r="C31" t="s">
+        <v>248</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="J31" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="K31" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4254,50 +4650,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>54553</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>4464</v>
+      </c>
+      <c r="C32" t="s">
+        <v>255</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="J32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="O32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4315,56 +4715,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="X32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="Y32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>54553</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>28450</v>
+      </c>
+      <c r="C33" t="s">
+        <v>266</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="J33" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="K33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="L33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="O33" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4382,56 +4786,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="X33" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="Y33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>54553</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>131064</v>
+      </c>
+      <c r="C34" t="s">
+        <v>274</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="J34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="K34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4443,56 +4851,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="X34" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="Y34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>54553</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>7151</v>
+      </c>
+      <c r="C35" t="s">
+        <v>281</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="J35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="K35" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="O35" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -4512,50 +4924,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>54553</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>131065</v>
+      </c>
+      <c r="C36" t="s">
+        <v>288</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="J36" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="K36" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4567,56 +4983,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="X36" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="Y36" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>54553</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>131066</v>
+      </c>
+      <c r="C37" t="s">
+        <v>298</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="J37" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="K37" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4634,56 +5054,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="X37" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="Y37" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>54553</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>131067</v>
+      </c>
+      <c r="C38" t="s">
+        <v>305</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="J38" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="K38" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="L38" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="O38" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -4701,56 +5125,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="X38" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="Y38" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>54553</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>131068</v>
+      </c>
+      <c r="C39" t="s">
+        <v>315</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="J39" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="K39" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="L39" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4768,47 +5196,51 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="X39" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="Y39" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>54553</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>131069</v>
+      </c>
+      <c r="C40" t="s">
+        <v>322</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="J40" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="K40" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="L40" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
@@ -4835,56 +5267,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="X40" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="Y40" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>54553</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>7478</v>
+      </c>
+      <c r="C41" t="s">
+        <v>331</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="J41" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="K41" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4900,56 +5336,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="X41" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="Y41" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>54553</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>131070</v>
+      </c>
+      <c r="C42" t="s">
+        <v>341</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="J42" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="K42" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="O42" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4961,56 +5401,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="X42" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="Y42" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>54553</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>131071</v>
+      </c>
+      <c r="C43" t="s">
+        <v>348</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="J43" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="K43" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="L43" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -5026,56 +5470,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="X43" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="Y43" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>54553</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>131072</v>
+      </c>
+      <c r="C44" t="s">
+        <v>357</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="J44" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="K44" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="L44" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -5093,56 +5541,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="X44" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="Y44" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>54553</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>60900</v>
+      </c>
+      <c r="C45" t="s">
+        <v>367</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="J45" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="K45" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="L45" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="O45" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -5164,56 +5616,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="X45" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="Y45" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>54553</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>131073</v>
+      </c>
+      <c r="C46" t="s">
+        <v>377</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="J46" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="K46" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="L46" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5235,56 +5691,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="X46" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="Y46" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>54553</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>28420</v>
+      </c>
+      <c r="C47" t="s">
+        <v>384</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="J47" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="K47" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="L47" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="O47" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5296,56 +5756,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="X47" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="Y47" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>54553</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>9637</v>
+      </c>
+      <c r="C48" t="s">
+        <v>394</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="J48" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="K48" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="L48" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5367,56 +5831,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="X48" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="Y48" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>54553</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>131074</v>
+      </c>
+      <c r="C49" t="s">
+        <v>402</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="J49" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="K49" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="L49" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5438,56 +5906,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="X49" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="Y49" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>54553</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>131075</v>
+      </c>
+      <c r="C50" t="s">
+        <v>412</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="J50" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="K50" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="L50" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5509,56 +5981,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="X50" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="Y50" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>54553</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>16756</v>
+      </c>
+      <c r="C51" t="s">
+        <v>420</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J51" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="K51" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="L51" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
@@ -5580,56 +6056,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="X51" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="Y51" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>54553</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>131076</v>
+      </c>
+      <c r="C52" t="s">
+        <v>428</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>378</v>
+        <v>429</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>379</v>
+        <v>430</v>
       </c>
       <c r="J52" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="K52" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
       <c r="L52" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P52" t="n">
         <v>2</v>
@@ -5651,56 +6131,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="X52" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="Y52" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>54553</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>131077</v>
+      </c>
+      <c r="C53" t="s">
+        <v>436</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="J53" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="K53" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="L53" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -5722,56 +6206,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="X53" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="Y53" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>54553</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>131078</v>
+      </c>
+      <c r="C54" t="s">
+        <v>444</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="J54" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="K54" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="L54" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="O54" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5793,56 +6281,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="X54" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="Y54" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>54553</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>131079</v>
+      </c>
+      <c r="C55" t="s">
+        <v>452</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="J55" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="K55" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="L55" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5866,41 +6358,45 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>54553</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>131080</v>
+      </c>
+      <c r="C56" t="s">
+        <v>459</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="J56" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="K56" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="L56" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
@@ -5929,50 +6425,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>54553</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>12822</v>
+      </c>
+      <c r="C57" t="s">
+        <v>465</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>410</v>
+        <v>466</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
       <c r="J57" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="K57" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="L57" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5996,50 +6496,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>54553</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>131081</v>
+      </c>
+      <c r="C58" t="s">
+        <v>472</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="J58" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="K58" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="L58" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6063,50 +6567,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>54553</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>131082</v>
+      </c>
+      <c r="C59" t="s">
+        <v>479</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>422</v>
+        <v>480</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>423</v>
+        <v>481</v>
       </c>
       <c r="J59" t="s">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="K59" t="s">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="L59" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>427</v>
+        <v>485</v>
       </c>
       <c r="O59" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6130,50 +6638,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>54553</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>131083</v>
+      </c>
+      <c r="C60" t="s">
+        <v>486</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
       <c r="J60" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="K60" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="L60" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="O60" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6197,50 +6709,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>54553</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>131084</v>
+      </c>
+      <c r="C61" t="s">
+        <v>493</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>434</v>
+        <v>494</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>435</v>
+        <v>495</v>
       </c>
       <c r="J61" t="s">
-        <v>436</v>
+        <v>496</v>
       </c>
       <c r="K61" t="s">
-        <v>437</v>
+        <v>497</v>
       </c>
       <c r="L61" t="s">
-        <v>438</v>
+        <v>498</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6264,50 +6780,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>439</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>54553</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>131085</v>
+      </c>
+      <c r="C62" t="s">
+        <v>500</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>440</v>
+        <v>501</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>441</v>
+        <v>502</v>
       </c>
       <c r="J62" t="s">
-        <v>442</v>
+        <v>503</v>
       </c>
       <c r="K62" t="s">
-        <v>443</v>
+        <v>504</v>
       </c>
       <c r="L62" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
       <c r="O62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -6331,50 +6851,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>446</v>
+        <v>507</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>54553</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>131086</v>
+      </c>
+      <c r="C63" t="s">
+        <v>508</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>447</v>
+        <v>509</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>448</v>
+        <v>510</v>
       </c>
       <c r="J63" t="s">
-        <v>449</v>
+        <v>511</v>
       </c>
       <c r="K63" t="s">
-        <v>450</v>
+        <v>512</v>
       </c>
       <c r="L63" t="s">
-        <v>451</v>
+        <v>513</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -6398,50 +6922,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>453</v>
+        <v>515</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>54553</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>131087</v>
+      </c>
+      <c r="C64" t="s">
+        <v>516</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="J64" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="K64" t="s">
-        <v>457</v>
+        <v>520</v>
       </c>
       <c r="L64" t="s">
-        <v>458</v>
+        <v>521</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6465,50 +6993,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>458</v>
+        <v>521</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>54553</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>7595</v>
+      </c>
+      <c r="C65" t="s">
+        <v>522</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>459</v>
+        <v>523</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="J65" t="s">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="K65" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="L65" t="s">
-        <v>463</v>
+        <v>527</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="O65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6532,50 +7064,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>54553</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>131088</v>
+      </c>
+      <c r="C66" t="s">
+        <v>530</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="J66" t="s">
-        <v>468</v>
+        <v>533</v>
       </c>
       <c r="K66" t="s">
-        <v>469</v>
+        <v>534</v>
       </c>
       <c r="L66" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="O66" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6599,50 +7135,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>54553</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>131089</v>
+      </c>
+      <c r="C67" t="s">
+        <v>536</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>471</v>
+        <v>537</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="J67" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="K67" t="s">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="L67" t="s">
-        <v>475</v>
+        <v>541</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="O67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6666,50 +7206,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>477</v>
+        <v>543</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>54553</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>131090</v>
+      </c>
+      <c r="C68" t="s">
+        <v>544</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>478</v>
+        <v>545</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>479</v>
+        <v>546</v>
       </c>
       <c r="J68" t="s">
-        <v>480</v>
+        <v>547</v>
       </c>
       <c r="K68" t="s">
-        <v>481</v>
+        <v>548</v>
       </c>
       <c r="L68" t="s">
-        <v>482</v>
+        <v>549</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>483</v>
+        <v>550</v>
       </c>
       <c r="O68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6733,50 +7277,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>482</v>
+        <v>549</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>54553</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>131091</v>
+      </c>
+      <c r="C69" t="s">
+        <v>551</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>484</v>
+        <v>552</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>485</v>
+        <v>553</v>
       </c>
       <c r="J69" t="s">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="K69" t="s">
-        <v>487</v>
+        <v>555</v>
       </c>
       <c r="L69" t="s">
-        <v>488</v>
+        <v>556</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>489</v>
+        <v>557</v>
       </c>
       <c r="O69" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P69" t="n">
         <v>2</v>
@@ -6800,50 +7348,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>490</v>
+        <v>558</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>54553</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>131092</v>
+      </c>
+      <c r="C70" t="s">
+        <v>559</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>492</v>
+        <v>561</v>
       </c>
       <c r="J70" t="s">
-        <v>493</v>
+        <v>562</v>
       </c>
       <c r="K70" t="s">
-        <v>494</v>
+        <v>563</v>
       </c>
       <c r="L70" t="s">
-        <v>495</v>
+        <v>564</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>489</v>
+        <v>557</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6867,50 +7419,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>496</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>54553</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>131093</v>
+      </c>
+      <c r="C71" t="s">
+        <v>566</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>497</v>
+        <v>567</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>498</v>
+        <v>568</v>
       </c>
       <c r="J71" t="s">
-        <v>499</v>
+        <v>569</v>
       </c>
       <c r="K71" t="s">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="L71" t="s">
-        <v>501</v>
+        <v>571</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>502</v>
+        <v>572</v>
       </c>
       <c r="O71" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -6934,50 +7490,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>501</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>54553</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>131094</v>
+      </c>
+      <c r="C72" t="s">
+        <v>573</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>503</v>
+        <v>574</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>504</v>
+        <v>575</v>
       </c>
       <c r="J72" t="s">
-        <v>505</v>
+        <v>576</v>
       </c>
       <c r="K72" t="s">
-        <v>506</v>
+        <v>577</v>
       </c>
       <c r="L72" t="s">
-        <v>507</v>
+        <v>578</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>508</v>
+        <v>579</v>
       </c>
       <c r="O72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P72" t="n">
         <v>1</v>
@@ -6997,50 +7557,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>509</v>
+        <v>580</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>54553</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>28515</v>
+      </c>
+      <c r="C73" t="s">
+        <v>581</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>511</v>
+        <v>583</v>
       </c>
       <c r="J73" t="s">
-        <v>512</v>
+        <v>584</v>
       </c>
       <c r="K73" t="s">
-        <v>513</v>
+        <v>585</v>
       </c>
       <c r="L73" t="s">
-        <v>514</v>
+        <v>586</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>508</v>
+        <v>579</v>
       </c>
       <c r="O73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7060,50 +7624,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>515</v>
+        <v>587</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>54553</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>131095</v>
+      </c>
+      <c r="C74" t="s">
+        <v>588</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>516</v>
+        <v>589</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
       <c r="J74" t="s">
-        <v>518</v>
+        <v>591</v>
       </c>
       <c r="K74" t="s">
-        <v>519</v>
+        <v>592</v>
       </c>
       <c r="L74" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
       <c r="O74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -7123,50 +7691,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>54553</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>131096</v>
+      </c>
+      <c r="C75" t="s">
+        <v>596</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>523</v>
+        <v>597</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>524</v>
+        <v>598</v>
       </c>
       <c r="J75" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="K75" t="s">
-        <v>526</v>
+        <v>600</v>
       </c>
       <c r="L75" t="s">
-        <v>527</v>
+        <v>601</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>528</v>
+        <v>602</v>
       </c>
       <c r="O75" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7190,50 +7762,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>529</v>
+        <v>603</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>54553</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>131097</v>
+      </c>
+      <c r="C76" t="s">
+        <v>604</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>530</v>
+        <v>605</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>531</v>
+        <v>606</v>
       </c>
       <c r="J76" t="s">
-        <v>532</v>
+        <v>607</v>
       </c>
       <c r="K76" t="s">
-        <v>533</v>
+        <v>608</v>
       </c>
       <c r="L76" t="s">
-        <v>534</v>
+        <v>609</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>535</v>
+        <v>610</v>
       </c>
       <c r="O76" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7257,50 +7833,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>534</v>
+        <v>609</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>54553</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>131098</v>
+      </c>
+      <c r="C77" t="s">
+        <v>611</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>536</v>
+        <v>612</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>537</v>
+        <v>613</v>
       </c>
       <c r="J77" t="s">
-        <v>538</v>
+        <v>614</v>
       </c>
       <c r="K77" t="s">
-        <v>539</v>
+        <v>615</v>
       </c>
       <c r="L77" t="s">
-        <v>540</v>
+        <v>616</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>541</v>
+        <v>617</v>
       </c>
       <c r="O77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -7324,50 +7904,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>540</v>
+        <v>616</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>54553</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>131099</v>
+      </c>
+      <c r="C78" t="s">
+        <v>618</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>542</v>
+        <v>619</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>543</v>
+        <v>620</v>
       </c>
       <c r="J78" t="s">
-        <v>544</v>
+        <v>621</v>
       </c>
       <c r="K78" t="s">
-        <v>545</v>
+        <v>622</v>
       </c>
       <c r="L78" t="s">
-        <v>546</v>
+        <v>623</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="O78" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7391,50 +7975,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>548</v>
+        <v>625</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>54553</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>131100</v>
+      </c>
+      <c r="C79" t="s">
+        <v>626</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>549</v>
+        <v>627</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>550</v>
+        <v>628</v>
       </c>
       <c r="J79" t="s">
-        <v>551</v>
+        <v>629</v>
       </c>
       <c r="K79" t="s">
-        <v>552</v>
+        <v>630</v>
       </c>
       <c r="L79" t="s">
-        <v>553</v>
+        <v>631</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>541</v>
+        <v>617</v>
       </c>
       <c r="O79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7458,50 +8046,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>553</v>
+        <v>631</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>54553</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>131101</v>
+      </c>
+      <c r="C80" t="s">
+        <v>632</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>554</v>
+        <v>633</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="J80" t="s">
-        <v>556</v>
+        <v>635</v>
       </c>
       <c r="K80" t="s">
-        <v>557</v>
+        <v>636</v>
       </c>
       <c r="L80" t="s">
-        <v>558</v>
+        <v>637</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>559</v>
+        <v>638</v>
       </c>
       <c r="O80" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -7525,50 +8117,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>558</v>
+        <v>637</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>54553</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>131102</v>
+      </c>
+      <c r="C81" t="s">
+        <v>639</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>561</v>
+        <v>641</v>
       </c>
       <c r="J81" t="s">
-        <v>562</v>
+        <v>642</v>
       </c>
       <c r="K81" t="s">
-        <v>563</v>
+        <v>643</v>
       </c>
       <c r="L81" t="s">
-        <v>564</v>
+        <v>644</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>565</v>
+        <v>645</v>
       </c>
       <c r="O81" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7592,50 +8188,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>564</v>
+        <v>644</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>54553</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>131103</v>
+      </c>
+      <c r="C82" t="s">
+        <v>646</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>566</v>
+        <v>647</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>567</v>
+        <v>648</v>
       </c>
       <c r="J82" t="s">
-        <v>568</v>
+        <v>649</v>
       </c>
       <c r="K82" t="s">
-        <v>569</v>
+        <v>650</v>
       </c>
       <c r="L82" t="s">
-        <v>570</v>
+        <v>651</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>571</v>
+        <v>652</v>
       </c>
       <c r="O82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7659,50 +8259,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>572</v>
+        <v>653</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>54553</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>131104</v>
+      </c>
+      <c r="C83" t="s">
+        <v>654</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>573</v>
+        <v>655</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>574</v>
+        <v>656</v>
       </c>
       <c r="J83" t="s">
-        <v>575</v>
+        <v>657</v>
       </c>
       <c r="K83" t="s">
-        <v>576</v>
+        <v>658</v>
       </c>
       <c r="L83" t="s">
-        <v>577</v>
+        <v>659</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>578</v>
+        <v>660</v>
       </c>
       <c r="O83" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -7724,50 +8328,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>577</v>
+        <v>659</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>54553</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>131105</v>
+      </c>
+      <c r="C84" t="s">
+        <v>661</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>579</v>
+        <v>662</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>580</v>
+        <v>663</v>
       </c>
       <c r="J84" t="s">
-        <v>581</v>
+        <v>664</v>
       </c>
       <c r="K84" t="s">
-        <v>582</v>
+        <v>665</v>
       </c>
       <c r="L84" t="s">
-        <v>583</v>
+        <v>666</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>584</v>
+        <v>667</v>
       </c>
       <c r="O84" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7791,50 +8399,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>583</v>
+        <v>666</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>54553</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>131106</v>
+      </c>
+      <c r="C85" t="s">
+        <v>668</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>585</v>
+        <v>669</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>586</v>
+        <v>670</v>
       </c>
       <c r="J85" t="s">
-        <v>587</v>
+        <v>671</v>
       </c>
       <c r="K85" t="s">
-        <v>588</v>
+        <v>672</v>
       </c>
       <c r="L85" t="s">
-        <v>589</v>
+        <v>673</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>590</v>
+        <v>674</v>
       </c>
       <c r="O85" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -7858,50 +8470,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>591</v>
+        <v>675</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>54553</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>131107</v>
+      </c>
+      <c r="C86" t="s">
+        <v>676</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>592</v>
+        <v>677</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>593</v>
+        <v>678</v>
       </c>
       <c r="J86" t="s">
-        <v>594</v>
+        <v>679</v>
       </c>
       <c r="K86" t="s">
-        <v>595</v>
+        <v>680</v>
       </c>
       <c r="L86" t="s">
-        <v>596</v>
+        <v>681</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>597</v>
+        <v>682</v>
       </c>
       <c r="O86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -7925,41 +8541,45 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>598</v>
+        <v>683</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>54553</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>131108</v>
+      </c>
+      <c r="C87" t="s">
+        <v>684</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>599</v>
+        <v>685</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>600</v>
+        <v>686</v>
       </c>
       <c r="J87" t="s">
-        <v>601</v>
+        <v>687</v>
       </c>
       <c r="K87" t="s">
-        <v>602</v>
+        <v>688</v>
       </c>
       <c r="L87" t="s">
-        <v>603</v>
+        <v>689</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
@@ -7988,50 +8608,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>604</v>
+        <v>690</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>54553</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>131109</v>
+      </c>
+      <c r="C88" t="s">
+        <v>691</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>605</v>
+        <v>692</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>606</v>
+        <v>693</v>
       </c>
       <c r="J88" t="s">
-        <v>607</v>
+        <v>694</v>
       </c>
       <c r="K88" t="s">
-        <v>608</v>
+        <v>695</v>
       </c>
       <c r="L88" t="s">
-        <v>609</v>
+        <v>696</v>
       </c>
       <c r="M88" t="n">
         <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>610</v>
+        <v>697</v>
       </c>
       <c r="O88" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8055,50 +8679,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>611</v>
+        <v>698</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>54553</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>131110</v>
+      </c>
+      <c r="C89" t="s">
+        <v>699</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>612</v>
+        <v>700</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>613</v>
+        <v>701</v>
       </c>
       <c r="J89" t="s">
-        <v>614</v>
+        <v>702</v>
       </c>
       <c r="K89" t="s">
-        <v>615</v>
+        <v>703</v>
       </c>
       <c r="L89" t="s">
-        <v>616</v>
+        <v>704</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>617</v>
+        <v>705</v>
       </c>
       <c r="O89" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8122,50 +8750,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>618</v>
+        <v>706</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>54553</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>131111</v>
+      </c>
+      <c r="C90" t="s">
+        <v>707</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>619</v>
+        <v>708</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>620</v>
+        <v>709</v>
       </c>
       <c r="J90" t="s">
-        <v>621</v>
+        <v>710</v>
       </c>
       <c r="K90" t="s">
-        <v>622</v>
+        <v>711</v>
       </c>
       <c r="L90" t="s">
-        <v>623</v>
+        <v>712</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>624</v>
+        <v>713</v>
       </c>
       <c r="O90" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8189,50 +8821,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>625</v>
+        <v>714</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>54553</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>131112</v>
+      </c>
+      <c r="C91" t="s">
+        <v>715</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>626</v>
+        <v>716</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>627</v>
+        <v>717</v>
       </c>
       <c r="J91" t="s">
-        <v>628</v>
+        <v>718</v>
       </c>
       <c r="K91" t="s">
-        <v>629</v>
+        <v>719</v>
       </c>
       <c r="L91" t="s">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
       <c r="O91" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -8254,50 +8890,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>54553</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>131113</v>
+      </c>
+      <c r="C92" t="s">
+        <v>723</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>633</v>
+        <v>724</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>634</v>
+        <v>725</v>
       </c>
       <c r="J92" t="s">
-        <v>635</v>
+        <v>726</v>
       </c>
       <c r="K92" t="s">
-        <v>636</v>
+        <v>727</v>
       </c>
       <c r="L92" t="s">
-        <v>637</v>
+        <v>728</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>638</v>
+        <v>729</v>
       </c>
       <c r="O92" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8321,41 +8961,45 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>639</v>
+        <v>730</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>54553</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>131114</v>
+      </c>
+      <c r="C93" t="s">
+        <v>731</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>640</v>
+        <v>732</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>641</v>
+        <v>733</v>
       </c>
       <c r="J93" t="s">
-        <v>642</v>
+        <v>734</v>
       </c>
       <c r="K93" t="s">
-        <v>643</v>
+        <v>735</v>
       </c>
       <c r="L93" t="s">
-        <v>644</v>
+        <v>736</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
@@ -8374,7 +9018,7 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>644</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_122.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_122.xlsx
@@ -2788,7 +2788,7 @@
         <v>54553</v>
       </c>
       <c r="B2" t="n">
-        <v>131046</v>
+        <v>161794</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2971,7 +2971,7 @@
         <v>54553</v>
       </c>
       <c r="B5" t="n">
-        <v>131047</v>
+        <v>161795</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -3036,7 +3036,7 @@
         <v>54553</v>
       </c>
       <c r="B6" t="n">
-        <v>131048</v>
+        <v>161796</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -3351,7 +3351,7 @@
         <v>54553</v>
       </c>
       <c r="B11" t="n">
-        <v>131049</v>
+        <v>161797</v>
       </c>
       <c r="C11" t="s">
         <v>110</v>
@@ -3412,7 +3412,7 @@
         <v>54553</v>
       </c>
       <c r="B12" t="n">
-        <v>131050</v>
+        <v>161798</v>
       </c>
       <c r="C12" t="s">
         <v>117</v>
@@ -3477,7 +3477,7 @@
         <v>54553</v>
       </c>
       <c r="B13" t="n">
-        <v>131051</v>
+        <v>161799</v>
       </c>
       <c r="C13" t="s">
         <v>123</v>
@@ -3595,7 +3595,7 @@
         <v>54553</v>
       </c>
       <c r="B15" t="n">
-        <v>131052</v>
+        <v>161800</v>
       </c>
       <c r="C15" t="s">
         <v>136</v>
@@ -3662,7 +3662,7 @@
         <v>54553</v>
       </c>
       <c r="B16" t="n">
-        <v>131053</v>
+        <v>161801</v>
       </c>
       <c r="C16" t="s">
         <v>144</v>
@@ -3790,7 +3790,7 @@
         <v>54553</v>
       </c>
       <c r="B18" t="n">
-        <v>131054</v>
+        <v>131478</v>
       </c>
       <c r="C18" t="s">
         <v>157</v>
@@ -3918,7 +3918,7 @@
         <v>54553</v>
       </c>
       <c r="B20" t="n">
-        <v>131055</v>
+        <v>161802</v>
       </c>
       <c r="C20" t="s">
         <v>171</v>
@@ -3975,7 +3975,7 @@
         <v>54553</v>
       </c>
       <c r="B21" t="n">
-        <v>131056</v>
+        <v>161803</v>
       </c>
       <c r="C21" t="s">
         <v>177</v>
@@ -4036,7 +4036,7 @@
         <v>54553</v>
       </c>
       <c r="B22" t="n">
-        <v>131057</v>
+        <v>161804</v>
       </c>
       <c r="C22" t="s">
         <v>184</v>
@@ -4097,7 +4097,7 @@
         <v>54553</v>
       </c>
       <c r="B23" t="n">
-        <v>131058</v>
+        <v>161805</v>
       </c>
       <c r="C23" t="s">
         <v>192</v>
@@ -4223,7 +4223,7 @@
         <v>54553</v>
       </c>
       <c r="B25" t="n">
-        <v>131059</v>
+        <v>161806</v>
       </c>
       <c r="C25" t="s">
         <v>206</v>
@@ -4284,7 +4284,7 @@
         <v>54553</v>
       </c>
       <c r="B26" t="n">
-        <v>131060</v>
+        <v>161807</v>
       </c>
       <c r="C26" t="s">
         <v>212</v>
@@ -4349,7 +4349,7 @@
         <v>54553</v>
       </c>
       <c r="B27" t="n">
-        <v>131061</v>
+        <v>161808</v>
       </c>
       <c r="C27" t="s">
         <v>220</v>
@@ -4467,7 +4467,7 @@
         <v>54553</v>
       </c>
       <c r="B29" t="n">
-        <v>131062</v>
+        <v>161809</v>
       </c>
       <c r="C29" t="s">
         <v>233</v>
@@ -4532,7 +4532,7 @@
         <v>54553</v>
       </c>
       <c r="B30" t="n">
-        <v>131063</v>
+        <v>161810</v>
       </c>
       <c r="C30" t="s">
         <v>241</v>
@@ -4800,7 +4800,7 @@
         <v>54553</v>
       </c>
       <c r="B34" t="n">
-        <v>131064</v>
+        <v>161811</v>
       </c>
       <c r="C34" t="s">
         <v>274</v>
@@ -4932,7 +4932,7 @@
         <v>54553</v>
       </c>
       <c r="B36" t="n">
-        <v>131065</v>
+        <v>161812</v>
       </c>
       <c r="C36" t="s">
         <v>288</v>
@@ -4997,7 +4997,7 @@
         <v>54553</v>
       </c>
       <c r="B37" t="n">
-        <v>131066</v>
+        <v>161813</v>
       </c>
       <c r="C37" t="s">
         <v>298</v>
@@ -5068,7 +5068,7 @@
         <v>54553</v>
       </c>
       <c r="B38" t="n">
-        <v>131067</v>
+        <v>161814</v>
       </c>
       <c r="C38" t="s">
         <v>305</v>
@@ -5139,7 +5139,7 @@
         <v>54553</v>
       </c>
       <c r="B39" t="n">
-        <v>131068</v>
+        <v>161815</v>
       </c>
       <c r="C39" t="s">
         <v>315</v>
@@ -5210,7 +5210,7 @@
         <v>54553</v>
       </c>
       <c r="B40" t="n">
-        <v>131069</v>
+        <v>161816</v>
       </c>
       <c r="C40" t="s">
         <v>322</v>
@@ -5350,7 +5350,7 @@
         <v>54553</v>
       </c>
       <c r="B42" t="n">
-        <v>131070</v>
+        <v>161817</v>
       </c>
       <c r="C42" t="s">
         <v>341</v>
@@ -5415,7 +5415,7 @@
         <v>54553</v>
       </c>
       <c r="B43" t="n">
-        <v>131071</v>
+        <v>161818</v>
       </c>
       <c r="C43" t="s">
         <v>348</v>
@@ -5484,7 +5484,7 @@
         <v>54553</v>
       </c>
       <c r="B44" t="n">
-        <v>131072</v>
+        <v>161819</v>
       </c>
       <c r="C44" t="s">
         <v>357</v>
@@ -5630,7 +5630,7 @@
         <v>54553</v>
       </c>
       <c r="B46" t="n">
-        <v>131073</v>
+        <v>161820</v>
       </c>
       <c r="C46" t="s">
         <v>377</v>
@@ -5845,7 +5845,7 @@
         <v>54553</v>
       </c>
       <c r="B49" t="n">
-        <v>131074</v>
+        <v>161821</v>
       </c>
       <c r="C49" t="s">
         <v>402</v>
@@ -5920,7 +5920,7 @@
         <v>54553</v>
       </c>
       <c r="B50" t="n">
-        <v>131075</v>
+        <v>161822</v>
       </c>
       <c r="C50" t="s">
         <v>412</v>
@@ -6070,7 +6070,7 @@
         <v>54553</v>
       </c>
       <c r="B52" t="n">
-        <v>131076</v>
+        <v>161823</v>
       </c>
       <c r="C52" t="s">
         <v>428</v>
@@ -6145,7 +6145,7 @@
         <v>54553</v>
       </c>
       <c r="B53" t="n">
-        <v>131077</v>
+        <v>161824</v>
       </c>
       <c r="C53" t="s">
         <v>436</v>
@@ -6220,7 +6220,7 @@
         <v>54553</v>
       </c>
       <c r="B54" t="n">
-        <v>131078</v>
+        <v>161825</v>
       </c>
       <c r="C54" t="s">
         <v>444</v>
@@ -6295,7 +6295,7 @@
         <v>54553</v>
       </c>
       <c r="B55" t="n">
-        <v>131079</v>
+        <v>161826</v>
       </c>
       <c r="C55" t="s">
         <v>452</v>
@@ -6366,7 +6366,7 @@
         <v>54553</v>
       </c>
       <c r="B56" t="n">
-        <v>131080</v>
+        <v>161827</v>
       </c>
       <c r="C56" t="s">
         <v>459</v>
@@ -6504,7 +6504,7 @@
         <v>54553</v>
       </c>
       <c r="B58" t="n">
-        <v>131081</v>
+        <v>161828</v>
       </c>
       <c r="C58" t="s">
         <v>472</v>
@@ -6575,7 +6575,7 @@
         <v>54553</v>
       </c>
       <c r="B59" t="n">
-        <v>131082</v>
+        <v>161829</v>
       </c>
       <c r="C59" t="s">
         <v>479</v>
@@ -6646,7 +6646,7 @@
         <v>54553</v>
       </c>
       <c r="B60" t="n">
-        <v>131083</v>
+        <v>161830</v>
       </c>
       <c r="C60" t="s">
         <v>486</v>
@@ -6717,7 +6717,7 @@
         <v>54553</v>
       </c>
       <c r="B61" t="n">
-        <v>131084</v>
+        <v>161831</v>
       </c>
       <c r="C61" t="s">
         <v>493</v>
@@ -6788,7 +6788,7 @@
         <v>54553</v>
       </c>
       <c r="B62" t="n">
-        <v>131085</v>
+        <v>161832</v>
       </c>
       <c r="C62" t="s">
         <v>500</v>
@@ -6859,7 +6859,7 @@
         <v>54553</v>
       </c>
       <c r="B63" t="n">
-        <v>131086</v>
+        <v>161833</v>
       </c>
       <c r="C63" t="s">
         <v>508</v>
@@ -6930,7 +6930,7 @@
         <v>54553</v>
       </c>
       <c r="B64" t="n">
-        <v>131087</v>
+        <v>161834</v>
       </c>
       <c r="C64" t="s">
         <v>516</v>
@@ -7072,7 +7072,7 @@
         <v>54553</v>
       </c>
       <c r="B66" t="n">
-        <v>131088</v>
+        <v>161835</v>
       </c>
       <c r="C66" t="s">
         <v>530</v>
@@ -7143,7 +7143,7 @@
         <v>54553</v>
       </c>
       <c r="B67" t="n">
-        <v>131089</v>
+        <v>161836</v>
       </c>
       <c r="C67" t="s">
         <v>536</v>
@@ -7214,7 +7214,7 @@
         <v>54553</v>
       </c>
       <c r="B68" t="n">
-        <v>131090</v>
+        <v>161837</v>
       </c>
       <c r="C68" t="s">
         <v>544</v>
@@ -7285,7 +7285,7 @@
         <v>54553</v>
       </c>
       <c r="B69" t="n">
-        <v>131091</v>
+        <v>161838</v>
       </c>
       <c r="C69" t="s">
         <v>551</v>
@@ -7356,7 +7356,7 @@
         <v>54553</v>
       </c>
       <c r="B70" t="n">
-        <v>131092</v>
+        <v>161839</v>
       </c>
       <c r="C70" t="s">
         <v>559</v>
@@ -7427,7 +7427,7 @@
         <v>54553</v>
       </c>
       <c r="B71" t="n">
-        <v>131093</v>
+        <v>161840</v>
       </c>
       <c r="C71" t="s">
         <v>566</v>
@@ -7498,7 +7498,7 @@
         <v>54553</v>
       </c>
       <c r="B72" t="n">
-        <v>131094</v>
+        <v>161841</v>
       </c>
       <c r="C72" t="s">
         <v>573</v>
@@ -7632,7 +7632,7 @@
         <v>54553</v>
       </c>
       <c r="B74" t="n">
-        <v>131095</v>
+        <v>161842</v>
       </c>
       <c r="C74" t="s">
         <v>588</v>
@@ -7699,7 +7699,7 @@
         <v>54553</v>
       </c>
       <c r="B75" t="n">
-        <v>131096</v>
+        <v>161843</v>
       </c>
       <c r="C75" t="s">
         <v>596</v>
@@ -7770,7 +7770,7 @@
         <v>54553</v>
       </c>
       <c r="B76" t="n">
-        <v>131097</v>
+        <v>161844</v>
       </c>
       <c r="C76" t="s">
         <v>604</v>
@@ -7841,7 +7841,7 @@
         <v>54553</v>
       </c>
       <c r="B77" t="n">
-        <v>131098</v>
+        <v>161845</v>
       </c>
       <c r="C77" t="s">
         <v>611</v>
@@ -7912,7 +7912,7 @@
         <v>54553</v>
       </c>
       <c r="B78" t="n">
-        <v>131099</v>
+        <v>161846</v>
       </c>
       <c r="C78" t="s">
         <v>618</v>
@@ -7983,7 +7983,7 @@
         <v>54553</v>
       </c>
       <c r="B79" t="n">
-        <v>131100</v>
+        <v>161847</v>
       </c>
       <c r="C79" t="s">
         <v>626</v>
@@ -8054,7 +8054,7 @@
         <v>54553</v>
       </c>
       <c r="B80" t="n">
-        <v>131101</v>
+        <v>161848</v>
       </c>
       <c r="C80" t="s">
         <v>632</v>
@@ -8125,7 +8125,7 @@
         <v>54553</v>
       </c>
       <c r="B81" t="n">
-        <v>131102</v>
+        <v>161849</v>
       </c>
       <c r="C81" t="s">
         <v>639</v>
@@ -8196,7 +8196,7 @@
         <v>54553</v>
       </c>
       <c r="B82" t="n">
-        <v>131103</v>
+        <v>161850</v>
       </c>
       <c r="C82" t="s">
         <v>646</v>
@@ -8267,7 +8267,7 @@
         <v>54553</v>
       </c>
       <c r="B83" t="n">
-        <v>131104</v>
+        <v>161851</v>
       </c>
       <c r="C83" t="s">
         <v>654</v>
@@ -8336,7 +8336,7 @@
         <v>54553</v>
       </c>
       <c r="B84" t="n">
-        <v>131105</v>
+        <v>161852</v>
       </c>
       <c r="C84" t="s">
         <v>661</v>
@@ -8407,7 +8407,7 @@
         <v>54553</v>
       </c>
       <c r="B85" t="n">
-        <v>131106</v>
+        <v>161853</v>
       </c>
       <c r="C85" t="s">
         <v>668</v>
@@ -8478,7 +8478,7 @@
         <v>54553</v>
       </c>
       <c r="B86" t="n">
-        <v>131107</v>
+        <v>161854</v>
       </c>
       <c r="C86" t="s">
         <v>676</v>
@@ -8549,7 +8549,7 @@
         <v>54553</v>
       </c>
       <c r="B87" t="n">
-        <v>131108</v>
+        <v>161855</v>
       </c>
       <c r="C87" t="s">
         <v>684</v>
@@ -8616,7 +8616,7 @@
         <v>54553</v>
       </c>
       <c r="B88" t="n">
-        <v>131109</v>
+        <v>161856</v>
       </c>
       <c r="C88" t="s">
         <v>691</v>
@@ -8687,7 +8687,7 @@
         <v>54553</v>
       </c>
       <c r="B89" t="n">
-        <v>131110</v>
+        <v>161857</v>
       </c>
       <c r="C89" t="s">
         <v>699</v>
@@ -8758,7 +8758,7 @@
         <v>54553</v>
       </c>
       <c r="B90" t="n">
-        <v>131111</v>
+        <v>161858</v>
       </c>
       <c r="C90" t="s">
         <v>707</v>
@@ -8829,7 +8829,7 @@
         <v>54553</v>
       </c>
       <c r="B91" t="n">
-        <v>131112</v>
+        <v>161859</v>
       </c>
       <c r="C91" t="s">
         <v>715</v>
@@ -8898,7 +8898,7 @@
         <v>54553</v>
       </c>
       <c r="B92" t="n">
-        <v>131113</v>
+        <v>161860</v>
       </c>
       <c r="C92" t="s">
         <v>723</v>
@@ -8969,7 +8969,7 @@
         <v>54553</v>
       </c>
       <c r="B93" t="n">
-        <v>131114</v>
+        <v>161861</v>
       </c>
       <c r="C93" t="s">
         <v>731</v>
